--- a/Aplikasi Skripsi/output_Anies Baswedan.xlsx
+++ b/Aplikasi Skripsi/output_Anies Baswedan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4397425-E02D-422D-886E-9C9AC11E7FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7764EA-5057-4278-BAA0-C4E423202230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10009" uniqueCount="3551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9919" uniqueCount="3551">
   <si>
     <t>Date</t>
   </si>
@@ -33211,8 +33211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2059"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C510" sqref="C510"/>
+    <sheetView tabSelected="1" topLeftCell="A562" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C601" sqref="C601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40364,8 +40364,8 @@
       <c r="B511" t="s">
         <v>1765</v>
       </c>
-      <c r="C511" t="s">
-        <v>4</v>
+      <c r="C511">
+        <v>1</v>
       </c>
       <c r="D511" t="s">
         <v>1917</v>
@@ -40378,8 +40378,8 @@
       <c r="B512" t="s">
         <v>1765</v>
       </c>
-      <c r="C512" t="s">
-        <v>4</v>
+      <c r="C512">
+        <v>1</v>
       </c>
       <c r="D512" t="s">
         <v>1918</v>
@@ -40392,8 +40392,8 @@
       <c r="B513" t="s">
         <v>1765</v>
       </c>
-      <c r="C513" t="s">
-        <v>4</v>
+      <c r="C513">
+        <v>2</v>
       </c>
       <c r="D513" t="s">
         <v>1919</v>
@@ -40406,8 +40406,8 @@
       <c r="B514" t="s">
         <v>1765</v>
       </c>
-      <c r="C514" t="s">
-        <v>4</v>
+      <c r="C514">
+        <v>1</v>
       </c>
       <c r="D514" t="s">
         <v>1920</v>
@@ -40420,8 +40420,8 @@
       <c r="B515" t="s">
         <v>1765</v>
       </c>
-      <c r="C515" t="s">
-        <v>4</v>
+      <c r="C515">
+        <v>1</v>
       </c>
       <c r="D515" t="s">
         <v>1921</v>
@@ -40434,8 +40434,8 @@
       <c r="B516" t="s">
         <v>1765</v>
       </c>
-      <c r="C516" t="s">
-        <v>4</v>
+      <c r="C516">
+        <v>2</v>
       </c>
       <c r="D516" t="s">
         <v>1922</v>
@@ -40448,8 +40448,8 @@
       <c r="B517" t="s">
         <v>1765</v>
       </c>
-      <c r="C517" t="s">
-        <v>4</v>
+      <c r="C517">
+        <v>2</v>
       </c>
       <c r="D517" t="s">
         <v>1923</v>
@@ -40462,8 +40462,8 @@
       <c r="B518" t="s">
         <v>1765</v>
       </c>
-      <c r="C518" t="s">
-        <v>4</v>
+      <c r="C518">
+        <v>1</v>
       </c>
       <c r="D518" t="s">
         <v>1924</v>
@@ -40476,8 +40476,8 @@
       <c r="B519" t="s">
         <v>1765</v>
       </c>
-      <c r="C519" t="s">
-        <v>4</v>
+      <c r="C519">
+        <v>1</v>
       </c>
       <c r="D519" t="s">
         <v>1925</v>
@@ -40490,8 +40490,8 @@
       <c r="B520" t="s">
         <v>1765</v>
       </c>
-      <c r="C520" t="s">
-        <v>4</v>
+      <c r="C520">
+        <v>1</v>
       </c>
       <c r="D520" t="s">
         <v>1926</v>
@@ -40504,8 +40504,8 @@
       <c r="B521" t="s">
         <v>1765</v>
       </c>
-      <c r="C521" t="s">
-        <v>4</v>
+      <c r="C521">
+        <v>2</v>
       </c>
       <c r="D521" t="s">
         <v>1927</v>
@@ -40518,8 +40518,8 @@
       <c r="B522" t="s">
         <v>1765</v>
       </c>
-      <c r="C522" t="s">
-        <v>4</v>
+      <c r="C522">
+        <v>2</v>
       </c>
       <c r="D522" t="s">
         <v>1928</v>
@@ -40532,8 +40532,8 @@
       <c r="B523" t="s">
         <v>1765</v>
       </c>
-      <c r="C523" t="s">
-        <v>4</v>
+      <c r="C523">
+        <v>2</v>
       </c>
       <c r="D523" t="s">
         <v>1929</v>
@@ -40546,8 +40546,8 @@
       <c r="B524" t="s">
         <v>1765</v>
       </c>
-      <c r="C524" t="s">
-        <v>4</v>
+      <c r="C524">
+        <v>1</v>
       </c>
       <c r="D524" t="s">
         <v>1930</v>
@@ -40560,8 +40560,8 @@
       <c r="B525" t="s">
         <v>1765</v>
       </c>
-      <c r="C525" t="s">
-        <v>4</v>
+      <c r="C525">
+        <v>1</v>
       </c>
       <c r="D525" t="s">
         <v>1931</v>
@@ -40574,8 +40574,8 @@
       <c r="B526" t="s">
         <v>1765</v>
       </c>
-      <c r="C526" t="s">
-        <v>4</v>
+      <c r="C526">
+        <v>2</v>
       </c>
       <c r="D526" t="s">
         <v>1932</v>
@@ -40588,8 +40588,8 @@
       <c r="B527" t="s">
         <v>1765</v>
       </c>
-      <c r="C527" t="s">
-        <v>4</v>
+      <c r="C527">
+        <v>1</v>
       </c>
       <c r="D527" t="s">
         <v>1933</v>
@@ -40602,8 +40602,8 @@
       <c r="B528" t="s">
         <v>1765</v>
       </c>
-      <c r="C528" t="s">
-        <v>4</v>
+      <c r="C528">
+        <v>1</v>
       </c>
       <c r="D528" t="s">
         <v>1934</v>
@@ -40616,8 +40616,8 @@
       <c r="B529" t="s">
         <v>1765</v>
       </c>
-      <c r="C529" t="s">
-        <v>4</v>
+      <c r="C529">
+        <v>2</v>
       </c>
       <c r="D529" t="s">
         <v>1935</v>
@@ -40630,8 +40630,8 @@
       <c r="B530" t="s">
         <v>1765</v>
       </c>
-      <c r="C530" t="s">
-        <v>4</v>
+      <c r="C530">
+        <v>2</v>
       </c>
       <c r="D530" t="s">
         <v>1936</v>
@@ -40644,8 +40644,8 @@
       <c r="B531" t="s">
         <v>1765</v>
       </c>
-      <c r="C531" t="s">
-        <v>4</v>
+      <c r="C531">
+        <v>2</v>
       </c>
       <c r="D531" t="s">
         <v>1937</v>
@@ -40658,8 +40658,8 @@
       <c r="B532" t="s">
         <v>1765</v>
       </c>
-      <c r="C532" t="s">
-        <v>4</v>
+      <c r="C532">
+        <v>-1</v>
       </c>
       <c r="D532" t="s">
         <v>1938</v>
@@ -40672,8 +40672,8 @@
       <c r="B533" t="s">
         <v>1765</v>
       </c>
-      <c r="C533" t="s">
-        <v>4</v>
+      <c r="C533">
+        <v>-1</v>
       </c>
       <c r="D533" t="s">
         <v>1939</v>
@@ -40686,8 +40686,8 @@
       <c r="B534" t="s">
         <v>1765</v>
       </c>
-      <c r="C534" t="s">
-        <v>4</v>
+      <c r="C534">
+        <v>1</v>
       </c>
       <c r="D534" t="s">
         <v>1940</v>
@@ -40700,8 +40700,8 @@
       <c r="B535" t="s">
         <v>1765</v>
       </c>
-      <c r="C535" t="s">
-        <v>4</v>
+      <c r="C535">
+        <v>1</v>
       </c>
       <c r="D535" t="s">
         <v>1941</v>
@@ -40714,8 +40714,8 @@
       <c r="B536" t="s">
         <v>1765</v>
       </c>
-      <c r="C536" t="s">
-        <v>4</v>
+      <c r="C536">
+        <v>1</v>
       </c>
       <c r="D536" t="s">
         <v>1942</v>
@@ -40728,8 +40728,8 @@
       <c r="B537" t="s">
         <v>1765</v>
       </c>
-      <c r="C537" t="s">
-        <v>4</v>
+      <c r="C537">
+        <v>-1</v>
       </c>
       <c r="D537" t="s">
         <v>1943</v>
@@ -40742,8 +40742,8 @@
       <c r="B538" t="s">
         <v>1765</v>
       </c>
-      <c r="C538" t="s">
-        <v>4</v>
+      <c r="C538">
+        <v>0</v>
       </c>
       <c r="D538" t="s">
         <v>1944</v>
@@ -40756,8 +40756,8 @@
       <c r="B539" t="s">
         <v>1765</v>
       </c>
-      <c r="C539" t="s">
-        <v>4</v>
+      <c r="C539">
+        <v>2</v>
       </c>
       <c r="D539" t="s">
         <v>1945</v>
@@ -40770,8 +40770,8 @@
       <c r="B540" t="s">
         <v>1765</v>
       </c>
-      <c r="C540" t="s">
-        <v>4</v>
+      <c r="C540">
+        <v>2</v>
       </c>
       <c r="D540" t="s">
         <v>1946</v>
@@ -40784,8 +40784,8 @@
       <c r="B541" t="s">
         <v>1765</v>
       </c>
-      <c r="C541" t="s">
-        <v>4</v>
+      <c r="C541">
+        <v>2</v>
       </c>
       <c r="D541" t="s">
         <v>1947</v>
@@ -40798,8 +40798,8 @@
       <c r="B542" t="s">
         <v>1765</v>
       </c>
-      <c r="C542" t="s">
-        <v>4</v>
+      <c r="C542">
+        <v>0</v>
       </c>
       <c r="D542" t="s">
         <v>1948</v>
@@ -40812,8 +40812,8 @@
       <c r="B543" t="s">
         <v>1765</v>
       </c>
-      <c r="C543" t="s">
-        <v>4</v>
+      <c r="C543">
+        <v>2</v>
       </c>
       <c r="D543" t="s">
         <v>1949</v>
@@ -40826,8 +40826,8 @@
       <c r="B544" t="s">
         <v>1765</v>
       </c>
-      <c r="C544" t="s">
-        <v>4</v>
+      <c r="C544">
+        <v>2</v>
       </c>
       <c r="D544" t="s">
         <v>1950</v>
@@ -40840,8 +40840,8 @@
       <c r="B545" t="s">
         <v>1765</v>
       </c>
-      <c r="C545" t="s">
-        <v>4</v>
+      <c r="C545">
+        <v>1</v>
       </c>
       <c r="D545" t="s">
         <v>1951</v>
@@ -40854,8 +40854,8 @@
       <c r="B546" t="s">
         <v>1765</v>
       </c>
-      <c r="C546" t="s">
-        <v>4</v>
+      <c r="C546">
+        <v>1</v>
       </c>
       <c r="D546" t="s">
         <v>1952</v>
@@ -40868,8 +40868,8 @@
       <c r="B547" t="s">
         <v>1765</v>
       </c>
-      <c r="C547" t="s">
-        <v>4</v>
+      <c r="C547">
+        <v>1</v>
       </c>
       <c r="D547" t="s">
         <v>1953</v>
@@ -40882,8 +40882,8 @@
       <c r="B548" t="s">
         <v>1765</v>
       </c>
-      <c r="C548" t="s">
-        <v>4</v>
+      <c r="C548">
+        <v>2</v>
       </c>
       <c r="D548" t="s">
         <v>1954</v>
@@ -40896,8 +40896,8 @@
       <c r="B549" t="s">
         <v>1765</v>
       </c>
-      <c r="C549" t="s">
-        <v>4</v>
+      <c r="C549">
+        <v>1</v>
       </c>
       <c r="D549" t="s">
         <v>1955</v>
@@ -40910,8 +40910,8 @@
       <c r="B550" t="s">
         <v>1956</v>
       </c>
-      <c r="C550" t="s">
-        <v>4</v>
+      <c r="C550">
+        <v>2</v>
       </c>
       <c r="D550" t="s">
         <v>1957</v>
@@ -40924,8 +40924,8 @@
       <c r="B551" t="s">
         <v>1956</v>
       </c>
-      <c r="C551" t="s">
-        <v>4</v>
+      <c r="C551">
+        <v>2</v>
       </c>
       <c r="D551" t="s">
         <v>1958</v>
@@ -40938,8 +40938,8 @@
       <c r="B552" t="s">
         <v>1956</v>
       </c>
-      <c r="C552" t="s">
-        <v>4</v>
+      <c r="C552">
+        <v>1</v>
       </c>
       <c r="D552" t="s">
         <v>1959</v>
@@ -40952,8 +40952,8 @@
       <c r="B553" t="s">
         <v>1956</v>
       </c>
-      <c r="C553" t="s">
-        <v>4</v>
+      <c r="C553">
+        <v>1</v>
       </c>
       <c r="D553" t="s">
         <v>1960</v>
@@ -40966,8 +40966,8 @@
       <c r="B554" t="s">
         <v>1956</v>
       </c>
-      <c r="C554" t="s">
-        <v>4</v>
+      <c r="C554">
+        <v>1</v>
       </c>
       <c r="D554" t="s">
         <v>1961</v>
@@ -40980,8 +40980,8 @@
       <c r="B555" t="s">
         <v>1956</v>
       </c>
-      <c r="C555" t="s">
-        <v>4</v>
+      <c r="C555">
+        <v>2</v>
       </c>
       <c r="D555" t="s">
         <v>1962</v>
@@ -40994,8 +40994,8 @@
       <c r="B556" t="s">
         <v>1956</v>
       </c>
-      <c r="C556" t="s">
-        <v>4</v>
+      <c r="C556">
+        <v>2</v>
       </c>
       <c r="D556" t="s">
         <v>1963</v>
@@ -41008,8 +41008,8 @@
       <c r="B557" t="s">
         <v>1956</v>
       </c>
-      <c r="C557" t="s">
-        <v>4</v>
+      <c r="C557">
+        <v>2</v>
       </c>
       <c r="D557" t="s">
         <v>1964</v>
@@ -41022,8 +41022,8 @@
       <c r="B558" t="s">
         <v>1956</v>
       </c>
-      <c r="C558" t="s">
-        <v>4</v>
+      <c r="C558">
+        <v>2</v>
       </c>
       <c r="D558" t="s">
         <v>1965</v>
@@ -41036,8 +41036,8 @@
       <c r="B559" t="s">
         <v>1956</v>
       </c>
-      <c r="C559" t="s">
-        <v>4</v>
+      <c r="C559">
+        <v>2</v>
       </c>
       <c r="D559" t="s">
         <v>1966</v>
@@ -41050,8 +41050,8 @@
       <c r="B560" t="s">
         <v>1956</v>
       </c>
-      <c r="C560" t="s">
-        <v>4</v>
+      <c r="C560">
+        <v>-1</v>
       </c>
       <c r="D560" t="s">
         <v>1967</v>
@@ -41064,8 +41064,8 @@
       <c r="B561" t="s">
         <v>1956</v>
       </c>
-      <c r="C561" t="s">
-        <v>4</v>
+      <c r="C561">
+        <v>1</v>
       </c>
       <c r="D561" t="s">
         <v>143</v>
@@ -41078,8 +41078,8 @@
       <c r="B562" t="s">
         <v>1956</v>
       </c>
-      <c r="C562" t="s">
-        <v>4</v>
+      <c r="C562">
+        <v>1</v>
       </c>
       <c r="D562" t="s">
         <v>1968</v>
@@ -41092,8 +41092,8 @@
       <c r="B563" t="s">
         <v>1956</v>
       </c>
-      <c r="C563" t="s">
-        <v>4</v>
+      <c r="C563">
+        <v>1</v>
       </c>
       <c r="D563" t="s">
         <v>1969</v>
@@ -41106,8 +41106,8 @@
       <c r="B564" t="s">
         <v>1956</v>
       </c>
-      <c r="C564" t="s">
-        <v>4</v>
+      <c r="C564">
+        <v>1</v>
       </c>
       <c r="D564" t="s">
         <v>1970</v>
@@ -41120,8 +41120,8 @@
       <c r="B565" t="s">
         <v>1956</v>
       </c>
-      <c r="C565" t="s">
-        <v>4</v>
+      <c r="C565">
+        <v>1</v>
       </c>
       <c r="D565" t="s">
         <v>1971</v>
@@ -41134,8 +41134,8 @@
       <c r="B566" t="s">
         <v>1956</v>
       </c>
-      <c r="C566" t="s">
-        <v>4</v>
+      <c r="C566">
+        <v>1</v>
       </c>
       <c r="D566" t="s">
         <v>1972</v>
@@ -41148,8 +41148,8 @@
       <c r="B567" t="s">
         <v>1956</v>
       </c>
-      <c r="C567" t="s">
-        <v>4</v>
+      <c r="C567">
+        <v>1</v>
       </c>
       <c r="D567" t="s">
         <v>1973</v>
@@ -41162,8 +41162,8 @@
       <c r="B568" t="s">
         <v>1956</v>
       </c>
-      <c r="C568" t="s">
-        <v>4</v>
+      <c r="C568">
+        <v>0</v>
       </c>
       <c r="D568" t="s">
         <v>1974</v>
@@ -41176,8 +41176,8 @@
       <c r="B569" t="s">
         <v>1956</v>
       </c>
-      <c r="C569" t="s">
-        <v>4</v>
+      <c r="C569">
+        <v>2</v>
       </c>
       <c r="D569" t="s">
         <v>1975</v>
@@ -41190,8 +41190,8 @@
       <c r="B570" t="s">
         <v>1956</v>
       </c>
-      <c r="C570" t="s">
-        <v>4</v>
+      <c r="C570">
+        <v>2</v>
       </c>
       <c r="D570" t="s">
         <v>1976</v>
@@ -41204,8 +41204,8 @@
       <c r="B571" t="s">
         <v>1956</v>
       </c>
-      <c r="C571" t="s">
-        <v>4</v>
+      <c r="C571">
+        <v>2</v>
       </c>
       <c r="D571" t="s">
         <v>1977</v>
@@ -41218,8 +41218,8 @@
       <c r="B572" t="s">
         <v>1956</v>
       </c>
-      <c r="C572" t="s">
-        <v>4</v>
+      <c r="C572">
+        <v>2</v>
       </c>
       <c r="D572" t="s">
         <v>1978</v>
@@ -41232,8 +41232,8 @@
       <c r="B573" t="s">
         <v>1956</v>
       </c>
-      <c r="C573" t="s">
-        <v>4</v>
+      <c r="C573">
+        <v>2</v>
       </c>
       <c r="D573" t="s">
         <v>1979</v>
@@ -41246,8 +41246,8 @@
       <c r="B574" t="s">
         <v>1956</v>
       </c>
-      <c r="C574" t="s">
-        <v>4</v>
+      <c r="C574">
+        <v>1</v>
       </c>
       <c r="D574" t="s">
         <v>1980</v>
@@ -41260,8 +41260,8 @@
       <c r="B575" t="s">
         <v>1956</v>
       </c>
-      <c r="C575" t="s">
-        <v>4</v>
+      <c r="C575">
+        <v>1</v>
       </c>
       <c r="D575" t="s">
         <v>1981</v>
@@ -41274,8 +41274,8 @@
       <c r="B576" t="s">
         <v>1956</v>
       </c>
-      <c r="C576" t="s">
-        <v>4</v>
+      <c r="C576">
+        <v>0</v>
       </c>
       <c r="D576" t="s">
         <v>1982</v>
@@ -41288,8 +41288,8 @@
       <c r="B577" t="s">
         <v>1956</v>
       </c>
-      <c r="C577" t="s">
-        <v>4</v>
+      <c r="C577">
+        <v>2</v>
       </c>
       <c r="D577" t="s">
         <v>1983</v>
@@ -41302,8 +41302,8 @@
       <c r="B578" t="s">
         <v>1956</v>
       </c>
-      <c r="C578" t="s">
-        <v>4</v>
+      <c r="C578">
+        <v>-1</v>
       </c>
       <c r="D578" t="s">
         <v>1984</v>
@@ -41316,8 +41316,8 @@
       <c r="B579" t="s">
         <v>1956</v>
       </c>
-      <c r="C579" t="s">
-        <v>4</v>
+      <c r="C579">
+        <v>2</v>
       </c>
       <c r="D579" t="s">
         <v>1985</v>
@@ -41330,8 +41330,8 @@
       <c r="B580" t="s">
         <v>1956</v>
       </c>
-      <c r="C580" t="s">
-        <v>4</v>
+      <c r="C580">
+        <v>2</v>
       </c>
       <c r="D580" t="s">
         <v>1986</v>
@@ -41344,8 +41344,8 @@
       <c r="B581" t="s">
         <v>1956</v>
       </c>
-      <c r="C581" t="s">
-        <v>4</v>
+      <c r="C581">
+        <v>2</v>
       </c>
       <c r="D581" t="s">
         <v>1987</v>
@@ -41358,8 +41358,8 @@
       <c r="B582" t="s">
         <v>1956</v>
       </c>
-      <c r="C582" t="s">
-        <v>4</v>
+      <c r="C582">
+        <v>1</v>
       </c>
       <c r="D582" t="s">
         <v>1988</v>
@@ -41372,8 +41372,8 @@
       <c r="B583" t="s">
         <v>1956</v>
       </c>
-      <c r="C583" t="s">
-        <v>4</v>
+      <c r="C583">
+        <v>-1</v>
       </c>
       <c r="D583" t="s">
         <v>1989</v>
@@ -41386,8 +41386,8 @@
       <c r="B584" t="s">
         <v>1956</v>
       </c>
-      <c r="C584" t="s">
-        <v>4</v>
+      <c r="C584">
+        <v>2</v>
       </c>
       <c r="D584" t="s">
         <v>1990</v>
@@ -41400,8 +41400,8 @@
       <c r="B585" t="s">
         <v>1956</v>
       </c>
-      <c r="C585" t="s">
-        <v>4</v>
+      <c r="C585">
+        <v>1</v>
       </c>
       <c r="D585" t="s">
         <v>1991</v>
@@ -41414,8 +41414,8 @@
       <c r="B586" t="s">
         <v>1956</v>
       </c>
-      <c r="C586" t="s">
-        <v>4</v>
+      <c r="C586">
+        <v>1</v>
       </c>
       <c r="D586" t="s">
         <v>1992</v>
@@ -41428,8 +41428,8 @@
       <c r="B587" t="s">
         <v>1956</v>
       </c>
-      <c r="C587" t="s">
-        <v>4</v>
+      <c r="C587">
+        <v>2</v>
       </c>
       <c r="D587" t="s">
         <v>1993</v>
@@ -41442,8 +41442,8 @@
       <c r="B588" t="s">
         <v>1956</v>
       </c>
-      <c r="C588" t="s">
-        <v>4</v>
+      <c r="C588">
+        <v>1</v>
       </c>
       <c r="D588" t="s">
         <v>1994</v>
@@ -41456,8 +41456,8 @@
       <c r="B589" t="s">
         <v>1956</v>
       </c>
-      <c r="C589" t="s">
-        <v>4</v>
+      <c r="C589">
+        <v>2</v>
       </c>
       <c r="D589" t="s">
         <v>1995</v>
@@ -41470,8 +41470,8 @@
       <c r="B590" t="s">
         <v>1956</v>
       </c>
-      <c r="C590" t="s">
-        <v>4</v>
+      <c r="C590">
+        <v>2</v>
       </c>
       <c r="D590" t="s">
         <v>1996</v>
@@ -41484,8 +41484,8 @@
       <c r="B591" t="s">
         <v>1956</v>
       </c>
-      <c r="C591" t="s">
-        <v>4</v>
+      <c r="C591">
+        <v>2</v>
       </c>
       <c r="D591" t="s">
         <v>1997</v>
@@ -41498,8 +41498,8 @@
       <c r="B592" t="s">
         <v>1956</v>
       </c>
-      <c r="C592" t="s">
-        <v>4</v>
+      <c r="C592">
+        <v>2</v>
       </c>
       <c r="D592" t="s">
         <v>1998</v>
@@ -41512,8 +41512,8 @@
       <c r="B593" t="s">
         <v>1956</v>
       </c>
-      <c r="C593" t="s">
-        <v>4</v>
+      <c r="C593">
+        <v>2</v>
       </c>
       <c r="D593" t="s">
         <v>1999</v>
@@ -41526,8 +41526,8 @@
       <c r="B594" t="s">
         <v>1956</v>
       </c>
-      <c r="C594" t="s">
-        <v>4</v>
+      <c r="C594">
+        <v>1</v>
       </c>
       <c r="D594" t="s">
         <v>2000</v>
@@ -41540,8 +41540,8 @@
       <c r="B595" t="s">
         <v>1956</v>
       </c>
-      <c r="C595" t="s">
-        <v>4</v>
+      <c r="C595">
+        <v>1</v>
       </c>
       <c r="D595" t="s">
         <v>2001</v>
@@ -41554,8 +41554,8 @@
       <c r="B596" t="s">
         <v>1956</v>
       </c>
-      <c r="C596" t="s">
-        <v>4</v>
+      <c r="C596">
+        <v>0</v>
       </c>
       <c r="D596" t="s">
         <v>2002</v>
@@ -41568,8 +41568,8 @@
       <c r="B597" t="s">
         <v>1956</v>
       </c>
-      <c r="C597" t="s">
-        <v>4</v>
+      <c r="C597">
+        <v>2</v>
       </c>
       <c r="D597" t="s">
         <v>2003</v>
@@ -41582,8 +41582,8 @@
       <c r="B598" t="s">
         <v>1956</v>
       </c>
-      <c r="C598" t="s">
-        <v>4</v>
+      <c r="C598">
+        <v>1</v>
       </c>
       <c r="D598" t="s">
         <v>2004</v>
@@ -41596,8 +41596,8 @@
       <c r="B599" t="s">
         <v>1956</v>
       </c>
-      <c r="C599" t="s">
-        <v>4</v>
+      <c r="C599">
+        <v>2</v>
       </c>
       <c r="D599" t="s">
         <v>2005</v>
@@ -41610,8 +41610,8 @@
       <c r="B600" t="s">
         <v>1956</v>
       </c>
-      <c r="C600" t="s">
-        <v>4</v>
+      <c r="C600">
+        <v>1</v>
       </c>
       <c r="D600" t="s">
         <v>2006</v>

--- a/Aplikasi Skripsi/output_Anies Baswedan.xlsx
+++ b/Aplikasi Skripsi/output_Anies Baswedan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFDF821-942F-4231-9850-54F1821CD859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC3A65A-2C5D-4944-84C8-B8F562A4B2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8933" uniqueCount="3521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8883" uniqueCount="3521">
   <si>
     <t>Date</t>
   </si>
@@ -33103,8 +33103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1470" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1472" sqref="C1472"/>
+    <sheetView tabSelected="1" topLeftCell="B1511" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1548" sqref="C1548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54060,8 +54060,8 @@
       <c r="B1497" t="s">
         <v>2909</v>
       </c>
-      <c r="C1497" t="s">
-        <v>4</v>
+      <c r="C1497">
+        <v>1</v>
       </c>
       <c r="D1497" t="s">
         <v>2910</v>
@@ -54074,8 +54074,8 @@
       <c r="B1498" t="s">
         <v>2909</v>
       </c>
-      <c r="C1498" t="s">
-        <v>4</v>
+      <c r="C1498">
+        <v>2</v>
       </c>
       <c r="D1498" t="s">
         <v>2911</v>
@@ -54088,8 +54088,8 @@
       <c r="B1499" t="s">
         <v>2909</v>
       </c>
-      <c r="C1499" t="s">
-        <v>4</v>
+      <c r="C1499">
+        <v>2</v>
       </c>
       <c r="D1499" t="s">
         <v>2912</v>
@@ -54102,8 +54102,8 @@
       <c r="B1500" t="s">
         <v>2909</v>
       </c>
-      <c r="C1500" t="s">
-        <v>4</v>
+      <c r="C1500">
+        <v>1</v>
       </c>
       <c r="D1500" t="s">
         <v>2913</v>
@@ -54116,8 +54116,8 @@
       <c r="B1501" t="s">
         <v>2909</v>
       </c>
-      <c r="C1501" t="s">
-        <v>4</v>
+      <c r="C1501">
+        <v>2</v>
       </c>
       <c r="D1501" t="s">
         <v>2914</v>
@@ -54130,8 +54130,8 @@
       <c r="B1502" t="s">
         <v>2909</v>
       </c>
-      <c r="C1502" t="s">
-        <v>4</v>
+      <c r="C1502">
+        <v>1</v>
       </c>
       <c r="D1502" t="s">
         <v>2915</v>
@@ -54144,8 +54144,8 @@
       <c r="B1503" t="s">
         <v>2909</v>
       </c>
-      <c r="C1503" t="s">
-        <v>4</v>
+      <c r="C1503">
+        <v>1</v>
       </c>
       <c r="D1503" t="s">
         <v>2916</v>
@@ -54158,8 +54158,8 @@
       <c r="B1504" t="s">
         <v>2909</v>
       </c>
-      <c r="C1504" t="s">
-        <v>4</v>
+      <c r="C1504">
+        <v>1</v>
       </c>
       <c r="D1504" t="s">
         <v>2917</v>
@@ -54172,8 +54172,8 @@
       <c r="B1505" t="s">
         <v>2909</v>
       </c>
-      <c r="C1505" t="s">
-        <v>4</v>
+      <c r="C1505">
+        <v>2</v>
       </c>
       <c r="D1505" t="s">
         <v>2918</v>
@@ -54186,8 +54186,8 @@
       <c r="B1506" t="s">
         <v>2909</v>
       </c>
-      <c r="C1506" t="s">
-        <v>4</v>
+      <c r="C1506">
+        <v>2</v>
       </c>
       <c r="D1506" t="s">
         <v>2919</v>
@@ -54200,8 +54200,8 @@
       <c r="B1507" t="s">
         <v>2909</v>
       </c>
-      <c r="C1507" t="s">
-        <v>4</v>
+      <c r="C1507">
+        <v>1</v>
       </c>
       <c r="D1507" t="s">
         <v>2920</v>
@@ -54214,8 +54214,8 @@
       <c r="B1508" t="s">
         <v>2909</v>
       </c>
-      <c r="C1508" t="s">
-        <v>4</v>
+      <c r="C1508">
+        <v>2</v>
       </c>
       <c r="D1508" t="s">
         <v>2921</v>
@@ -54228,8 +54228,8 @@
       <c r="B1509" t="s">
         <v>2909</v>
       </c>
-      <c r="C1509" t="s">
-        <v>4</v>
+      <c r="C1509">
+        <v>2</v>
       </c>
       <c r="D1509" t="s">
         <v>2922</v>
@@ -54242,8 +54242,8 @@
       <c r="B1510" t="s">
         <v>2909</v>
       </c>
-      <c r="C1510" t="s">
-        <v>4</v>
+      <c r="C1510">
+        <v>-1</v>
       </c>
       <c r="D1510" t="s">
         <v>2923</v>
@@ -54256,8 +54256,8 @@
       <c r="B1511" t="s">
         <v>2909</v>
       </c>
-      <c r="C1511" t="s">
-        <v>4</v>
+      <c r="C1511">
+        <v>2</v>
       </c>
       <c r="D1511" t="s">
         <v>2924</v>
@@ -54270,8 +54270,8 @@
       <c r="B1512" t="s">
         <v>2909</v>
       </c>
-      <c r="C1512" t="s">
-        <v>4</v>
+      <c r="C1512">
+        <v>1</v>
       </c>
       <c r="D1512" t="s">
         <v>2925</v>
@@ -54284,8 +54284,8 @@
       <c r="B1513" t="s">
         <v>2909</v>
       </c>
-      <c r="C1513" t="s">
-        <v>4</v>
+      <c r="C1513">
+        <v>2</v>
       </c>
       <c r="D1513" t="s">
         <v>2926</v>
@@ -54298,8 +54298,8 @@
       <c r="B1514" t="s">
         <v>2909</v>
       </c>
-      <c r="C1514" t="s">
-        <v>4</v>
+      <c r="C1514">
+        <v>2</v>
       </c>
       <c r="D1514" t="s">
         <v>2927</v>
@@ -54312,8 +54312,8 @@
       <c r="B1515" t="s">
         <v>2909</v>
       </c>
-      <c r="C1515" t="s">
-        <v>4</v>
+      <c r="C1515">
+        <v>-1</v>
       </c>
       <c r="D1515" t="s">
         <v>2928</v>
@@ -54326,8 +54326,8 @@
       <c r="B1516" t="s">
         <v>2909</v>
       </c>
-      <c r="C1516" t="s">
-        <v>4</v>
+      <c r="C1516">
+        <v>2</v>
       </c>
       <c r="D1516" t="s">
         <v>2929</v>
@@ -54340,8 +54340,8 @@
       <c r="B1517" t="s">
         <v>2909</v>
       </c>
-      <c r="C1517" t="s">
-        <v>4</v>
+      <c r="C1517">
+        <v>2</v>
       </c>
       <c r="D1517" t="s">
         <v>2930</v>
@@ -54354,8 +54354,8 @@
       <c r="B1518" t="s">
         <v>2909</v>
       </c>
-      <c r="C1518" t="s">
-        <v>4</v>
+      <c r="C1518">
+        <v>2</v>
       </c>
       <c r="D1518" t="s">
         <v>2931</v>
@@ -54368,8 +54368,8 @@
       <c r="B1519" t="s">
         <v>2909</v>
       </c>
-      <c r="C1519" t="s">
-        <v>4</v>
+      <c r="C1519">
+        <v>1</v>
       </c>
       <c r="D1519" t="s">
         <v>2932</v>
@@ -54382,8 +54382,8 @@
       <c r="B1520" t="s">
         <v>2909</v>
       </c>
-      <c r="C1520" t="s">
-        <v>4</v>
+      <c r="C1520">
+        <v>1</v>
       </c>
       <c r="D1520" t="s">
         <v>2933</v>
@@ -54396,8 +54396,8 @@
       <c r="B1521" t="s">
         <v>2909</v>
       </c>
-      <c r="C1521" t="s">
-        <v>4</v>
+      <c r="C1521">
+        <v>1</v>
       </c>
       <c r="D1521" t="s">
         <v>2934</v>
@@ -54410,8 +54410,8 @@
       <c r="B1522" t="s">
         <v>2909</v>
       </c>
-      <c r="C1522" t="s">
-        <v>4</v>
+      <c r="C1522">
+        <v>2</v>
       </c>
       <c r="D1522" t="s">
         <v>2935</v>
@@ -54424,8 +54424,8 @@
       <c r="B1523" t="s">
         <v>2909</v>
       </c>
-      <c r="C1523" t="s">
-        <v>4</v>
+      <c r="C1523">
+        <v>2</v>
       </c>
       <c r="D1523" t="s">
         <v>2936</v>
@@ -54438,8 +54438,8 @@
       <c r="B1524" t="s">
         <v>2909</v>
       </c>
-      <c r="C1524" t="s">
-        <v>4</v>
+      <c r="C1524">
+        <v>-1</v>
       </c>
       <c r="D1524" t="s">
         <v>2937</v>
@@ -54452,8 +54452,8 @@
       <c r="B1525" t="s">
         <v>2909</v>
       </c>
-      <c r="C1525" t="s">
-        <v>4</v>
+      <c r="C1525">
+        <v>2</v>
       </c>
       <c r="D1525" t="s">
         <v>2938</v>
@@ -54466,8 +54466,8 @@
       <c r="B1526" t="s">
         <v>2909</v>
       </c>
-      <c r="C1526" t="s">
-        <v>4</v>
+      <c r="C1526">
+        <v>2</v>
       </c>
       <c r="D1526" t="s">
         <v>2939</v>
@@ -54480,8 +54480,8 @@
       <c r="B1527" t="s">
         <v>2909</v>
       </c>
-      <c r="C1527" t="s">
-        <v>4</v>
+      <c r="C1527">
+        <v>2</v>
       </c>
       <c r="D1527" t="s">
         <v>2940</v>
@@ -54494,8 +54494,8 @@
       <c r="B1528" t="s">
         <v>2909</v>
       </c>
-      <c r="C1528" t="s">
-        <v>4</v>
+      <c r="C1528">
+        <v>2</v>
       </c>
       <c r="D1528" t="s">
         <v>2941</v>
@@ -54508,8 +54508,8 @@
       <c r="B1529" t="s">
         <v>2909</v>
       </c>
-      <c r="C1529" t="s">
-        <v>4</v>
+      <c r="C1529">
+        <v>1</v>
       </c>
       <c r="D1529" t="s">
         <v>2942</v>
@@ -54522,8 +54522,8 @@
       <c r="B1530" t="s">
         <v>2909</v>
       </c>
-      <c r="C1530" t="s">
-        <v>4</v>
+      <c r="C1530">
+        <v>1</v>
       </c>
       <c r="D1530" t="s">
         <v>2943</v>
@@ -54536,8 +54536,8 @@
       <c r="B1531" t="s">
         <v>2909</v>
       </c>
-      <c r="C1531" t="s">
-        <v>4</v>
+      <c r="C1531">
+        <v>1</v>
       </c>
       <c r="D1531" t="s">
         <v>2944</v>
@@ -54550,8 +54550,8 @@
       <c r="B1532" t="s">
         <v>2909</v>
       </c>
-      <c r="C1532" t="s">
-        <v>4</v>
+      <c r="C1532">
+        <v>2</v>
       </c>
       <c r="D1532" t="s">
         <v>2945</v>
@@ -54564,8 +54564,8 @@
       <c r="B1533" t="s">
         <v>2909</v>
       </c>
-      <c r="C1533" t="s">
-        <v>4</v>
+      <c r="C1533">
+        <v>1</v>
       </c>
       <c r="D1533" t="s">
         <v>2946</v>
@@ -54578,8 +54578,8 @@
       <c r="B1534" t="s">
         <v>2909</v>
       </c>
-      <c r="C1534" t="s">
-        <v>4</v>
+      <c r="C1534">
+        <v>2</v>
       </c>
       <c r="D1534" t="s">
         <v>2947</v>
@@ -54592,8 +54592,8 @@
       <c r="B1535" t="s">
         <v>2909</v>
       </c>
-      <c r="C1535" t="s">
-        <v>4</v>
+      <c r="C1535">
+        <v>2</v>
       </c>
       <c r="D1535" t="s">
         <v>2948</v>
@@ -54606,8 +54606,8 @@
       <c r="B1536" t="s">
         <v>2909</v>
       </c>
-      <c r="C1536" t="s">
-        <v>4</v>
+      <c r="C1536">
+        <v>2</v>
       </c>
       <c r="D1536" t="s">
         <v>2949</v>
@@ -54620,8 +54620,8 @@
       <c r="B1537" t="s">
         <v>2909</v>
       </c>
-      <c r="C1537" t="s">
-        <v>4</v>
+      <c r="C1537">
+        <v>1</v>
       </c>
       <c r="D1537" t="s">
         <v>2950</v>
@@ -54634,8 +54634,8 @@
       <c r="B1538" t="s">
         <v>2909</v>
       </c>
-      <c r="C1538" t="s">
-        <v>4</v>
+      <c r="C1538">
+        <v>1</v>
       </c>
       <c r="D1538" t="s">
         <v>2951</v>
@@ -54648,8 +54648,8 @@
       <c r="B1539" t="s">
         <v>2909</v>
       </c>
-      <c r="C1539" t="s">
-        <v>4</v>
+      <c r="C1539">
+        <v>2</v>
       </c>
       <c r="D1539" t="s">
         <v>2952</v>
@@ -54662,8 +54662,8 @@
       <c r="B1540" t="s">
         <v>2909</v>
       </c>
-      <c r="C1540" t="s">
-        <v>4</v>
+      <c r="C1540">
+        <v>2</v>
       </c>
       <c r="D1540" t="s">
         <v>2953</v>
@@ -54676,8 +54676,8 @@
       <c r="B1541" t="s">
         <v>2909</v>
       </c>
-      <c r="C1541" t="s">
-        <v>4</v>
+      <c r="C1541">
+        <v>2</v>
       </c>
       <c r="D1541" t="s">
         <v>2954</v>
@@ -54690,8 +54690,8 @@
       <c r="B1542" t="s">
         <v>2909</v>
       </c>
-      <c r="C1542" t="s">
-        <v>4</v>
+      <c r="C1542">
+        <v>1</v>
       </c>
       <c r="D1542" t="s">
         <v>876</v>
@@ -54704,8 +54704,8 @@
       <c r="B1543" t="s">
         <v>2909</v>
       </c>
-      <c r="C1543" t="s">
-        <v>4</v>
+      <c r="C1543">
+        <v>-1</v>
       </c>
       <c r="D1543" t="s">
         <v>2955</v>
@@ -54718,8 +54718,8 @@
       <c r="B1544" t="s">
         <v>2909</v>
       </c>
-      <c r="C1544" t="s">
-        <v>4</v>
+      <c r="C1544">
+        <v>1</v>
       </c>
       <c r="D1544" t="s">
         <v>2956</v>
@@ -54732,8 +54732,8 @@
       <c r="B1545" t="s">
         <v>2909</v>
       </c>
-      <c r="C1545" t="s">
-        <v>4</v>
+      <c r="C1545">
+        <v>1</v>
       </c>
       <c r="D1545" t="s">
         <v>2957</v>
@@ -54746,8 +54746,8 @@
       <c r="B1546" t="s">
         <v>2909</v>
       </c>
-      <c r="C1546" t="s">
-        <v>4</v>
+      <c r="C1546">
+        <v>1</v>
       </c>
       <c r="D1546" t="s">
         <v>2958</v>

--- a/Aplikasi Skripsi/output_Anies Baswedan.xlsx
+++ b/Aplikasi Skripsi/output_Anies Baswedan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC3A65A-2C5D-4944-84C8-B8F562A4B2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB86E8C-060C-4463-AFF6-56E4E5C81613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8883" uniqueCount="3521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8705" uniqueCount="3518">
   <si>
     <t>Date</t>
   </si>
@@ -11610,10 +11610,6 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Sosok Anies Baswedan sama sekali tidak sepadan dengan Presiden Jokowi maupun SBY‼️
- </t>
-  </si>
-  <si>
     <t>ini baru Presiden pilihan 2024,Anies Baswedan..</t>
   </si>
   <si>
@@ -11852,11 +11848,6 @@
 Nahan </t>
   </si>
   <si>
-    <t xml:space="preserve">Anies Baswedan hanyalah boneka politik milik Surya Paloh Cs.   Anies Baswedan sebenarnya bukan sosok hebat yang pantas didapuk menjadi calon presiden. Hanya saja Anies digambarkan oleh para pendukungnya seolah-olah dia adalah sosok hebat.
-Nduk
-Nahan </t>
-  </si>
-  <si>
     <t>Anies Baswedan for Presiden 2024.</t>
   </si>
   <si>
@@ -11918,12 +11909,6 @@
   </si>
   <si>
     <t xml:space="preserve">Said Didu Tegaskan Ada 10 Agenda yang Harus Dilakukan Anies Baswedan Jika Terpilih Jadi Presiden 2024 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Said Didu.
-Selamat kpd Mas Anies Baswedan dan Koalisi Perubahan (NasDem, Demokrat dan PKS).
-KPK itu Lembaga negara, seharusnya Presiden tidak boleh ikut campur mengatur birokrasinya.
-Bila Anies terpilih nanti, harus kembalikan fungsi Lembaga Negara tersebut. </t>
   </si>
   <si>
     <t xml:space="preserve">Said Didu.
@@ -33101,10 +33086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2029"/>
+  <dimension ref="A1:D2026"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1511" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1548" sqref="C1548"/>
+    <sheetView tabSelected="1" topLeftCell="A1715" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1715" sqref="C1715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54760,8 +54745,8 @@
       <c r="B1547" t="s">
         <v>2909</v>
       </c>
-      <c r="C1547" t="s">
-        <v>4</v>
+      <c r="C1547">
+        <v>2</v>
       </c>
       <c r="D1547" t="s">
         <v>2959</v>
@@ -54774,8 +54759,8 @@
       <c r="B1548" t="s">
         <v>2909</v>
       </c>
-      <c r="C1548" t="s">
-        <v>4</v>
+      <c r="C1548">
+        <v>2</v>
       </c>
       <c r="D1548" t="s">
         <v>2960</v>
@@ -54788,8 +54773,8 @@
       <c r="B1549" t="s">
         <v>2909</v>
       </c>
-      <c r="C1549" t="s">
-        <v>4</v>
+      <c r="C1549">
+        <v>1</v>
       </c>
       <c r="D1549" t="s">
         <v>2961</v>
@@ -54802,8 +54787,8 @@
       <c r="B1550" t="s">
         <v>2909</v>
       </c>
-      <c r="C1550" t="s">
-        <v>4</v>
+      <c r="C1550">
+        <v>2</v>
       </c>
       <c r="D1550" t="s">
         <v>2962</v>
@@ -54816,8 +54801,8 @@
       <c r="B1551" t="s">
         <v>2909</v>
       </c>
-      <c r="C1551" t="s">
-        <v>4</v>
+      <c r="C1551">
+        <v>1</v>
       </c>
       <c r="D1551" t="s">
         <v>2963</v>
@@ -54830,8 +54815,8 @@
       <c r="B1552" t="s">
         <v>2909</v>
       </c>
-      <c r="C1552" t="s">
-        <v>4</v>
+      <c r="C1552">
+        <v>2</v>
       </c>
       <c r="D1552" t="s">
         <v>2964</v>
@@ -54844,8 +54829,8 @@
       <c r="B1553" t="s">
         <v>2909</v>
       </c>
-      <c r="C1553" t="s">
-        <v>4</v>
+      <c r="C1553">
+        <v>2</v>
       </c>
       <c r="D1553" t="s">
         <v>2965</v>
@@ -54858,8 +54843,8 @@
       <c r="B1554" t="s">
         <v>2909</v>
       </c>
-      <c r="C1554" t="s">
-        <v>4</v>
+      <c r="C1554">
+        <v>2</v>
       </c>
       <c r="D1554" t="s">
         <v>2966</v>
@@ -54872,8 +54857,8 @@
       <c r="B1555" t="s">
         <v>2909</v>
       </c>
-      <c r="C1555" t="s">
-        <v>4</v>
+      <c r="C1555">
+        <v>2</v>
       </c>
       <c r="D1555" t="s">
         <v>2967</v>
@@ -54886,8 +54871,8 @@
       <c r="B1556" t="s">
         <v>2909</v>
       </c>
-      <c r="C1556" t="s">
-        <v>4</v>
+      <c r="C1556">
+        <v>1</v>
       </c>
       <c r="D1556" t="s">
         <v>2968</v>
@@ -54900,8 +54885,8 @@
       <c r="B1557" t="s">
         <v>2909</v>
       </c>
-      <c r="C1557" t="s">
-        <v>4</v>
+      <c r="C1557">
+        <v>1</v>
       </c>
       <c r="D1557" t="s">
         <v>2969</v>
@@ -54914,8 +54899,8 @@
       <c r="B1558" t="s">
         <v>2909</v>
       </c>
-      <c r="C1558" t="s">
-        <v>4</v>
+      <c r="C1558">
+        <v>2</v>
       </c>
       <c r="D1558" t="s">
         <v>2970</v>
@@ -54928,8 +54913,8 @@
       <c r="B1559" t="s">
         <v>2971</v>
       </c>
-      <c r="C1559" t="s">
-        <v>4</v>
+      <c r="C1559">
+        <v>1</v>
       </c>
       <c r="D1559" t="s">
         <v>2972</v>
@@ -54942,8 +54927,8 @@
       <c r="B1560" t="s">
         <v>2971</v>
       </c>
-      <c r="C1560" t="s">
-        <v>4</v>
+      <c r="C1560">
+        <v>2</v>
       </c>
       <c r="D1560" t="s">
         <v>2973</v>
@@ -54956,8 +54941,8 @@
       <c r="B1561" t="s">
         <v>2971</v>
       </c>
-      <c r="C1561" t="s">
-        <v>4</v>
+      <c r="C1561">
+        <v>1</v>
       </c>
       <c r="D1561" t="s">
         <v>2974</v>
@@ -54970,8 +54955,8 @@
       <c r="B1562" t="s">
         <v>2971</v>
       </c>
-      <c r="C1562" t="s">
-        <v>4</v>
+      <c r="C1562">
+        <v>1</v>
       </c>
       <c r="D1562" t="s">
         <v>2975</v>
@@ -54984,8 +54969,8 @@
       <c r="B1563" t="s">
         <v>2971</v>
       </c>
-      <c r="C1563" t="s">
-        <v>4</v>
+      <c r="C1563">
+        <v>2</v>
       </c>
       <c r="D1563" t="s">
         <v>2976</v>
@@ -54998,8 +54983,8 @@
       <c r="B1564" t="s">
         <v>2971</v>
       </c>
-      <c r="C1564" t="s">
-        <v>4</v>
+      <c r="C1564">
+        <v>2</v>
       </c>
       <c r="D1564" t="s">
         <v>2977</v>
@@ -55012,8 +54997,8 @@
       <c r="B1565" t="s">
         <v>2971</v>
       </c>
-      <c r="C1565" t="s">
-        <v>4</v>
+      <c r="C1565">
+        <v>2</v>
       </c>
       <c r="D1565" t="s">
         <v>2978</v>
@@ -55026,8 +55011,8 @@
       <c r="B1566" t="s">
         <v>2971</v>
       </c>
-      <c r="C1566" t="s">
-        <v>4</v>
+      <c r="C1566">
+        <v>2</v>
       </c>
       <c r="D1566" t="s">
         <v>2979</v>
@@ -55040,8 +55025,8 @@
       <c r="B1567" t="s">
         <v>2971</v>
       </c>
-      <c r="C1567" t="s">
-        <v>4</v>
+      <c r="C1567">
+        <v>1</v>
       </c>
       <c r="D1567" t="s">
         <v>2980</v>
@@ -55054,8 +55039,8 @@
       <c r="B1568" t="s">
         <v>2971</v>
       </c>
-      <c r="C1568" t="s">
-        <v>4</v>
+      <c r="C1568">
+        <v>2</v>
       </c>
       <c r="D1568" t="s">
         <v>2981</v>
@@ -55068,8 +55053,8 @@
       <c r="B1569" t="s">
         <v>2971</v>
       </c>
-      <c r="C1569" t="s">
-        <v>4</v>
+      <c r="C1569">
+        <v>2</v>
       </c>
       <c r="D1569" t="s">
         <v>2982</v>
@@ -55082,8 +55067,8 @@
       <c r="B1570" t="s">
         <v>2971</v>
       </c>
-      <c r="C1570" t="s">
-        <v>4</v>
+      <c r="C1570">
+        <v>2</v>
       </c>
       <c r="D1570" t="s">
         <v>2983</v>
@@ -55096,8 +55081,8 @@
       <c r="B1571" t="s">
         <v>2971</v>
       </c>
-      <c r="C1571" t="s">
-        <v>4</v>
+      <c r="C1571">
+        <v>1</v>
       </c>
       <c r="D1571" t="s">
         <v>2984</v>
@@ -55110,8 +55095,8 @@
       <c r="B1572" t="s">
         <v>2971</v>
       </c>
-      <c r="C1572" t="s">
-        <v>4</v>
+      <c r="C1572">
+        <v>2</v>
       </c>
       <c r="D1572" t="s">
         <v>2985</v>
@@ -55124,8 +55109,8 @@
       <c r="B1573" t="s">
         <v>2971</v>
       </c>
-      <c r="C1573" t="s">
-        <v>4</v>
+      <c r="C1573">
+        <v>2</v>
       </c>
       <c r="D1573" t="s">
         <v>2986</v>
@@ -55138,8 +55123,8 @@
       <c r="B1574" t="s">
         <v>2971</v>
       </c>
-      <c r="C1574" t="s">
-        <v>4</v>
+      <c r="C1574">
+        <v>2</v>
       </c>
       <c r="D1574" t="s">
         <v>2987</v>
@@ -55152,8 +55137,8 @@
       <c r="B1575" t="s">
         <v>2971</v>
       </c>
-      <c r="C1575" t="s">
-        <v>4</v>
+      <c r="C1575">
+        <v>2</v>
       </c>
       <c r="D1575" t="s">
         <v>2988</v>
@@ -55166,8 +55151,8 @@
       <c r="B1576" t="s">
         <v>2971</v>
       </c>
-      <c r="C1576" t="s">
-        <v>4</v>
+      <c r="C1576">
+        <v>2</v>
       </c>
       <c r="D1576" t="s">
         <v>2989</v>
@@ -55180,8 +55165,8 @@
       <c r="B1577" t="s">
         <v>2971</v>
       </c>
-      <c r="C1577" t="s">
-        <v>4</v>
+      <c r="C1577">
+        <v>2</v>
       </c>
       <c r="D1577" t="s">
         <v>2990</v>
@@ -55194,8 +55179,8 @@
       <c r="B1578" t="s">
         <v>2971</v>
       </c>
-      <c r="C1578" t="s">
-        <v>4</v>
+      <c r="C1578">
+        <v>1</v>
       </c>
       <c r="D1578" t="s">
         <v>2991</v>
@@ -55208,8 +55193,8 @@
       <c r="B1579" t="s">
         <v>2971</v>
       </c>
-      <c r="C1579" t="s">
-        <v>4</v>
+      <c r="C1579">
+        <v>0</v>
       </c>
       <c r="D1579" t="s">
         <v>2992</v>
@@ -55222,8 +55207,8 @@
       <c r="B1580" t="s">
         <v>2971</v>
       </c>
-      <c r="C1580" t="s">
-        <v>4</v>
+      <c r="C1580">
+        <v>2</v>
       </c>
       <c r="D1580" t="s">
         <v>2993</v>
@@ -55236,8 +55221,8 @@
       <c r="B1581" t="s">
         <v>2971</v>
       </c>
-      <c r="C1581" t="s">
-        <v>4</v>
+      <c r="C1581">
+        <v>2</v>
       </c>
       <c r="D1581" t="s">
         <v>2994</v>
@@ -55250,8 +55235,8 @@
       <c r="B1582" t="s">
         <v>2971</v>
       </c>
-      <c r="C1582" t="s">
-        <v>4</v>
+      <c r="C1582">
+        <v>2</v>
       </c>
       <c r="D1582" t="s">
         <v>2995</v>
@@ -55264,8 +55249,8 @@
       <c r="B1583" t="s">
         <v>2971</v>
       </c>
-      <c r="C1583" t="s">
-        <v>4</v>
+      <c r="C1583">
+        <v>1</v>
       </c>
       <c r="D1583" t="s">
         <v>2996</v>
@@ -55278,8 +55263,8 @@
       <c r="B1584" t="s">
         <v>2971</v>
       </c>
-      <c r="C1584" t="s">
-        <v>4</v>
+      <c r="C1584">
+        <v>1</v>
       </c>
       <c r="D1584" t="s">
         <v>2997</v>
@@ -55292,8 +55277,8 @@
       <c r="B1585" t="s">
         <v>2971</v>
       </c>
-      <c r="C1585" t="s">
-        <v>4</v>
+      <c r="C1585">
+        <v>2</v>
       </c>
       <c r="D1585" t="s">
         <v>2998</v>
@@ -55306,8 +55291,8 @@
       <c r="B1586" t="s">
         <v>2971</v>
       </c>
-      <c r="C1586" t="s">
-        <v>4</v>
+      <c r="C1586">
+        <v>2</v>
       </c>
       <c r="D1586" t="s">
         <v>2999</v>
@@ -55320,8 +55305,8 @@
       <c r="B1587" t="s">
         <v>2971</v>
       </c>
-      <c r="C1587" t="s">
-        <v>4</v>
+      <c r="C1587">
+        <v>1</v>
       </c>
       <c r="D1587" t="s">
         <v>3000</v>
@@ -55334,8 +55319,8 @@
       <c r="B1588" t="s">
         <v>2971</v>
       </c>
-      <c r="C1588" t="s">
-        <v>4</v>
+      <c r="C1588">
+        <v>2</v>
       </c>
       <c r="D1588" t="s">
         <v>3001</v>
@@ -55348,8 +55333,8 @@
       <c r="B1589" t="s">
         <v>2971</v>
       </c>
-      <c r="C1589" t="s">
-        <v>4</v>
+      <c r="C1589">
+        <v>2</v>
       </c>
       <c r="D1589" t="s">
         <v>3002</v>
@@ -55362,8 +55347,8 @@
       <c r="B1590" t="s">
         <v>2971</v>
       </c>
-      <c r="C1590" t="s">
-        <v>4</v>
+      <c r="C1590">
+        <v>1</v>
       </c>
       <c r="D1590" t="s">
         <v>3003</v>
@@ -55376,8 +55361,8 @@
       <c r="B1591" t="s">
         <v>2971</v>
       </c>
-      <c r="C1591" t="s">
-        <v>4</v>
+      <c r="C1591">
+        <v>-1</v>
       </c>
       <c r="D1591" t="s">
         <v>3004</v>
@@ -55390,8 +55375,8 @@
       <c r="B1592" t="s">
         <v>2971</v>
       </c>
-      <c r="C1592" t="s">
-        <v>4</v>
+      <c r="C1592">
+        <v>1</v>
       </c>
       <c r="D1592" t="s">
         <v>3005</v>
@@ -55404,8 +55389,8 @@
       <c r="B1593" t="s">
         <v>2971</v>
       </c>
-      <c r="C1593" t="s">
-        <v>4</v>
+      <c r="C1593">
+        <v>1</v>
       </c>
       <c r="D1593" t="s">
         <v>3006</v>
@@ -55418,8 +55403,8 @@
       <c r="B1594" t="s">
         <v>2971</v>
       </c>
-      <c r="C1594" t="s">
-        <v>4</v>
+      <c r="C1594">
+        <v>2</v>
       </c>
       <c r="D1594" t="s">
         <v>3007</v>
@@ -55432,8 +55417,8 @@
       <c r="B1595" t="s">
         <v>2971</v>
       </c>
-      <c r="C1595" t="s">
-        <v>4</v>
+      <c r="C1595">
+        <v>1</v>
       </c>
       <c r="D1595" t="s">
         <v>3008</v>
@@ -55446,8 +55431,8 @@
       <c r="B1596" t="s">
         <v>2971</v>
       </c>
-      <c r="C1596" t="s">
-        <v>4</v>
+      <c r="C1596">
+        <v>2</v>
       </c>
       <c r="D1596" t="s">
         <v>3009</v>
@@ -55460,8 +55445,8 @@
       <c r="B1597" t="s">
         <v>2971</v>
       </c>
-      <c r="C1597" t="s">
-        <v>4</v>
+      <c r="C1597">
+        <v>1</v>
       </c>
       <c r="D1597" t="s">
         <v>3010</v>
@@ -55474,8 +55459,8 @@
       <c r="B1598" t="s">
         <v>2971</v>
       </c>
-      <c r="C1598" t="s">
-        <v>4</v>
+      <c r="C1598">
+        <v>2</v>
       </c>
       <c r="D1598" t="s">
         <v>3011</v>
@@ -55488,8 +55473,8 @@
       <c r="B1599" t="s">
         <v>2971</v>
       </c>
-      <c r="C1599" t="s">
-        <v>4</v>
+      <c r="C1599">
+        <v>2</v>
       </c>
       <c r="D1599" t="s">
         <v>3012</v>
@@ -55502,8 +55487,8 @@
       <c r="B1600" t="s">
         <v>2971</v>
       </c>
-      <c r="C1600" t="s">
-        <v>4</v>
+      <c r="C1600">
+        <v>2</v>
       </c>
       <c r="D1600" t="s">
         <v>3013</v>
@@ -55516,8 +55501,8 @@
       <c r="B1601" t="s">
         <v>2971</v>
       </c>
-      <c r="C1601" t="s">
-        <v>4</v>
+      <c r="C1601">
+        <v>1</v>
       </c>
       <c r="D1601" t="s">
         <v>3014</v>
@@ -55530,8 +55515,8 @@
       <c r="B1602" t="s">
         <v>2971</v>
       </c>
-      <c r="C1602" t="s">
-        <v>4</v>
+      <c r="C1602">
+        <v>1</v>
       </c>
       <c r="D1602" t="s">
         <v>3015</v>
@@ -55544,8 +55529,8 @@
       <c r="B1603" t="s">
         <v>2971</v>
       </c>
-      <c r="C1603" t="s">
-        <v>4</v>
+      <c r="C1603">
+        <v>2</v>
       </c>
       <c r="D1603" t="s">
         <v>3016</v>
@@ -55558,8 +55543,8 @@
       <c r="B1604" t="s">
         <v>2971</v>
       </c>
-      <c r="C1604" t="s">
-        <v>4</v>
+      <c r="C1604">
+        <v>2</v>
       </c>
       <c r="D1604" t="s">
         <v>3017</v>
@@ -55567,13 +55552,13 @@
     </row>
     <row r="1605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1605" s="1">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B1605" t="s">
         <v>2971</v>
       </c>
-      <c r="C1605" t="s">
-        <v>4</v>
+      <c r="C1605">
+        <v>1</v>
       </c>
       <c r="D1605" t="s">
         <v>3018</v>
@@ -55581,13 +55566,13 @@
     </row>
     <row r="1606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1606" s="1">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B1606" t="s">
         <v>2971</v>
       </c>
-      <c r="C1606" t="s">
-        <v>4</v>
+      <c r="C1606">
+        <v>1</v>
       </c>
       <c r="D1606" t="s">
         <v>3019</v>
@@ -55595,13 +55580,13 @@
     </row>
     <row r="1607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1607" s="1">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B1607" t="s">
         <v>2971</v>
       </c>
-      <c r="C1607" t="s">
-        <v>4</v>
+      <c r="C1607">
+        <v>2</v>
       </c>
       <c r="D1607" t="s">
         <v>3020</v>
@@ -55609,13 +55594,13 @@
     </row>
     <row r="1608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1608" s="1">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="B1608" t="s">
         <v>2971</v>
       </c>
-      <c r="C1608" t="s">
-        <v>4</v>
+      <c r="C1608">
+        <v>-1</v>
       </c>
       <c r="D1608" t="s">
         <v>3021</v>
@@ -55623,13 +55608,13 @@
     </row>
     <row r="1609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1609" s="1">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1609" t="s">
         <v>2971</v>
       </c>
-      <c r="C1609" t="s">
-        <v>4</v>
+      <c r="C1609">
+        <v>2</v>
       </c>
       <c r="D1609" t="s">
         <v>3022</v>
@@ -55637,13 +55622,13 @@
     </row>
     <row r="1610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1610" s="1">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B1610" t="s">
         <v>2971</v>
       </c>
-      <c r="C1610" t="s">
-        <v>4</v>
+      <c r="C1610">
+        <v>2</v>
       </c>
       <c r="D1610" t="s">
         <v>3023</v>
@@ -55651,13 +55636,13 @@
     </row>
     <row r="1611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1611" s="1">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B1611" t="s">
         <v>2971</v>
       </c>
-      <c r="C1611" t="s">
-        <v>4</v>
+      <c r="C1611">
+        <v>1</v>
       </c>
       <c r="D1611" t="s">
         <v>3024</v>
@@ -55665,13 +55650,13 @@
     </row>
     <row r="1612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1612" s="1">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B1612" t="s">
         <v>2971</v>
       </c>
-      <c r="C1612" t="s">
-        <v>4</v>
+      <c r="C1612">
+        <v>2</v>
       </c>
       <c r="D1612" t="s">
         <v>3025</v>
@@ -55679,13 +55664,13 @@
     </row>
     <row r="1613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1613" s="1">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1613" t="s">
         <v>2971</v>
       </c>
-      <c r="C1613" t="s">
-        <v>4</v>
+      <c r="C1613">
+        <v>2</v>
       </c>
       <c r="D1613" t="s">
         <v>3026</v>
@@ -55693,13 +55678,13 @@
     </row>
     <row r="1614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1614" s="1">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1614" t="s">
         <v>2971</v>
       </c>
-      <c r="C1614" t="s">
-        <v>4</v>
+      <c r="C1614">
+        <v>2</v>
       </c>
       <c r="D1614" t="s">
         <v>3027</v>
@@ -55707,13 +55692,13 @@
     </row>
     <row r="1615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1615" s="1">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B1615" t="s">
         <v>2971</v>
       </c>
-      <c r="C1615" t="s">
-        <v>4</v>
+      <c r="C1615">
+        <v>1</v>
       </c>
       <c r="D1615" t="s">
         <v>3028</v>
@@ -55721,27 +55706,27 @@
     </row>
     <row r="1616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1616" s="1">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="B1616" t="s">
-        <v>2971</v>
-      </c>
-      <c r="C1616" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1616">
+        <v>1</v>
       </c>
       <c r="D1616" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="1617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1617" s="1">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1617" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1617" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1617">
+        <v>1</v>
       </c>
       <c r="D1617" t="s">
         <v>3031</v>
@@ -55749,13 +55734,13 @@
     </row>
     <row r="1618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1618" s="1">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B1618" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1618" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1618">
+        <v>2</v>
       </c>
       <c r="D1618" t="s">
         <v>3032</v>
@@ -55763,13 +55748,13 @@
     </row>
     <row r="1619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1619" s="1">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B1619" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1619" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1619">
+        <v>2</v>
       </c>
       <c r="D1619" t="s">
         <v>3033</v>
@@ -55777,13 +55762,13 @@
     </row>
     <row r="1620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1620" s="1">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B1620" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1620" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1620">
+        <v>-1</v>
       </c>
       <c r="D1620" t="s">
         <v>3034</v>
@@ -55791,13 +55776,13 @@
     </row>
     <row r="1621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1621" s="1">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B1621" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1621" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1621">
+        <v>1</v>
       </c>
       <c r="D1621" t="s">
         <v>3035</v>
@@ -55805,13 +55790,13 @@
     </row>
     <row r="1622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1622" s="1">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B1622" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1622" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1622">
+        <v>1</v>
       </c>
       <c r="D1622" t="s">
         <v>3036</v>
@@ -55819,13 +55804,13 @@
     </row>
     <row r="1623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1623" s="1">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B1623" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1623" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1623">
+        <v>2</v>
       </c>
       <c r="D1623" t="s">
         <v>3037</v>
@@ -55833,13 +55818,13 @@
     </row>
     <row r="1624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1624" s="1">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B1624" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1624" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1624">
+        <v>2</v>
       </c>
       <c r="D1624" t="s">
         <v>3038</v>
@@ -55847,13 +55832,13 @@
     </row>
     <row r="1625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1625" s="1">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B1625" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1625" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1625">
+        <v>0</v>
       </c>
       <c r="D1625" t="s">
         <v>3039</v>
@@ -55861,13 +55846,13 @@
     </row>
     <row r="1626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1626" s="1">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B1626" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1626" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1626">
+        <v>2</v>
       </c>
       <c r="D1626" t="s">
         <v>3040</v>
@@ -55875,13 +55860,13 @@
     </row>
     <row r="1627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1627" s="1">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B1627" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1627" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1627">
+        <v>2</v>
       </c>
       <c r="D1627" t="s">
         <v>3041</v>
@@ -55889,13 +55874,13 @@
     </row>
     <row r="1628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1628" s="1">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B1628" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1628" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1628">
+        <v>2</v>
       </c>
       <c r="D1628" t="s">
         <v>3042</v>
@@ -55903,13 +55888,13 @@
     </row>
     <row r="1629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1629" s="1">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B1629" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1629" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1629">
+        <v>2</v>
       </c>
       <c r="D1629" t="s">
         <v>3043</v>
@@ -55917,13 +55902,13 @@
     </row>
     <row r="1630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1630" s="1">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="B1630" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1630" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1630">
+        <v>1</v>
       </c>
       <c r="D1630" t="s">
         <v>3044</v>
@@ -55931,13 +55916,13 @@
     </row>
     <row r="1631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1631" s="1">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B1631" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1631" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1631">
+        <v>1</v>
       </c>
       <c r="D1631" t="s">
         <v>3045</v>
@@ -55945,13 +55930,13 @@
     </row>
     <row r="1632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1632" s="1">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="B1632" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1632" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1632">
+        <v>1</v>
       </c>
       <c r="D1632" t="s">
         <v>3046</v>
@@ -55959,13 +55944,13 @@
     </row>
     <row r="1633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1633" s="1">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B1633" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1633" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1633">
+        <v>2</v>
       </c>
       <c r="D1633" t="s">
         <v>3047</v>
@@ -55973,13 +55958,13 @@
     </row>
     <row r="1634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1634" s="1">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B1634" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1634" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1634">
+        <v>-1</v>
       </c>
       <c r="D1634" t="s">
         <v>3048</v>
@@ -55987,13 +55972,13 @@
     </row>
     <row r="1635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1635" s="1">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B1635" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1635" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1635">
+        <v>1</v>
       </c>
       <c r="D1635" t="s">
         <v>3049</v>
@@ -56001,13 +55986,13 @@
     </row>
     <row r="1636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1636" s="1">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B1636" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1636" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1636">
+        <v>2</v>
       </c>
       <c r="D1636" t="s">
         <v>3050</v>
@@ -56015,13 +56000,13 @@
     </row>
     <row r="1637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1637" s="1">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="B1637" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1637" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1637">
+        <v>2</v>
       </c>
       <c r="D1637" t="s">
         <v>3051</v>
@@ -56029,13 +56014,13 @@
     </row>
     <row r="1638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1638" s="1">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B1638" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1638" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1638">
+        <v>1</v>
       </c>
       <c r="D1638" t="s">
         <v>3052</v>
@@ -56043,13 +56028,13 @@
     </row>
     <row r="1639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1639" s="1">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B1639" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1639" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1639">
+        <v>2</v>
       </c>
       <c r="D1639" t="s">
         <v>3053</v>
@@ -56057,13 +56042,13 @@
     </row>
     <row r="1640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1640" s="1">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B1640" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1640" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1640">
+        <v>2</v>
       </c>
       <c r="D1640" t="s">
         <v>3054</v>
@@ -56071,13 +56056,13 @@
     </row>
     <row r="1641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1641" s="1">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B1641" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1641" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1641">
+        <v>1</v>
       </c>
       <c r="D1641" t="s">
         <v>3055</v>
@@ -56085,13 +56070,13 @@
     </row>
     <row r="1642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1642" s="1">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B1642" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1642" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1642">
+        <v>1</v>
       </c>
       <c r="D1642" t="s">
         <v>3056</v>
@@ -56099,13 +56084,13 @@
     </row>
     <row r="1643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1643" s="1">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B1643" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1643" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1643">
+        <v>2</v>
       </c>
       <c r="D1643" t="s">
         <v>3057</v>
@@ -56113,13 +56098,13 @@
     </row>
     <row r="1644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1644" s="1">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B1644" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1644" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1644">
+        <v>2</v>
       </c>
       <c r="D1644" t="s">
         <v>3058</v>
@@ -56127,13 +56112,13 @@
     </row>
     <row r="1645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1645" s="1">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B1645" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1645" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1645">
+        <v>2</v>
       </c>
       <c r="D1645" t="s">
         <v>3059</v>
@@ -56141,13 +56126,13 @@
     </row>
     <row r="1646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1646" s="1">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B1646" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1646" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1646">
+        <v>1</v>
       </c>
       <c r="D1646" t="s">
         <v>3060</v>
@@ -56155,13 +56140,13 @@
     </row>
     <row r="1647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1647" s="1">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B1647" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1647" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1647">
+        <v>1</v>
       </c>
       <c r="D1647" t="s">
         <v>3061</v>
@@ -56169,13 +56154,13 @@
     </row>
     <row r="1648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1648" s="1">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B1648" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1648" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1648">
+        <v>2</v>
       </c>
       <c r="D1648" t="s">
         <v>3062</v>
@@ -56183,13 +56168,13 @@
     </row>
     <row r="1649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1649" s="1">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B1649" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1649" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1649">
+        <v>2</v>
       </c>
       <c r="D1649" t="s">
         <v>3063</v>
@@ -56197,13 +56182,13 @@
     </row>
     <row r="1650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1650" s="1">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B1650" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1650" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1650">
+        <v>-1</v>
       </c>
       <c r="D1650" t="s">
         <v>3064</v>
@@ -56211,13 +56196,13 @@
     </row>
     <row r="1651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1651" s="1">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B1651" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1651" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1651">
+        <v>2</v>
       </c>
       <c r="D1651" t="s">
         <v>3065</v>
@@ -56225,13 +56210,13 @@
     </row>
     <row r="1652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1652" s="1">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B1652" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1652" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1652">
+        <v>1</v>
       </c>
       <c r="D1652" t="s">
         <v>3066</v>
@@ -56239,13 +56224,13 @@
     </row>
     <row r="1653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1653" s="1">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B1653" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1653" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1653">
+        <v>2</v>
       </c>
       <c r="D1653" t="s">
         <v>3067</v>
@@ -56253,13 +56238,13 @@
     </row>
     <row r="1654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1654" s="1">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B1654" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1654" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1654">
+        <v>2</v>
       </c>
       <c r="D1654" t="s">
         <v>3068</v>
@@ -56267,13 +56252,13 @@
     </row>
     <row r="1655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1655" s="1">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B1655" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1655" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1655">
+        <v>2</v>
       </c>
       <c r="D1655" t="s">
         <v>3069</v>
@@ -56281,13 +56266,13 @@
     </row>
     <row r="1656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1656" s="1">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B1656" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1656" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1656">
+        <v>1</v>
       </c>
       <c r="D1656" t="s">
         <v>3070</v>
@@ -56295,13 +56280,13 @@
     </row>
     <row r="1657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1657" s="1">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="B1657" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1657" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1657">
+        <v>1</v>
       </c>
       <c r="D1657" t="s">
         <v>3071</v>
@@ -56309,13 +56294,13 @@
     </row>
     <row r="1658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1658" s="1">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B1658" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1658" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1658">
+        <v>2</v>
       </c>
       <c r="D1658" t="s">
         <v>3072</v>
@@ -56323,13 +56308,13 @@
     </row>
     <row r="1659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1659" s="1">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="B1659" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1659" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1659">
+        <v>2</v>
       </c>
       <c r="D1659" t="s">
         <v>3073</v>
@@ -56337,13 +56322,13 @@
     </row>
     <row r="1660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1660" s="1">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B1660" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1660" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1660">
+        <v>-1</v>
       </c>
       <c r="D1660" t="s">
         <v>3074</v>
@@ -56351,13 +56336,13 @@
     </row>
     <row r="1661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1661" s="1">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="B1661" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1661" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1661">
+        <v>1</v>
       </c>
       <c r="D1661" t="s">
         <v>3075</v>
@@ -56365,13 +56350,13 @@
     </row>
     <row r="1662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1662" s="1">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B1662" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1662" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1662">
+        <v>2</v>
       </c>
       <c r="D1662" t="s">
         <v>3076</v>
@@ -56379,13 +56364,13 @@
     </row>
     <row r="1663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1663" s="1">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B1663" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1663" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1663">
+        <v>2</v>
       </c>
       <c r="D1663" t="s">
         <v>3077</v>
@@ -56393,13 +56378,13 @@
     </row>
     <row r="1664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1664" s="1">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B1664" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1664" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1664">
+        <v>1</v>
       </c>
       <c r="D1664" t="s">
         <v>3078</v>
@@ -56407,13 +56392,13 @@
     </row>
     <row r="1665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1665" s="1">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="B1665" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1665" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1665">
+        <v>1</v>
       </c>
       <c r="D1665" t="s">
         <v>3079</v>
@@ -56421,13 +56406,13 @@
     </row>
     <row r="1666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1666" s="1">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="B1666" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1666" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1666">
+        <v>2</v>
       </c>
       <c r="D1666" t="s">
         <v>3080</v>
@@ -56435,13 +56420,13 @@
     </row>
     <row r="1667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1667" s="1">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="B1667" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1667" t="s">
-        <v>4</v>
+        <v>3029</v>
+      </c>
+      <c r="C1667">
+        <v>2</v>
       </c>
       <c r="D1667" t="s">
         <v>3081</v>
@@ -56449,41 +56434,41 @@
     </row>
     <row r="1668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1668" s="1">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="B1668" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1668" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1668">
+        <v>1</v>
       </c>
       <c r="D1668" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1669" s="1">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="B1669" t="s">
-        <v>3030</v>
-      </c>
-      <c r="C1669" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1669">
+        <v>2</v>
       </c>
       <c r="D1669" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1670" s="1">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="B1670" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1670" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1670">
+        <v>1</v>
       </c>
       <c r="D1670" t="s">
         <v>3085</v>
@@ -56491,13 +56476,13 @@
     </row>
     <row r="1671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1671" s="1">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="B1671" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1671" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1671">
+        <v>2</v>
       </c>
       <c r="D1671" t="s">
         <v>3086</v>
@@ -56505,13 +56490,13 @@
     </row>
     <row r="1672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1672" s="1">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="B1672" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1672" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1672">
+        <v>1</v>
       </c>
       <c r="D1672" t="s">
         <v>3087</v>
@@ -56519,13 +56504,13 @@
     </row>
     <row r="1673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1673" s="1">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="B1673" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1673" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1673">
+        <v>1</v>
       </c>
       <c r="D1673" t="s">
         <v>3088</v>
@@ -56533,13 +56518,13 @@
     </row>
     <row r="1674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1674" s="1">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="B1674" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1674" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1674">
+        <v>1</v>
       </c>
       <c r="D1674" t="s">
         <v>3089</v>
@@ -56547,13 +56532,13 @@
     </row>
     <row r="1675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1675" s="1">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="B1675" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1675" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1675">
+        <v>2</v>
       </c>
       <c r="D1675" t="s">
         <v>3090</v>
@@ -56561,13 +56546,13 @@
     </row>
     <row r="1676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1676" s="1">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="B1676" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1676" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1676">
+        <v>2</v>
       </c>
       <c r="D1676" t="s">
         <v>3091</v>
@@ -56575,13 +56560,13 @@
     </row>
     <row r="1677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1677" s="1">
-        <v>1919</v>
+        <v>1924</v>
       </c>
       <c r="B1677" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1677" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1677">
+        <v>1</v>
       </c>
       <c r="D1677" t="s">
         <v>3092</v>
@@ -56589,13 +56574,13 @@
     </row>
     <row r="1678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1678" s="1">
-        <v>1920</v>
+        <v>1925</v>
       </c>
       <c r="B1678" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1678" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1678">
+        <v>0</v>
       </c>
       <c r="D1678" t="s">
         <v>3093</v>
@@ -56603,13 +56588,13 @@
     </row>
     <row r="1679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1679" s="1">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="B1679" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1679" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1679">
+        <v>1</v>
       </c>
       <c r="D1679" t="s">
         <v>3094</v>
@@ -56617,13 +56602,13 @@
     </row>
     <row r="1680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1680" s="1">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="B1680" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1680" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1680">
+        <v>2</v>
       </c>
       <c r="D1680" t="s">
         <v>3095</v>
@@ -56631,13 +56616,13 @@
     </row>
     <row r="1681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1681" s="1">
-        <v>1926</v>
+        <v>1929</v>
       </c>
       <c r="B1681" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1681" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1681">
+        <v>2</v>
       </c>
       <c r="D1681" t="s">
         <v>3096</v>
@@ -56645,13 +56630,13 @@
     </row>
     <row r="1682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1682" s="1">
-        <v>1927</v>
+        <v>1930</v>
       </c>
       <c r="B1682" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1682" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1682">
+        <v>2</v>
       </c>
       <c r="D1682" t="s">
         <v>3097</v>
@@ -56659,13 +56644,13 @@
     </row>
     <row r="1683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1683" s="1">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="B1683" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1683" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1683">
+        <v>1</v>
       </c>
       <c r="D1683" t="s">
         <v>3098</v>
@@ -56673,13 +56658,13 @@
     </row>
     <row r="1684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1684" s="1">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="B1684" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1684" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1684">
+        <v>2</v>
       </c>
       <c r="D1684" t="s">
         <v>3099</v>
@@ -56687,13 +56672,13 @@
     </row>
     <row r="1685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1685" s="1">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="B1685" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1685" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1685">
+        <v>1</v>
       </c>
       <c r="D1685" t="s">
         <v>3100</v>
@@ -56701,13 +56686,13 @@
     </row>
     <row r="1686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1686" s="1">
-        <v>1931</v>
+        <v>1934</v>
       </c>
       <c r="B1686" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1686" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1686">
+        <v>2</v>
       </c>
       <c r="D1686" t="s">
         <v>3101</v>
@@ -56715,13 +56700,13 @@
     </row>
     <row r="1687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1687" s="1">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="B1687" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1687" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1687">
+        <v>2</v>
       </c>
       <c r="D1687" t="s">
         <v>3102</v>
@@ -56729,13 +56714,13 @@
     </row>
     <row r="1688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1688" s="1">
-        <v>1933</v>
+        <v>1937</v>
       </c>
       <c r="B1688" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1688" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1688">
+        <v>-1</v>
       </c>
       <c r="D1688" t="s">
         <v>3103</v>
@@ -56743,13 +56728,13 @@
     </row>
     <row r="1689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1689" s="1">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="B1689" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1689" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1689">
+        <v>1</v>
       </c>
       <c r="D1689" t="s">
         <v>3104</v>
@@ -56757,13 +56742,13 @@
     </row>
     <row r="1690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1690" s="1">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="B1690" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1690" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1690">
+        <v>1</v>
       </c>
       <c r="D1690" t="s">
         <v>3105</v>
@@ -56771,13 +56756,13 @@
     </row>
     <row r="1691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1691" s="1">
-        <v>1937</v>
+        <v>1943</v>
       </c>
       <c r="B1691" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1691" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1691">
+        <v>2</v>
       </c>
       <c r="D1691" t="s">
         <v>3106</v>
@@ -56785,13 +56770,13 @@
     </row>
     <row r="1692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1692" s="1">
-        <v>1938</v>
+        <v>1944</v>
       </c>
       <c r="B1692" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1692" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1692">
+        <v>2</v>
       </c>
       <c r="D1692" t="s">
         <v>3107</v>
@@ -56799,13 +56784,13 @@
     </row>
     <row r="1693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1693" s="1">
-        <v>1939</v>
+        <v>1945</v>
       </c>
       <c r="B1693" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1693" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1693">
+        <v>2</v>
       </c>
       <c r="D1693" t="s">
         <v>3108</v>
@@ -56813,13 +56798,13 @@
     </row>
     <row r="1694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1694" s="1">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="B1694" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1694" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1694">
+        <v>1</v>
       </c>
       <c r="D1694" t="s">
         <v>3109</v>
@@ -56827,13 +56812,13 @@
     </row>
     <row r="1695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1695" s="1">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="B1695" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1695" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1695">
+        <v>1</v>
       </c>
       <c r="D1695" t="s">
         <v>3110</v>
@@ -56841,13 +56826,13 @@
     </row>
     <row r="1696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1696" s="1">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="B1696" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1696" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1696">
+        <v>1</v>
       </c>
       <c r="D1696" t="s">
         <v>3111</v>
@@ -56855,13 +56840,13 @@
     </row>
     <row r="1697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1697" s="1">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="B1697" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1697" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1697">
+        <v>2</v>
       </c>
       <c r="D1697" t="s">
         <v>3112</v>
@@ -56869,13 +56854,13 @@
     </row>
     <row r="1698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1698" s="1">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="B1698" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1698" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1698">
+        <v>2</v>
       </c>
       <c r="D1698" t="s">
         <v>3113</v>
@@ -56883,13 +56868,13 @@
     </row>
     <row r="1699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1699" s="1">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="B1699" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1699" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1699">
+        <v>0</v>
       </c>
       <c r="D1699" t="s">
         <v>3114</v>
@@ -56897,13 +56882,13 @@
     </row>
     <row r="1700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1700" s="1">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="B1700" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1700" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1700">
+        <v>2</v>
       </c>
       <c r="D1700" t="s">
         <v>3115</v>
@@ -56911,13 +56896,13 @@
     </row>
     <row r="1701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1701" s="1">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="B1701" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1701" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1701">
+        <v>2</v>
       </c>
       <c r="D1701" t="s">
         <v>3116</v>
@@ -56925,13 +56910,13 @@
     </row>
     <row r="1702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1702" s="1">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="B1702" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1702" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1702">
+        <v>2</v>
       </c>
       <c r="D1702" t="s">
         <v>3117</v>
@@ -56939,13 +56924,13 @@
     </row>
     <row r="1703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1703" s="1">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="B1703" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1703" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1703">
+        <v>2</v>
       </c>
       <c r="D1703" t="s">
         <v>3118</v>
@@ -56953,13 +56938,13 @@
     </row>
     <row r="1704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1704" s="1">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="B1704" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1704" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1704">
+        <v>2</v>
       </c>
       <c r="D1704" t="s">
         <v>3119</v>
@@ -56967,13 +56952,13 @@
     </row>
     <row r="1705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1705" s="1">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="B1705" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1705" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1705">
+        <v>2</v>
       </c>
       <c r="D1705" t="s">
         <v>3120</v>
@@ -56981,13 +56966,13 @@
     </row>
     <row r="1706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1706" s="1">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="B1706" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1706" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1706">
+        <v>1</v>
       </c>
       <c r="D1706" t="s">
         <v>3121</v>
@@ -56995,13 +56980,13 @@
     </row>
     <row r="1707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1707" s="1">
-        <v>1957</v>
+        <v>1960</v>
       </c>
       <c r="B1707" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1707" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1707">
+        <v>2</v>
       </c>
       <c r="D1707" t="s">
         <v>3122</v>
@@ -57009,13 +56994,13 @@
     </row>
     <row r="1708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1708" s="1">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="B1708" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1708" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1708">
+        <v>1</v>
       </c>
       <c r="D1708" t="s">
         <v>3123</v>
@@ -57023,13 +57008,13 @@
     </row>
     <row r="1709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1709" s="1">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="B1709" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1709" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1709">
+        <v>1</v>
       </c>
       <c r="D1709" t="s">
         <v>3124</v>
@@ -57037,13 +57022,13 @@
     </row>
     <row r="1710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1710" s="1">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="B1710" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1710" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1710">
+        <v>1</v>
       </c>
       <c r="D1710" t="s">
         <v>3125</v>
@@ -57051,13 +57036,13 @@
     </row>
     <row r="1711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1711" s="1">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="B1711" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1711" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1711">
+        <v>1</v>
       </c>
       <c r="D1711" t="s">
         <v>3126</v>
@@ -57065,13 +57050,13 @@
     </row>
     <row r="1712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1712" s="1">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="B1712" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1712" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1712">
+        <v>1</v>
       </c>
       <c r="D1712" t="s">
         <v>3127</v>
@@ -57079,13 +57064,13 @@
     </row>
     <row r="1713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1713" s="1">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="B1713" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1713" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1713">
+        <v>-1</v>
       </c>
       <c r="D1713" t="s">
         <v>3128</v>
@@ -57093,13 +57078,13 @@
     </row>
     <row r="1714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1714" s="1">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="B1714" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1714" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1714">
+        <v>1</v>
       </c>
       <c r="D1714" t="s">
         <v>3129</v>
@@ -57107,13 +57092,13 @@
     </row>
     <row r="1715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1715" s="1">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="B1715" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1715" t="s">
-        <v>4</v>
+        <v>3082</v>
+      </c>
+      <c r="C1715">
+        <v>1</v>
       </c>
       <c r="D1715" t="s">
         <v>3130</v>
@@ -57121,10 +57106,10 @@
     </row>
     <row r="1716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1716" s="1">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="B1716" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1716" t="s">
         <v>4</v>
@@ -57135,10 +57120,10 @@
     </row>
     <row r="1717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1717" s="1">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="B1717" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1717" t="s">
         <v>4</v>
@@ -57149,10 +57134,10 @@
     </row>
     <row r="1718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1718" s="1">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="B1718" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1718" t="s">
         <v>4</v>
@@ -57163,10 +57148,10 @@
     </row>
     <row r="1719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1719" s="1">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="B1719" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1719" t="s">
         <v>4</v>
@@ -57177,10 +57162,10 @@
     </row>
     <row r="1720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1720" s="1">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="B1720" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1720" t="s">
         <v>4</v>
@@ -57191,10 +57176,10 @@
     </row>
     <row r="1721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1721" s="1">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="B1721" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1721" t="s">
         <v>4</v>
@@ -57205,10 +57190,10 @@
     </row>
     <row r="1722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1722" s="1">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="B1722" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1722" t="s">
         <v>4</v>
@@ -57219,10 +57204,10 @@
     </row>
     <row r="1723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1723" s="1">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="B1723" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1723" t="s">
         <v>4</v>
@@ -57233,10 +57218,10 @@
     </row>
     <row r="1724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1724" s="1">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="B1724" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1724" t="s">
         <v>4</v>
@@ -57247,10 +57232,10 @@
     </row>
     <row r="1725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1725" s="1">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="B1725" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1725" t="s">
         <v>4</v>
@@ -57261,10 +57246,10 @@
     </row>
     <row r="1726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1726" s="1">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="B1726" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1726" t="s">
         <v>4</v>
@@ -57275,10 +57260,10 @@
     </row>
     <row r="1727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1727" s="1">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="B1727" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1727" t="s">
         <v>4</v>
@@ -57289,10 +57274,10 @@
     </row>
     <row r="1728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1728" s="1">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="B1728" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1728" t="s">
         <v>4</v>
@@ -57303,10 +57288,10 @@
     </row>
     <row r="1729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1729" s="1">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="B1729" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1729" t="s">
         <v>4</v>
@@ -57317,10 +57302,10 @@
     </row>
     <row r="1730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1730" s="1">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="B1730" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1730" t="s">
         <v>4</v>
@@ -57331,10 +57316,10 @@
     </row>
     <row r="1731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1731" s="1">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="B1731" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1731" t="s">
         <v>4</v>
@@ -57345,10 +57330,10 @@
     </row>
     <row r="1732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1732" s="1">
-        <v>1982</v>
+        <v>1987</v>
       </c>
       <c r="B1732" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1732" t="s">
         <v>4</v>
@@ -57359,10 +57344,10 @@
     </row>
     <row r="1733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1733" s="1">
-        <v>1983</v>
+        <v>1988</v>
       </c>
       <c r="B1733" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C1733" t="s">
         <v>4</v>
@@ -57373,52 +57358,52 @@
     </row>
     <row r="1734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1734" s="1">
-        <v>1984</v>
+        <v>1989</v>
       </c>
       <c r="B1734" t="s">
-        <v>3084</v>
+        <v>3149</v>
       </c>
       <c r="C1734" t="s">
         <v>4</v>
       </c>
       <c r="D1734" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="1735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1735" s="1">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="B1735" t="s">
-        <v>3084</v>
+        <v>3149</v>
       </c>
       <c r="C1735" t="s">
         <v>4</v>
       </c>
       <c r="D1735" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="1736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1736" s="1">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="B1736" t="s">
-        <v>3084</v>
+        <v>3149</v>
       </c>
       <c r="C1736" t="s">
         <v>4</v>
       </c>
       <c r="D1736" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="1737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1737" s="1">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="B1737" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1737" t="s">
         <v>4</v>
@@ -57429,10 +57414,10 @@
     </row>
     <row r="1738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1738" s="1">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="B1738" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1738" t="s">
         <v>4</v>
@@ -57443,10 +57428,10 @@
     </row>
     <row r="1739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1739" s="1">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="B1739" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1739" t="s">
         <v>4</v>
@@ -57457,10 +57442,10 @@
     </row>
     <row r="1740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1740" s="1">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="B1740" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1740" t="s">
         <v>4</v>
@@ -57471,10 +57456,10 @@
     </row>
     <row r="1741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1741" s="1">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="B1741" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1741" t="s">
         <v>4</v>
@@ -57485,10 +57470,10 @@
     </row>
     <row r="1742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1742" s="1">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="B1742" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1742" t="s">
         <v>4</v>
@@ -57499,10 +57484,10 @@
     </row>
     <row r="1743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1743" s="1">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="B1743" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1743" t="s">
         <v>4</v>
@@ -57513,10 +57498,10 @@
     </row>
     <row r="1744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1744" s="1">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="B1744" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1744" t="s">
         <v>4</v>
@@ -57527,10 +57512,10 @@
     </row>
     <row r="1745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1745" s="1">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="B1745" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1745" t="s">
         <v>4</v>
@@ -57541,10 +57526,10 @@
     </row>
     <row r="1746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1746" s="1">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="B1746" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1746" t="s">
         <v>4</v>
@@ -57555,10 +57540,10 @@
     </row>
     <row r="1747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1747" s="1">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="B1747" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1747" t="s">
         <v>4</v>
@@ -57569,10 +57554,10 @@
     </row>
     <row r="1748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1748" s="1">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="B1748" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1748" t="s">
         <v>4</v>
@@ -57583,10 +57568,10 @@
     </row>
     <row r="1749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1749" s="1">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="B1749" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1749" t="s">
         <v>4</v>
@@ -57597,10 +57582,10 @@
     </row>
     <row r="1750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1750" s="1">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="B1750" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1750" t="s">
         <v>4</v>
@@ -57611,10 +57596,10 @@
     </row>
     <row r="1751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1751" s="1">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="B1751" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1751" t="s">
         <v>4</v>
@@ -57625,10 +57610,10 @@
     </row>
     <row r="1752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1752" s="1">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="B1752" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1752" t="s">
         <v>4</v>
@@ -57639,10 +57624,10 @@
     </row>
     <row r="1753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1753" s="1">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="B1753" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1753" t="s">
         <v>4</v>
@@ -57653,10 +57638,10 @@
     </row>
     <row r="1754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1754" s="1">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="B1754" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1754" t="s">
         <v>4</v>
@@ -57667,10 +57652,10 @@
     </row>
     <row r="1755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1755" s="1">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="B1755" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1755" t="s">
         <v>4</v>
@@ -57681,10 +57666,10 @@
     </row>
     <row r="1756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1756" s="1">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="B1756" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1756" t="s">
         <v>4</v>
@@ -57695,10 +57680,10 @@
     </row>
     <row r="1757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1757" s="1">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="B1757" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1757" t="s">
         <v>4</v>
@@ -57709,10 +57694,10 @@
     </row>
     <row r="1758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1758" s="1">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="B1758" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1758" t="s">
         <v>4</v>
@@ -57723,10 +57708,10 @@
     </row>
     <row r="1759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1759" s="1">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B1759" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1759" t="s">
         <v>4</v>
@@ -57737,10 +57722,10 @@
     </row>
     <row r="1760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1760" s="1">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B1760" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1760" t="s">
         <v>4</v>
@@ -57751,10 +57736,10 @@
     </row>
     <row r="1761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1761" s="1">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B1761" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1761" t="s">
         <v>4</v>
@@ -57765,10 +57750,10 @@
     </row>
     <row r="1762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1762" s="1">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B1762" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1762" t="s">
         <v>4</v>
@@ -57779,10 +57764,10 @@
     </row>
     <row r="1763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1763" s="1">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B1763" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1763" t="s">
         <v>4</v>
@@ -57793,10 +57778,10 @@
     </row>
     <row r="1764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1764" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B1764" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1764" t="s">
         <v>4</v>
@@ -57807,10 +57792,10 @@
     </row>
     <row r="1765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1765" s="1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B1765" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1765" t="s">
         <v>4</v>
@@ -57821,10 +57806,10 @@
     </row>
     <row r="1766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1766" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B1766" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1766" t="s">
         <v>4</v>
@@ -57835,10 +57820,10 @@
     </row>
     <row r="1767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1767" s="1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B1767" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1767" t="s">
         <v>4</v>
@@ -57849,10 +57834,10 @@
     </row>
     <row r="1768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1768" s="1">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B1768" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1768" t="s">
         <v>4</v>
@@ -57863,10 +57848,10 @@
     </row>
     <row r="1769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1769" s="1">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="B1769" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1769" t="s">
         <v>4</v>
@@ -57877,10 +57862,10 @@
     </row>
     <row r="1770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1770" s="1">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="B1770" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1770" t="s">
         <v>4</v>
@@ -57891,10 +57876,10 @@
     </row>
     <row r="1771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1771" s="1">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="B1771" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1771" t="s">
         <v>4</v>
@@ -57905,10 +57890,10 @@
     </row>
     <row r="1772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1772" s="1">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="B1772" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1772" t="s">
         <v>4</v>
@@ -57919,10 +57904,10 @@
     </row>
     <row r="1773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1773" s="1">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="B1773" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1773" t="s">
         <v>4</v>
@@ -57933,10 +57918,10 @@
     </row>
     <row r="1774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1774" s="1">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="B1774" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1774" t="s">
         <v>4</v>
@@ -57947,10 +57932,10 @@
     </row>
     <row r="1775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1775" s="1">
-        <v>2028</v>
+        <v>2037</v>
       </c>
       <c r="B1775" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1775" t="s">
         <v>4</v>
@@ -57961,10 +57946,10 @@
     </row>
     <row r="1776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1776" s="1">
-        <v>2029</v>
+        <v>2038</v>
       </c>
       <c r="B1776" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1776" t="s">
         <v>4</v>
@@ -57975,10 +57960,10 @@
     </row>
     <row r="1777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1777" s="1">
-        <v>2030</v>
+        <v>2039</v>
       </c>
       <c r="B1777" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1777" t="s">
         <v>4</v>
@@ -57989,10 +57974,10 @@
     </row>
     <row r="1778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1778" s="1">
-        <v>2037</v>
+        <v>2040</v>
       </c>
       <c r="B1778" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1778" t="s">
         <v>4</v>
@@ -58003,10 +57988,10 @@
     </row>
     <row r="1779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1779" s="1">
-        <v>2038</v>
+        <v>2041</v>
       </c>
       <c r="B1779" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1779" t="s">
         <v>4</v>
@@ -58017,10 +58002,10 @@
     </row>
     <row r="1780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1780" s="1">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="B1780" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1780" t="s">
         <v>4</v>
@@ -58031,10 +58016,10 @@
     </row>
     <row r="1781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1781" s="1">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="B1781" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1781" t="s">
         <v>4</v>
@@ -58045,10 +58030,10 @@
     </row>
     <row r="1782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1782" s="1">
-        <v>2041</v>
+        <v>2044</v>
       </c>
       <c r="B1782" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1782" t="s">
         <v>4</v>
@@ -58059,10 +58044,10 @@
     </row>
     <row r="1783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1783" s="1">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="B1783" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1783" t="s">
         <v>4</v>
@@ -58073,10 +58058,10 @@
     </row>
     <row r="1784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1784" s="1">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="B1784" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1784" t="s">
         <v>4</v>
@@ -58087,10 +58072,10 @@
     </row>
     <row r="1785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1785" s="1">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="B1785" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1785" t="s">
         <v>4</v>
@@ -58101,10 +58086,10 @@
     </row>
     <row r="1786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1786" s="1">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="B1786" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1786" t="s">
         <v>4</v>
@@ -58115,10 +58100,10 @@
     </row>
     <row r="1787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1787" s="1">
-        <v>2047</v>
+        <v>2050</v>
       </c>
       <c r="B1787" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1787" t="s">
         <v>4</v>
@@ -58129,10 +58114,10 @@
     </row>
     <row r="1788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1788" s="1">
-        <v>2048</v>
+        <v>2051</v>
       </c>
       <c r="B1788" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1788" t="s">
         <v>4</v>
@@ -58143,10 +58128,10 @@
     </row>
     <row r="1789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1789" s="1">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="B1789" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1789" t="s">
         <v>4</v>
@@ -58157,10 +58142,10 @@
     </row>
     <row r="1790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1790" s="1">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="B1790" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1790" t="s">
         <v>4</v>
@@ -58171,10 +58156,10 @@
     </row>
     <row r="1791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1791" s="1">
-        <v>2051</v>
+        <v>2054</v>
       </c>
       <c r="B1791" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1791" t="s">
         <v>4</v>
@@ -58185,10 +58170,10 @@
     </row>
     <row r="1792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1792" s="1">
-        <v>2052</v>
+        <v>2055</v>
       </c>
       <c r="B1792" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1792" t="s">
         <v>4</v>
@@ -58199,10 +58184,10 @@
     </row>
     <row r="1793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1793" s="1">
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="B1793" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1793" t="s">
         <v>4</v>
@@ -58213,10 +58198,10 @@
     </row>
     <row r="1794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1794" s="1">
-        <v>2054</v>
+        <v>2057</v>
       </c>
       <c r="B1794" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1794" t="s">
         <v>4</v>
@@ -58227,10 +58212,10 @@
     </row>
     <row r="1795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1795" s="1">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="B1795" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1795" t="s">
         <v>4</v>
@@ -58241,10 +58226,10 @@
     </row>
     <row r="1796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1796" s="1">
-        <v>2056</v>
+        <v>2059</v>
       </c>
       <c r="B1796" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1796" t="s">
         <v>4</v>
@@ -58255,10 +58240,10 @@
     </row>
     <row r="1797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1797" s="1">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="B1797" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1797" t="s">
         <v>4</v>
@@ -58269,10 +58254,10 @@
     </row>
     <row r="1798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1798" s="1">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="B1798" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1798" t="s">
         <v>4</v>
@@ -58283,10 +58268,10 @@
     </row>
     <row r="1799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1799" s="1">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="B1799" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1799" t="s">
         <v>4</v>
@@ -58297,10 +58282,10 @@
     </row>
     <row r="1800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1800" s="1">
-        <v>2060</v>
+        <v>2063</v>
       </c>
       <c r="B1800" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1800" t="s">
         <v>4</v>
@@ -58311,10 +58296,10 @@
     </row>
     <row r="1801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1801" s="1">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="B1801" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1801" t="s">
         <v>4</v>
@@ -58325,10 +58310,10 @@
     </row>
     <row r="1802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1802" s="1">
-        <v>2062</v>
+        <v>2065</v>
       </c>
       <c r="B1802" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1802" t="s">
         <v>4</v>
@@ -58339,10 +58324,10 @@
     </row>
     <row r="1803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1803" s="1">
-        <v>2063</v>
+        <v>2066</v>
       </c>
       <c r="B1803" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1803" t="s">
         <v>4</v>
@@ -58353,10 +58338,10 @@
     </row>
     <row r="1804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1804" s="1">
-        <v>2064</v>
+        <v>2067</v>
       </c>
       <c r="B1804" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1804" t="s">
         <v>4</v>
@@ -58367,10 +58352,10 @@
     </row>
     <row r="1805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1805" s="1">
-        <v>2065</v>
+        <v>2068</v>
       </c>
       <c r="B1805" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1805" t="s">
         <v>4</v>
@@ -58381,10 +58366,10 @@
     </row>
     <row r="1806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1806" s="1">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="B1806" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1806" t="s">
         <v>4</v>
@@ -58395,10 +58380,10 @@
     </row>
     <row r="1807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1807" s="1">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="B1807" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1807" t="s">
         <v>4</v>
@@ -58409,10 +58394,10 @@
     </row>
     <row r="1808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1808" s="1">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="B1808" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1808" t="s">
         <v>4</v>
@@ -58423,10 +58408,10 @@
     </row>
     <row r="1809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1809" s="1">
-        <v>2069</v>
+        <v>2072</v>
       </c>
       <c r="B1809" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1809" t="s">
         <v>4</v>
@@ -58437,10 +58422,10 @@
     </row>
     <row r="1810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1810" s="1">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="B1810" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1810" t="s">
         <v>4</v>
@@ -58451,10 +58436,10 @@
     </row>
     <row r="1811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1811" s="1">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="B1811" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1811" t="s">
         <v>4</v>
@@ -58465,52 +58450,52 @@
     </row>
     <row r="1812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1812" s="1">
-        <v>2072</v>
+        <v>2075</v>
       </c>
       <c r="B1812" t="s">
-        <v>3152</v>
+        <v>3228</v>
       </c>
       <c r="C1812" t="s">
         <v>4</v>
       </c>
       <c r="D1812" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="1813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1813" s="1">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="B1813" t="s">
-        <v>3152</v>
+        <v>3228</v>
       </c>
       <c r="C1813" t="s">
         <v>4</v>
       </c>
       <c r="D1813" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="1814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1814" s="1">
-        <v>2074</v>
+        <v>2077</v>
       </c>
       <c r="B1814" t="s">
-        <v>3152</v>
+        <v>3228</v>
       </c>
       <c r="C1814" t="s">
         <v>4</v>
       </c>
       <c r="D1814" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="1815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1815" s="1">
-        <v>2075</v>
+        <v>2078</v>
       </c>
       <c r="B1815" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1815" t="s">
         <v>4</v>
@@ -58521,10 +58506,10 @@
     </row>
     <row r="1816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1816" s="1">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="B1816" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1816" t="s">
         <v>4</v>
@@ -58535,10 +58520,10 @@
     </row>
     <row r="1817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1817" s="1">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="B1817" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1817" t="s">
         <v>4</v>
@@ -58549,10 +58534,10 @@
     </row>
     <row r="1818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1818" s="1">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="B1818" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1818" t="s">
         <v>4</v>
@@ -58563,10 +58548,10 @@
     </row>
     <row r="1819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1819" s="1">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="B1819" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1819" t="s">
         <v>4</v>
@@ -58577,10 +58562,10 @@
     </row>
     <row r="1820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1820" s="1">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="B1820" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1820" t="s">
         <v>4</v>
@@ -58591,10 +58576,10 @@
     </row>
     <row r="1821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1821" s="1">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="B1821" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1821" t="s">
         <v>4</v>
@@ -58605,10 +58590,10 @@
     </row>
     <row r="1822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1822" s="1">
-        <v>2082</v>
+        <v>2086</v>
       </c>
       <c r="B1822" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1822" t="s">
         <v>4</v>
@@ -58619,10 +58604,10 @@
     </row>
     <row r="1823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1823" s="1">
-        <v>2083</v>
+        <v>2087</v>
       </c>
       <c r="B1823" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1823" t="s">
         <v>4</v>
@@ -58633,10 +58618,10 @@
     </row>
     <row r="1824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1824" s="1">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="B1824" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1824" t="s">
         <v>4</v>
@@ -58647,10 +58632,10 @@
     </row>
     <row r="1825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1825" s="1">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="B1825" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1825" t="s">
         <v>4</v>
@@ -58661,10 +58646,10 @@
     </row>
     <row r="1826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1826" s="1">
-        <v>2087</v>
+        <v>2090</v>
       </c>
       <c r="B1826" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1826" t="s">
         <v>4</v>
@@ -58675,10 +58660,10 @@
     </row>
     <row r="1827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1827" s="1">
-        <v>2088</v>
+        <v>2091</v>
       </c>
       <c r="B1827" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1827" t="s">
         <v>4</v>
@@ -58689,10 +58674,10 @@
     </row>
     <row r="1828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1828" s="1">
-        <v>2089</v>
+        <v>2092</v>
       </c>
       <c r="B1828" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1828" t="s">
         <v>4</v>
@@ -58703,10 +58688,10 @@
     </row>
     <row r="1829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1829" s="1">
-        <v>2090</v>
+        <v>2093</v>
       </c>
       <c r="B1829" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1829" t="s">
         <v>4</v>
@@ -58717,10 +58702,10 @@
     </row>
     <row r="1830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1830" s="1">
-        <v>2091</v>
+        <v>2094</v>
       </c>
       <c r="B1830" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1830" t="s">
         <v>4</v>
@@ -58731,10 +58716,10 @@
     </row>
     <row r="1831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1831" s="1">
-        <v>2092</v>
+        <v>2095</v>
       </c>
       <c r="B1831" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1831" t="s">
         <v>4</v>
@@ -58745,10 +58730,10 @@
     </row>
     <row r="1832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1832" s="1">
-        <v>2093</v>
+        <v>2096</v>
       </c>
       <c r="B1832" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1832" t="s">
         <v>4</v>
@@ -58759,10 +58744,10 @@
     </row>
     <row r="1833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1833" s="1">
-        <v>2094</v>
+        <v>2097</v>
       </c>
       <c r="B1833" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1833" t="s">
         <v>4</v>
@@ -58773,10 +58758,10 @@
     </row>
     <row r="1834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1834" s="1">
-        <v>2095</v>
+        <v>2098</v>
       </c>
       <c r="B1834" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1834" t="s">
         <v>4</v>
@@ -58787,10 +58772,10 @@
     </row>
     <row r="1835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1835" s="1">
-        <v>2096</v>
+        <v>2099</v>
       </c>
       <c r="B1835" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1835" t="s">
         <v>4</v>
@@ -58801,10 +58786,10 @@
     </row>
     <row r="1836" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1836" s="1">
-        <v>2097</v>
+        <v>2100</v>
       </c>
       <c r="B1836" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1836" t="s">
         <v>4</v>
@@ -58815,10 +58800,10 @@
     </row>
     <row r="1837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1837" s="1">
-        <v>2098</v>
+        <v>2101</v>
       </c>
       <c r="B1837" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1837" t="s">
         <v>4</v>
@@ -58829,10 +58814,10 @@
     </row>
     <row r="1838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1838" s="1">
-        <v>2099</v>
+        <v>2103</v>
       </c>
       <c r="B1838" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1838" t="s">
         <v>4</v>
@@ -58843,10 +58828,10 @@
     </row>
     <row r="1839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1839" s="1">
-        <v>2100</v>
+        <v>2104</v>
       </c>
       <c r="B1839" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1839" t="s">
         <v>4</v>
@@ -58857,10 +58842,10 @@
     </row>
     <row r="1840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1840" s="1">
-        <v>2101</v>
+        <v>2105</v>
       </c>
       <c r="B1840" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1840" t="s">
         <v>4</v>
@@ -58871,10 +58856,10 @@
     </row>
     <row r="1841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1841" s="1">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="B1841" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1841" t="s">
         <v>4</v>
@@ -58885,10 +58870,10 @@
     </row>
     <row r="1842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1842" s="1">
-        <v>2104</v>
+        <v>2107</v>
       </c>
       <c r="B1842" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1842" t="s">
         <v>4</v>
@@ -58899,10 +58884,10 @@
     </row>
     <row r="1843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1843" s="1">
-        <v>2105</v>
+        <v>2108</v>
       </c>
       <c r="B1843" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1843" t="s">
         <v>4</v>
@@ -58913,10 +58898,10 @@
     </row>
     <row r="1844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1844" s="1">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="B1844" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1844" t="s">
         <v>4</v>
@@ -58927,10 +58912,10 @@
     </row>
     <row r="1845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1845" s="1">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="B1845" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1845" t="s">
         <v>4</v>
@@ -58941,10 +58926,10 @@
     </row>
     <row r="1846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1846" s="1">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="B1846" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1846" t="s">
         <v>4</v>
@@ -58955,10 +58940,10 @@
     </row>
     <row r="1847" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1847" s="1">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="B1847" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1847" t="s">
         <v>4</v>
@@ -58969,10 +58954,10 @@
     </row>
     <row r="1848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1848" s="1">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="B1848" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1848" t="s">
         <v>4</v>
@@ -58983,10 +58968,10 @@
     </row>
     <row r="1849" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1849" s="1">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="B1849" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1849" t="s">
         <v>4</v>
@@ -58997,10 +58982,10 @@
     </row>
     <row r="1850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1850" s="1">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="B1850" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1850" t="s">
         <v>4</v>
@@ -59011,10 +58996,10 @@
     </row>
     <row r="1851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1851" s="1">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="B1851" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1851" t="s">
         <v>4</v>
@@ -59025,10 +59010,10 @@
     </row>
     <row r="1852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1852" s="1">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="B1852" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1852" t="s">
         <v>4</v>
@@ -59039,10 +59024,10 @@
     </row>
     <row r="1853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1853" s="1">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="B1853" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1853" t="s">
         <v>4</v>
@@ -59053,10 +59038,10 @@
     </row>
     <row r="1854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1854" s="1">
-        <v>2116</v>
+        <v>2122</v>
       </c>
       <c r="B1854" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1854" t="s">
         <v>4</v>
@@ -59067,10 +59052,10 @@
     </row>
     <row r="1855" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1855" s="1">
-        <v>2117</v>
+        <v>2123</v>
       </c>
       <c r="B1855" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1855" t="s">
         <v>4</v>
@@ -59081,10 +59066,10 @@
     </row>
     <row r="1856" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1856" s="1">
-        <v>2120</v>
+        <v>2124</v>
       </c>
       <c r="B1856" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1856" t="s">
         <v>4</v>
@@ -59095,10 +59080,10 @@
     </row>
     <row r="1857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1857" s="1">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="B1857" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1857" t="s">
         <v>4</v>
@@ -59109,10 +59094,10 @@
     </row>
     <row r="1858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1858" s="1">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="B1858" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1858" t="s">
         <v>4</v>
@@ -59123,10 +59108,10 @@
     </row>
     <row r="1859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1859" s="1">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="B1859" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1859" t="s">
         <v>4</v>
@@ -59137,10 +59122,10 @@
     </row>
     <row r="1860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1860" s="1">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="B1860" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1860" t="s">
         <v>4</v>
@@ -59151,10 +59136,10 @@
     </row>
     <row r="1861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1861" s="1">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="B1861" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1861" t="s">
         <v>4</v>
@@ -59165,10 +59150,10 @@
     </row>
     <row r="1862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1862" s="1">
-        <v>2127</v>
+        <v>2131</v>
       </c>
       <c r="B1862" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1862" t="s">
         <v>4</v>
@@ -59179,10 +59164,10 @@
     </row>
     <row r="1863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1863" s="1">
-        <v>2128</v>
+        <v>2132</v>
       </c>
       <c r="B1863" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1863" t="s">
         <v>4</v>
@@ -59193,10 +59178,10 @@
     </row>
     <row r="1864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1864" s="1">
-        <v>2129</v>
+        <v>2133</v>
       </c>
       <c r="B1864" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1864" t="s">
         <v>4</v>
@@ -59207,10 +59192,10 @@
     </row>
     <row r="1865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1865" s="1">
-        <v>2131</v>
+        <v>2134</v>
       </c>
       <c r="B1865" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1865" t="s">
         <v>4</v>
@@ -59221,10 +59206,10 @@
     </row>
     <row r="1866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1866" s="1">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="B1866" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1866" t="s">
         <v>4</v>
@@ -59235,10 +59220,10 @@
     </row>
     <row r="1867" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1867" s="1">
-        <v>2133</v>
+        <v>2137</v>
       </c>
       <c r="B1867" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1867" t="s">
         <v>4</v>
@@ -59249,10 +59234,10 @@
     </row>
     <row r="1868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1868" s="1">
-        <v>2134</v>
+        <v>2138</v>
       </c>
       <c r="B1868" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1868" t="s">
         <v>4</v>
@@ -59263,10 +59248,10 @@
     </row>
     <row r="1869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1869" s="1">
-        <v>2136</v>
+        <v>2139</v>
       </c>
       <c r="B1869" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1869" t="s">
         <v>4</v>
@@ -59277,66 +59262,66 @@
     </row>
     <row r="1870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1870" s="1">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="B1870" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1870" t="s">
         <v>4</v>
       </c>
       <c r="D1870" t="s">
-        <v>3287</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1871" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1871" s="1">
-        <v>2138</v>
+        <v>2141</v>
       </c>
       <c r="B1871" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1871" t="s">
         <v>4</v>
       </c>
       <c r="D1871" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="1872" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1872" s="1">
-        <v>2139</v>
+        <v>2143</v>
       </c>
       <c r="B1872" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1872" t="s">
         <v>4</v>
       </c>
       <c r="D1872" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="1873" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1873" s="1">
-        <v>2140</v>
+        <v>2144</v>
       </c>
       <c r="B1873" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1873" t="s">
         <v>4</v>
       </c>
       <c r="D1873" t="s">
-        <v>466</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="1874" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1874" s="1">
-        <v>2141</v>
+        <v>2145</v>
       </c>
       <c r="B1874" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1874" t="s">
         <v>4</v>
@@ -59347,10 +59332,10 @@
     </row>
     <row r="1875" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1875" s="1">
-        <v>2143</v>
+        <v>2146</v>
       </c>
       <c r="B1875" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1875" t="s">
         <v>4</v>
@@ -59361,10 +59346,10 @@
     </row>
     <row r="1876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1876" s="1">
-        <v>2144</v>
+        <v>2147</v>
       </c>
       <c r="B1876" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1876" t="s">
         <v>4</v>
@@ -59375,10 +59360,10 @@
     </row>
     <row r="1877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1877" s="1">
-        <v>2145</v>
+        <v>2148</v>
       </c>
       <c r="B1877" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1877" t="s">
         <v>4</v>
@@ -59389,10 +59374,10 @@
     </row>
     <row r="1878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1878" s="1">
-        <v>2146</v>
+        <v>2149</v>
       </c>
       <c r="B1878" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1878" t="s">
         <v>4</v>
@@ -59403,10 +59388,10 @@
     </row>
     <row r="1879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1879" s="1">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="B1879" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1879" t="s">
         <v>4</v>
@@ -59417,10 +59402,10 @@
     </row>
     <row r="1880" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1880" s="1">
-        <v>2148</v>
+        <v>2151</v>
       </c>
       <c r="B1880" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1880" t="s">
         <v>4</v>
@@ -59431,10 +59416,10 @@
     </row>
     <row r="1881" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1881" s="1">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="B1881" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1881" t="s">
         <v>4</v>
@@ -59445,10 +59430,10 @@
     </row>
     <row r="1882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1882" s="1">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="B1882" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1882" t="s">
         <v>4</v>
@@ -59459,10 +59444,10 @@
     </row>
     <row r="1883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1883" s="1">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="B1883" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1883" t="s">
         <v>4</v>
@@ -59473,10 +59458,10 @@
     </row>
     <row r="1884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1884" s="1">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="B1884" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1884" t="s">
         <v>4</v>
@@ -59487,10 +59472,10 @@
     </row>
     <row r="1885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1885" s="1">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="B1885" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1885" t="s">
         <v>4</v>
@@ -59501,10 +59486,10 @@
     </row>
     <row r="1886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1886" s="1">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="B1886" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1886" t="s">
         <v>4</v>
@@ -59515,10 +59500,10 @@
     </row>
     <row r="1887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1887" s="1">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="B1887" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1887" t="s">
         <v>4</v>
@@ -59529,10 +59514,10 @@
     </row>
     <row r="1888" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1888" s="1">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="B1888" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1888" t="s">
         <v>4</v>
@@ -59543,10 +59528,10 @@
     </row>
     <row r="1889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1889" s="1">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="B1889" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1889" t="s">
         <v>4</v>
@@ -59557,10 +59542,10 @@
     </row>
     <row r="1890" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1890" s="1">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="B1890" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1890" t="s">
         <v>4</v>
@@ -59571,10 +59556,10 @@
     </row>
     <row r="1891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1891" s="1">
-        <v>2159</v>
+        <v>2162</v>
       </c>
       <c r="B1891" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1891" t="s">
         <v>4</v>
@@ -59585,10 +59570,10 @@
     </row>
     <row r="1892" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1892" s="1">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="B1892" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1892" t="s">
         <v>4</v>
@@ -59599,10 +59584,10 @@
     </row>
     <row r="1893" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1893" s="1">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="B1893" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1893" t="s">
         <v>4</v>
@@ -59613,10 +59598,10 @@
     </row>
     <row r="1894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1894" s="1">
-        <v>2162</v>
+        <v>2165</v>
       </c>
       <c r="B1894" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1894" t="s">
         <v>4</v>
@@ -59627,10 +59612,10 @@
     </row>
     <row r="1895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1895" s="1">
-        <v>2163</v>
+        <v>2166</v>
       </c>
       <c r="B1895" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1895" t="s">
         <v>4</v>
@@ -59641,10 +59626,10 @@
     </row>
     <row r="1896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1896" s="1">
-        <v>2164</v>
+        <v>2167</v>
       </c>
       <c r="B1896" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1896" t="s">
         <v>4</v>
@@ -59655,10 +59640,10 @@
     </row>
     <row r="1897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1897" s="1">
-        <v>2165</v>
+        <v>2168</v>
       </c>
       <c r="B1897" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1897" t="s">
         <v>4</v>
@@ -59669,10 +59654,10 @@
     </row>
     <row r="1898" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1898" s="1">
-        <v>2166</v>
+        <v>2169</v>
       </c>
       <c r="B1898" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1898" t="s">
         <v>4</v>
@@ -59683,10 +59668,10 @@
     </row>
     <row r="1899" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1899" s="1">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="B1899" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1899" t="s">
         <v>4</v>
@@ -59697,10 +59682,10 @@
     </row>
     <row r="1900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1900" s="1">
-        <v>2168</v>
+        <v>2171</v>
       </c>
       <c r="B1900" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1900" t="s">
         <v>4</v>
@@ -59711,10 +59696,10 @@
     </row>
     <row r="1901" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1901" s="1">
-        <v>2169</v>
+        <v>2172</v>
       </c>
       <c r="B1901" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1901" t="s">
         <v>4</v>
@@ -59725,10 +59710,10 @@
     </row>
     <row r="1902" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1902" s="1">
-        <v>2170</v>
+        <v>2174</v>
       </c>
       <c r="B1902" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1902" t="s">
         <v>4</v>
@@ -59739,10 +59724,10 @@
     </row>
     <row r="1903" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1903" s="1">
-        <v>2171</v>
+        <v>2175</v>
       </c>
       <c r="B1903" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1903" t="s">
         <v>4</v>
@@ -59753,10 +59738,10 @@
     </row>
     <row r="1904" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1904" s="1">
-        <v>2172</v>
+        <v>2176</v>
       </c>
       <c r="B1904" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1904" t="s">
         <v>4</v>
@@ -59767,10 +59752,10 @@
     </row>
     <row r="1905" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1905" s="1">
-        <v>2174</v>
+        <v>2177</v>
       </c>
       <c r="B1905" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1905" t="s">
         <v>4</v>
@@ -59781,10 +59766,10 @@
     </row>
     <row r="1906" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1906" s="1">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="B1906" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1906" t="s">
         <v>4</v>
@@ -59795,10 +59780,10 @@
     </row>
     <row r="1907" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1907" s="1">
-        <v>2176</v>
+        <v>2179</v>
       </c>
       <c r="B1907" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1907" t="s">
         <v>4</v>
@@ -59809,10 +59794,10 @@
     </row>
     <row r="1908" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1908" s="1">
-        <v>2177</v>
+        <v>2180</v>
       </c>
       <c r="B1908" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1908" t="s">
         <v>4</v>
@@ -59823,10 +59808,10 @@
     </row>
     <row r="1909" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1909" s="1">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="B1909" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1909" t="s">
         <v>4</v>
@@ -59837,10 +59822,10 @@
     </row>
     <row r="1910" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1910" s="1">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="B1910" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1910" t="s">
         <v>4</v>
@@ -59851,10 +59836,10 @@
     </row>
     <row r="1911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1911" s="1">
-        <v>2180</v>
+        <v>2186</v>
       </c>
       <c r="B1911" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1911" t="s">
         <v>4</v>
@@ -59865,10 +59850,10 @@
     </row>
     <row r="1912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1912" s="1">
-        <v>2181</v>
+        <v>2187</v>
       </c>
       <c r="B1912" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1912" t="s">
         <v>4</v>
@@ -59879,10 +59864,10 @@
     </row>
     <row r="1913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1913" s="1">
-        <v>2182</v>
+        <v>2188</v>
       </c>
       <c r="B1913" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="C1913" t="s">
         <v>4</v>
@@ -59893,52 +59878,52 @@
     </row>
     <row r="1914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1914" s="1">
-        <v>2186</v>
+        <v>2189</v>
       </c>
       <c r="B1914" t="s">
-        <v>3231</v>
+        <v>3330</v>
       </c>
       <c r="C1914" t="s">
         <v>4</v>
       </c>
       <c r="D1914" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="1915" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1915" s="1">
-        <v>2187</v>
+        <v>2190</v>
       </c>
       <c r="B1915" t="s">
-        <v>3231</v>
+        <v>3330</v>
       </c>
       <c r="C1915" t="s">
         <v>4</v>
       </c>
       <c r="D1915" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="1916" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1916" s="1">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="B1916" t="s">
-        <v>3231</v>
+        <v>3330</v>
       </c>
       <c r="C1916" t="s">
         <v>4</v>
       </c>
       <c r="D1916" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="1917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1917" s="1">
-        <v>2189</v>
+        <v>2192</v>
       </c>
       <c r="B1917" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1917" t="s">
         <v>4</v>
@@ -59949,10 +59934,10 @@
     </row>
     <row r="1918" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1918" s="1">
-        <v>2190</v>
+        <v>2193</v>
       </c>
       <c r="B1918" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1918" t="s">
         <v>4</v>
@@ -59963,10 +59948,10 @@
     </row>
     <row r="1919" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1919" s="1">
-        <v>2191</v>
+        <v>2194</v>
       </c>
       <c r="B1919" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1919" t="s">
         <v>4</v>
@@ -59977,10 +59962,10 @@
     </row>
     <row r="1920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1920" s="1">
-        <v>2192</v>
+        <v>2195</v>
       </c>
       <c r="B1920" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1920" t="s">
         <v>4</v>
@@ -59991,10 +59976,10 @@
     </row>
     <row r="1921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1921" s="1">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="B1921" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1921" t="s">
         <v>4</v>
@@ -60005,10 +59990,10 @@
     </row>
     <row r="1922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1922" s="1">
-        <v>2194</v>
+        <v>2197</v>
       </c>
       <c r="B1922" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1922" t="s">
         <v>4</v>
@@ -60019,10 +60004,10 @@
     </row>
     <row r="1923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1923" s="1">
-        <v>2195</v>
+        <v>2198</v>
       </c>
       <c r="B1923" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1923" t="s">
         <v>4</v>
@@ -60033,10 +60018,10 @@
     </row>
     <row r="1924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1924" s="1">
-        <v>2196</v>
+        <v>2199</v>
       </c>
       <c r="B1924" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1924" t="s">
         <v>4</v>
@@ -60047,10 +60032,10 @@
     </row>
     <row r="1925" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1925" s="1">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="B1925" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1925" t="s">
         <v>4</v>
@@ -60061,10 +60046,10 @@
     </row>
     <row r="1926" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1926" s="1">
-        <v>2198</v>
+        <v>2201</v>
       </c>
       <c r="B1926" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1926" t="s">
         <v>4</v>
@@ -60075,10 +60060,10 @@
     </row>
     <row r="1927" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1927" s="1">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="B1927" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1927" t="s">
         <v>4</v>
@@ -60089,10 +60074,10 @@
     </row>
     <row r="1928" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1928" s="1">
-        <v>2200</v>
+        <v>2203</v>
       </c>
       <c r="B1928" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1928" t="s">
         <v>4</v>
@@ -60103,10 +60088,10 @@
     </row>
     <row r="1929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1929" s="1">
-        <v>2201</v>
+        <v>2204</v>
       </c>
       <c r="B1929" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1929" t="s">
         <v>4</v>
@@ -60117,10 +60102,10 @@
     </row>
     <row r="1930" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1930" s="1">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="B1930" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1930" t="s">
         <v>4</v>
@@ -60131,10 +60116,10 @@
     </row>
     <row r="1931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1931" s="1">
-        <v>2203</v>
+        <v>2206</v>
       </c>
       <c r="B1931" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1931" t="s">
         <v>4</v>
@@ -60145,10 +60130,10 @@
     </row>
     <row r="1932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1932" s="1">
-        <v>2204</v>
+        <v>2207</v>
       </c>
       <c r="B1932" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1932" t="s">
         <v>4</v>
@@ -60159,10 +60144,10 @@
     </row>
     <row r="1933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1933" s="1">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="B1933" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1933" t="s">
         <v>4</v>
@@ -60173,10 +60158,10 @@
     </row>
     <row r="1934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1934" s="1">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="B1934" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1934" t="s">
         <v>4</v>
@@ -60187,10 +60172,10 @@
     </row>
     <row r="1935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1935" s="1">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="B1935" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1935" t="s">
         <v>4</v>
@@ -60201,10 +60186,10 @@
     </row>
     <row r="1936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1936" s="1">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="B1936" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1936" t="s">
         <v>4</v>
@@ -60215,10 +60200,10 @@
     </row>
     <row r="1937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1937" s="1">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="B1937" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1937" t="s">
         <v>4</v>
@@ -60229,10 +60214,10 @@
     </row>
     <row r="1938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1938" s="1">
-        <v>2210</v>
+        <v>2213</v>
       </c>
       <c r="B1938" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1938" t="s">
         <v>4</v>
@@ -60243,10 +60228,10 @@
     </row>
     <row r="1939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1939" s="1">
-        <v>2211</v>
+        <v>2214</v>
       </c>
       <c r="B1939" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1939" t="s">
         <v>4</v>
@@ -60257,10 +60242,10 @@
     </row>
     <row r="1940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1940" s="1">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="B1940" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1940" t="s">
         <v>4</v>
@@ -60271,10 +60256,10 @@
     </row>
     <row r="1941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1941" s="1">
-        <v>2213</v>
+        <v>2216</v>
       </c>
       <c r="B1941" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1941" t="s">
         <v>4</v>
@@ -60285,10 +60270,10 @@
     </row>
     <row r="1942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1942" s="1">
-        <v>2214</v>
+        <v>2217</v>
       </c>
       <c r="B1942" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1942" t="s">
         <v>4</v>
@@ -60299,10 +60284,10 @@
     </row>
     <row r="1943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1943" s="1">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="B1943" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1943" t="s">
         <v>4</v>
@@ -60313,10 +60298,10 @@
     </row>
     <row r="1944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1944" s="1">
-        <v>2216</v>
+        <v>2219</v>
       </c>
       <c r="B1944" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1944" t="s">
         <v>4</v>
@@ -60327,10 +60312,10 @@
     </row>
     <row r="1945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1945" s="1">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="B1945" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1945" t="s">
         <v>4</v>
@@ -60341,10 +60326,10 @@
     </row>
     <row r="1946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1946" s="1">
-        <v>2218</v>
+        <v>2222</v>
       </c>
       <c r="B1946" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1946" t="s">
         <v>4</v>
@@ -60355,10 +60340,10 @@
     </row>
     <row r="1947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1947" s="1">
-        <v>2219</v>
+        <v>2223</v>
       </c>
       <c r="B1947" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1947" t="s">
         <v>4</v>
@@ -60369,10 +60354,10 @@
     </row>
     <row r="1948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1948" s="1">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="B1948" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1948" t="s">
         <v>4</v>
@@ -60383,10 +60368,10 @@
     </row>
     <row r="1949" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1949" s="1">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="B1949" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1949" t="s">
         <v>4</v>
@@ -60397,10 +60382,10 @@
     </row>
     <row r="1950" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1950" s="1">
-        <v>2223</v>
+        <v>2226</v>
       </c>
       <c r="B1950" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1950" t="s">
         <v>4</v>
@@ -60411,10 +60396,10 @@
     </row>
     <row r="1951" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1951" s="1">
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="B1951" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1951" t="s">
         <v>4</v>
@@ -60425,10 +60410,10 @@
     </row>
     <row r="1952" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1952" s="1">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="B1952" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1952" t="s">
         <v>4</v>
@@ -60439,10 +60424,10 @@
     </row>
     <row r="1953" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1953" s="1">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="B1953" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1953" t="s">
         <v>4</v>
@@ -60453,10 +60438,10 @@
     </row>
     <row r="1954" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1954" s="1">
-        <v>2227</v>
+        <v>2230</v>
       </c>
       <c r="B1954" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1954" t="s">
         <v>4</v>
@@ -60467,10 +60452,10 @@
     </row>
     <row r="1955" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1955" s="1">
-        <v>2228</v>
+        <v>2231</v>
       </c>
       <c r="B1955" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1955" t="s">
         <v>4</v>
@@ -60481,10 +60466,10 @@
     </row>
     <row r="1956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1956" s="1">
-        <v>2229</v>
+        <v>2232</v>
       </c>
       <c r="B1956" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1956" t="s">
         <v>4</v>
@@ -60495,10 +60480,10 @@
     </row>
     <row r="1957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1957" s="1">
-        <v>2230</v>
+        <v>2233</v>
       </c>
       <c r="B1957" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1957" t="s">
         <v>4</v>
@@ -60509,10 +60494,10 @@
     </row>
     <row r="1958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1958" s="1">
-        <v>2231</v>
+        <v>2234</v>
       </c>
       <c r="B1958" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1958" t="s">
         <v>4</v>
@@ -60523,10 +60508,10 @@
     </row>
     <row r="1959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1959" s="1">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="B1959" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1959" t="s">
         <v>4</v>
@@ -60537,10 +60522,10 @@
     </row>
     <row r="1960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1960" s="1">
-        <v>2233</v>
+        <v>2236</v>
       </c>
       <c r="B1960" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1960" t="s">
         <v>4</v>
@@ -60551,10 +60536,10 @@
     </row>
     <row r="1961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1961" s="1">
-        <v>2234</v>
+        <v>2237</v>
       </c>
       <c r="B1961" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1961" t="s">
         <v>4</v>
@@ -60565,10 +60550,10 @@
     </row>
     <row r="1962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1962" s="1">
-        <v>2235</v>
+        <v>2238</v>
       </c>
       <c r="B1962" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1962" t="s">
         <v>4</v>
@@ -60579,10 +60564,10 @@
     </row>
     <row r="1963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1963" s="1">
-        <v>2236</v>
+        <v>2239</v>
       </c>
       <c r="B1963" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1963" t="s">
         <v>4</v>
@@ -60593,10 +60578,10 @@
     </row>
     <row r="1964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1964" s="1">
-        <v>2237</v>
+        <v>2240</v>
       </c>
       <c r="B1964" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1964" t="s">
         <v>4</v>
@@ -60607,10 +60592,10 @@
     </row>
     <row r="1965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1965" s="1">
-        <v>2238</v>
+        <v>2241</v>
       </c>
       <c r="B1965" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1965" t="s">
         <v>4</v>
@@ -60621,66 +60606,66 @@
     </row>
     <row r="1966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1966" s="1">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="B1966" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1966" t="s">
         <v>4</v>
       </c>
       <c r="D1966" t="s">
-        <v>3383</v>
+        <v>525</v>
       </c>
     </row>
     <row r="1967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1967" s="1">
-        <v>2240</v>
+        <v>2243</v>
       </c>
       <c r="B1967" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1967" t="s">
         <v>4</v>
       </c>
       <c r="D1967" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="1968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1968" s="1">
-        <v>2241</v>
+        <v>2244</v>
       </c>
       <c r="B1968" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1968" t="s">
         <v>4</v>
       </c>
       <c r="D1968" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="1969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1969" s="1">
-        <v>2242</v>
+        <v>2245</v>
       </c>
       <c r="B1969" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1969" t="s">
         <v>4</v>
       </c>
       <c r="D1969" t="s">
-        <v>525</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="1970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1970" s="1">
-        <v>2243</v>
+        <v>2246</v>
       </c>
       <c r="B1970" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1970" t="s">
         <v>4</v>
@@ -60691,10 +60676,10 @@
     </row>
     <row r="1971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1971" s="1">
-        <v>2244</v>
+        <v>2247</v>
       </c>
       <c r="B1971" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1971" t="s">
         <v>4</v>
@@ -60705,10 +60690,10 @@
     </row>
     <row r="1972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1972" s="1">
-        <v>2245</v>
+        <v>2248</v>
       </c>
       <c r="B1972" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1972" t="s">
         <v>4</v>
@@ -60719,10 +60704,10 @@
     </row>
     <row r="1973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1973" s="1">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="B1973" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1973" t="s">
         <v>4</v>
@@ -60733,10 +60718,10 @@
     </row>
     <row r="1974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1974" s="1">
-        <v>2247</v>
+        <v>2250</v>
       </c>
       <c r="B1974" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1974" t="s">
         <v>4</v>
@@ -60747,10 +60732,10 @@
     </row>
     <row r="1975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1975" s="1">
-        <v>2248</v>
+        <v>2251</v>
       </c>
       <c r="B1975" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1975" t="s">
         <v>4</v>
@@ -60761,10 +60746,10 @@
     </row>
     <row r="1976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1976" s="1">
-        <v>2249</v>
+        <v>2252</v>
       </c>
       <c r="B1976" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1976" t="s">
         <v>4</v>
@@ -60775,10 +60760,10 @@
     </row>
     <row r="1977" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1977" s="1">
-        <v>2250</v>
+        <v>2253</v>
       </c>
       <c r="B1977" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1977" t="s">
         <v>4</v>
@@ -60789,10 +60774,10 @@
     </row>
     <row r="1978" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1978" s="1">
-        <v>2251</v>
+        <v>2254</v>
       </c>
       <c r="B1978" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1978" t="s">
         <v>4</v>
@@ -60803,10 +60788,10 @@
     </row>
     <row r="1979" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1979" s="1">
-        <v>2252</v>
+        <v>2255</v>
       </c>
       <c r="B1979" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1979" t="s">
         <v>4</v>
@@ -60817,10 +60802,10 @@
     </row>
     <row r="1980" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1980" s="1">
-        <v>2253</v>
+        <v>2256</v>
       </c>
       <c r="B1980" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1980" t="s">
         <v>4</v>
@@ -60831,10 +60816,10 @@
     </row>
     <row r="1981" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1981" s="1">
-        <v>2254</v>
+        <v>2257</v>
       </c>
       <c r="B1981" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1981" t="s">
         <v>4</v>
@@ -60845,10 +60830,10 @@
     </row>
     <row r="1982" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1982" s="1">
-        <v>2255</v>
+        <v>2258</v>
       </c>
       <c r="B1982" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1982" t="s">
         <v>4</v>
@@ -60859,10 +60844,10 @@
     </row>
     <row r="1983" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1983" s="1">
-        <v>2256</v>
+        <v>2259</v>
       </c>
       <c r="B1983" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1983" t="s">
         <v>4</v>
@@ -60873,10 +60858,10 @@
     </row>
     <row r="1984" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1984" s="1">
-        <v>2257</v>
+        <v>2260</v>
       </c>
       <c r="B1984" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1984" t="s">
         <v>4</v>
@@ -60887,10 +60872,10 @@
     </row>
     <row r="1985" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1985" s="1">
-        <v>2258</v>
+        <v>2261</v>
       </c>
       <c r="B1985" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1985" t="s">
         <v>4</v>
@@ -60901,10 +60886,10 @@
     </row>
     <row r="1986" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1986" s="1">
-        <v>2259</v>
+        <v>2262</v>
       </c>
       <c r="B1986" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1986" t="s">
         <v>4</v>
@@ -60915,10 +60900,10 @@
     </row>
     <row r="1987" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1987" s="1">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="B1987" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1987" t="s">
         <v>4</v>
@@ -60929,10 +60914,10 @@
     </row>
     <row r="1988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1988" s="1">
-        <v>2261</v>
+        <v>2264</v>
       </c>
       <c r="B1988" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1988" t="s">
         <v>4</v>
@@ -60943,10 +60928,10 @@
     </row>
     <row r="1989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1989" s="1">
-        <v>2262</v>
+        <v>2265</v>
       </c>
       <c r="B1989" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1989" t="s">
         <v>4</v>
@@ -60957,10 +60942,10 @@
     </row>
     <row r="1990" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1990" s="1">
-        <v>2263</v>
+        <v>2266</v>
       </c>
       <c r="B1990" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1990" t="s">
         <v>4</v>
@@ -60971,10 +60956,10 @@
     </row>
     <row r="1991" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1991" s="1">
-        <v>2264</v>
+        <v>2267</v>
       </c>
       <c r="B1991" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1991" t="s">
         <v>4</v>
@@ -60985,10 +60970,10 @@
     </row>
     <row r="1992" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1992" s="1">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="B1992" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1992" t="s">
         <v>4</v>
@@ -60999,10 +60984,10 @@
     </row>
     <row r="1993" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1993" s="1">
-        <v>2266</v>
+        <v>2269</v>
       </c>
       <c r="B1993" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1993" t="s">
         <v>4</v>
@@ -61013,10 +60998,10 @@
     </row>
     <row r="1994" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1994" s="1">
-        <v>2267</v>
+        <v>2270</v>
       </c>
       <c r="B1994" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1994" t="s">
         <v>4</v>
@@ -61027,66 +61012,66 @@
     </row>
     <row r="1995" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1995" s="1">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="B1995" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1995" t="s">
         <v>4</v>
       </c>
       <c r="D1995" t="s">
-        <v>3411</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1996" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1996" s="1">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="B1996" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1996" t="s">
         <v>4</v>
       </c>
       <c r="D1996" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="1997" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1997" s="1">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="B1997" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1997" t="s">
         <v>4</v>
       </c>
       <c r="D1997" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="1998" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1998" s="1">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="B1998" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1998" t="s">
         <v>4</v>
       </c>
       <c r="D1998" t="s">
-        <v>11</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="1999" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1999" s="1">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="B1999" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C1999" t="s">
         <v>4</v>
@@ -61097,10 +61082,10 @@
     </row>
     <row r="2000" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2000" s="1">
-        <v>2273</v>
+        <v>2278</v>
       </c>
       <c r="B2000" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2000" t="s">
         <v>4</v>
@@ -61111,10 +61096,10 @@
     </row>
     <row r="2001" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2001" s="1">
-        <v>2274</v>
+        <v>2279</v>
       </c>
       <c r="B2001" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2001" t="s">
         <v>4</v>
@@ -61125,10 +61110,10 @@
     </row>
     <row r="2002" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2002" s="1">
-        <v>2275</v>
+        <v>2280</v>
       </c>
       <c r="B2002" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2002" t="s">
         <v>4</v>
@@ -61139,10 +61124,10 @@
     </row>
     <row r="2003" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2003" s="1">
-        <v>2278</v>
+        <v>2281</v>
       </c>
       <c r="B2003" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2003" t="s">
         <v>4</v>
@@ -61153,10 +61138,10 @@
     </row>
     <row r="2004" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2004" s="1">
-        <v>2279</v>
+        <v>2282</v>
       </c>
       <c r="B2004" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2004" t="s">
         <v>4</v>
@@ -61167,10 +61152,10 @@
     </row>
     <row r="2005" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2005" s="1">
-        <v>2280</v>
+        <v>2283</v>
       </c>
       <c r="B2005" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2005" t="s">
         <v>4</v>
@@ -61181,10 +61166,10 @@
     </row>
     <row r="2006" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2006" s="1">
-        <v>2281</v>
+        <v>2284</v>
       </c>
       <c r="B2006" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2006" t="s">
         <v>4</v>
@@ -61195,10 +61180,10 @@
     </row>
     <row r="2007" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2007" s="1">
-        <v>2282</v>
+        <v>2285</v>
       </c>
       <c r="B2007" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2007" t="s">
         <v>4</v>
@@ -61209,10 +61194,10 @@
     </row>
     <row r="2008" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2008" s="1">
-        <v>2283</v>
+        <v>2286</v>
       </c>
       <c r="B2008" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2008" t="s">
         <v>4</v>
@@ -61223,10 +61208,10 @@
     </row>
     <row r="2009" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2009" s="1">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="B2009" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2009" t="s">
         <v>4</v>
@@ -61237,10 +61222,10 @@
     </row>
     <row r="2010" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2010" s="1">
-        <v>2285</v>
+        <v>2288</v>
       </c>
       <c r="B2010" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2010" t="s">
         <v>4</v>
@@ -61251,10 +61236,10 @@
     </row>
     <row r="2011" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2011" s="1">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="B2011" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2011" t="s">
         <v>4</v>
@@ -61265,10 +61250,10 @@
     </row>
     <row r="2012" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2012" s="1">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="B2012" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2012" t="s">
         <v>4</v>
@@ -61279,10 +61264,10 @@
     </row>
     <row r="2013" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2013" s="1">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="B2013" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2013" t="s">
         <v>4</v>
@@ -61293,10 +61278,10 @@
     </row>
     <row r="2014" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2014" s="1">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="B2014" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2014" t="s">
         <v>4</v>
@@ -61307,10 +61292,10 @@
     </row>
     <row r="2015" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2015" s="1">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="B2015" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2015" t="s">
         <v>4</v>
@@ -61321,10 +61306,10 @@
     </row>
     <row r="2016" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2016" s="1">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="B2016" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2016" t="s">
         <v>4</v>
@@ -61335,10 +61320,10 @@
     </row>
     <row r="2017" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2017" s="1">
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="B2017" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2017" t="s">
         <v>4</v>
@@ -61349,10 +61334,10 @@
     </row>
     <row r="2018" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2018" s="1">
-        <v>2293</v>
+        <v>2296</v>
       </c>
       <c r="B2018" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2018" t="s">
         <v>4</v>
@@ -61363,10 +61348,10 @@
     </row>
     <row r="2019" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2019" s="1">
-        <v>2294</v>
+        <v>2297</v>
       </c>
       <c r="B2019" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2019" t="s">
         <v>4</v>
@@ -61377,10 +61362,10 @@
     </row>
     <row r="2020" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2020" s="1">
-        <v>2295</v>
+        <v>2298</v>
       </c>
       <c r="B2020" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2020" t="s">
         <v>4</v>
@@ -61391,10 +61376,10 @@
     </row>
     <row r="2021" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2021" s="1">
-        <v>2296</v>
+        <v>2299</v>
       </c>
       <c r="B2021" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2021" t="s">
         <v>4</v>
@@ -61405,10 +61390,10 @@
     </row>
     <row r="2022" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2022" s="1">
-        <v>2297</v>
+        <v>2300</v>
       </c>
       <c r="B2022" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2022" t="s">
         <v>4</v>
@@ -61419,10 +61404,10 @@
     </row>
     <row r="2023" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2023" s="1">
-        <v>2298</v>
+        <v>2301</v>
       </c>
       <c r="B2023" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2023" t="s">
         <v>4</v>
@@ -61433,10 +61418,10 @@
     </row>
     <row r="2024" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2024" s="1">
-        <v>2299</v>
+        <v>2302</v>
       </c>
       <c r="B2024" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2024" t="s">
         <v>4</v>
@@ -61447,10 +61432,10 @@
     </row>
     <row r="2025" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2025" s="1">
-        <v>2300</v>
+        <v>2303</v>
       </c>
       <c r="B2025" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2025" t="s">
         <v>4</v>
@@ -61461,58 +61446,16 @@
     </row>
     <row r="2026" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2026" s="1">
-        <v>2301</v>
+        <v>2304</v>
       </c>
       <c r="B2026" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="C2026" t="s">
         <v>4</v>
       </c>
       <c r="D2026" t="s">
         <v>3441</v>
-      </c>
-    </row>
-    <row r="2027" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2027" s="1">
-        <v>2302</v>
-      </c>
-      <c r="B2027" t="s">
-        <v>3333</v>
-      </c>
-      <c r="C2027" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2027" t="s">
-        <v>3442</v>
-      </c>
-    </row>
-    <row r="2028" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2028" s="1">
-        <v>2303</v>
-      </c>
-      <c r="B2028" t="s">
-        <v>3333</v>
-      </c>
-      <c r="C2028" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2028" t="s">
-        <v>3443</v>
-      </c>
-    </row>
-    <row r="2029" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2029" s="1">
-        <v>2304</v>
-      </c>
-      <c r="B2029" t="s">
-        <v>3333</v>
-      </c>
-      <c r="C2029" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2029" t="s">
-        <v>3444</v>
       </c>
     </row>
   </sheetData>
@@ -61544,13 +61487,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>3446</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -61558,13 +61501,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>3447</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -61572,13 +61515,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>3442</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>3445</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3448</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -61586,13 +61529,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>3449</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -61600,13 +61543,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -61614,13 +61557,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -61628,13 +61571,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>3452</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -61642,13 +61585,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -61656,13 +61599,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -61670,13 +61613,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -61684,13 +61627,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>3456</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -61698,13 +61641,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>3457</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -61712,13 +61655,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>3458</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -61726,13 +61669,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -61740,13 +61683,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>3461</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -61754,13 +61697,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
         <v>3459</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3462</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -61768,13 +61711,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>3463</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -61782,13 +61725,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>3464</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -61796,13 +61739,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>3465</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -61810,13 +61753,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>3466</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -61824,13 +61767,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>3467</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -61838,13 +61781,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>3468</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -61852,13 +61795,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>3469</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -61866,13 +61809,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -61880,13 +61823,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>3471</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -61894,13 +61837,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>3472</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -61908,13 +61851,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>3473</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -61922,13 +61865,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>3474</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -61936,7 +61879,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -61950,13 +61893,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>3475</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -61964,13 +61907,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>3476</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -61978,13 +61921,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>3477</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -61992,13 +61935,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>3478</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -62006,13 +61949,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>3479</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -62020,13 +61963,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>3480</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -62034,13 +61977,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>3481</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -62048,13 +61991,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>3482</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -62062,13 +62005,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>3483</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -62076,13 +62019,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>3484</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -62090,13 +62033,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>3485</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -62104,13 +62047,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -62118,13 +62061,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -62132,13 +62075,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -62146,13 +62089,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -62160,13 +62103,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -62174,13 +62117,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>3491</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -62188,13 +62131,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -62202,13 +62145,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -62216,13 +62159,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>3494</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -62230,13 +62173,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>3495</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -62244,13 +62187,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -62258,13 +62201,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>3497</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -62272,13 +62215,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>3498</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -62286,13 +62229,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -62300,13 +62243,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>3500</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -62314,13 +62257,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>3501</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -62328,13 +62271,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>3502</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -62342,13 +62285,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>3503</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -62356,13 +62299,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>3504</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -62370,13 +62313,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -62384,13 +62327,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>3506</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -62398,13 +62341,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>3507</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -62412,13 +62355,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>3508</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -62426,13 +62369,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>3509</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -62440,13 +62383,13 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>3510</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -62454,13 +62397,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>3511</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -62468,13 +62411,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>3512</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -62482,13 +62425,13 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>3513</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -62496,13 +62439,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>3514</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -62510,13 +62453,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>3515</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -62524,13 +62467,13 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>3516</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -62538,13 +62481,13 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>3517</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -62552,13 +62495,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>3518</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -62566,13 +62509,13 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>3519</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -62580,13 +62523,13 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>3520</v>
+        <v>3517</v>
       </c>
     </row>
   </sheetData>

--- a/Aplikasi Skripsi/output_Anies Baswedan.xlsx
+++ b/Aplikasi Skripsi/output_Anies Baswedan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB86E8C-060C-4463-AFF6-56E4E5C81613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DF6216-D434-4938-828E-54718F82BC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8705" uniqueCount="3518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8364" uniqueCount="3504">
   <si>
     <t>Date</t>
   </si>
@@ -12073,10 +12073,6 @@
   </t>
   </si>
   <si>
-    <t xml:space="preserve">Demokrat DKI: Kami akan Menangkan Anies Baswedan Jadi Presiden 2024
-</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Biarkan Bung Azwar dengan pilihan nya, dan kita tetap dengan pilihan Anies Baswedan sebagai capres 🤟🤝 jgn kasih kendor pak Anies Baswedan, insya Allah anda the next presiden</t>
   </si>
   <si>
@@ -12193,37 +12189,6 @@
 Anies baswedan presiden ri tahun 2024.
 Hore-hore anoes baswedan presiden ri.
 Presiden jagoan elo mana???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demokrat DKI: Kami akan Menangkan Anies Baswedan Jadi Presiden 2024 
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   
-Anies baswedan presiden ri tahun 2024 
-Hore-hore anis baswedan presiden ri.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   
-Amies baswedan presiden ri tahun 2024.
-Hore-hore anies baswedan presuden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  
-Anies baswedan presiden ri tahun 2024
-Hore-hore  anies baswedan presiden ri.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Anies baswedan presiden ri tahun 2024.hore-hore anis presiden ri 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Anies baswedan presiden ri tahun 2024hore-hore anies presiden!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Anies baswedan presiden ri 2024. Hore -hore anies presiden</t>
   </si>
   <si>
     <t xml:space="preserve"> Defacto Anies Baswedan kandidat Presiden  dejuro setelah KPU membuka pdndaftaran Capres</t>
@@ -12342,14 +12307,6 @@
     <t xml:space="preserve"> Bener mas janji" bohong melulu 😁😁 gw heran banyak banget pembelanya kalau dibandingin apple to apple jgn presiden musuh orang sipil yg hebat kayak anies baswedan heran ama cebong</t>
   </si>
   <si>
-    <t xml:space="preserve">   Grace Natalie: Mimpi HTI dan FPI Anies Baswedan Jadi Presiden, Supaya Bisa Bangkit Lagi? - Kabar ID
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Grace Natalie: Mimpi HTI dan FPI Anies Baswedan Jadi Presiden, Supaya Bisa Bangkit Lagi? - Kabar ID
-</t>
-  </si>
-  <si>
     <t>Grace Natalie: Mimpi HTI dan FPI Anies Baswedan Jadi Presiden, Supaya Bisa Bangkit Lagi? - Kabar ID
 Brimob Golkar NasDem PSI Pilpres Pemilu 2024</t>
   </si>
@@ -12823,9 +12780,6 @@
     <t xml:space="preserve">DPW Aliansi Nasional Indonesia Sejahtera (ANIES) NTB Siap memenangkan Bapak Anies Baswedan menjadi presiden 2024....(adm.zb) </t>
   </si>
   <si>
-    <t xml:space="preserve">     DPW Aliansi Nasional Indonesia Sejahtera (ANIES) NTB siap memenangkan Bapak Anies Baswedan, sehingga menjadi presiden 2024..</t>
-  </si>
-  <si>
     <t>2023-02-01</t>
   </si>
   <si>
@@ -12881,9 +12835,6 @@
     <t xml:space="preserve"> Semoga Pak Anies Baswedan Presiden RI ke 2024 🙏😂🤣</t>
   </si>
   <si>
-    <t>Semoga Pak Anies Baswedan Presiden RI ke 2024 🙏😂🤣</t>
-  </si>
-  <si>
     <t xml:space="preserve">Partai yang kemungkinan akan bergabung nantinya adalah Partai GOLKAR. Kok GOLKAR? bukankah GOLKAR pendukung pemerintahan Presiden Joko Widodo (Jokowi) yang notebene tidak pernah mau menghendaki Anies Baswedan maju sebagai Calon Presiden di Pemilu 2024?
 </t>
   </si>
@@ -13053,9 +13004,6 @@
   </si>
   <si>
     <t xml:space="preserve">        Pak Anies Baswedan pilihan rakyat Indonesia pemimpin yang baik dan cerdas presiden di tahun 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Pak Anies Baswedan pilihan rakyat Indonesia pemimpin yang baik dan cerdas presiden di tahun 2024</t>
   </si>
   <si>
     <t xml:space="preserve"> Sayangnya dia gak bakal jadi presiden, udah bosen liat nya, Anies Baswedan lebih fresh dan juga pintar...</t>
@@ -13210,10 +13158,6 @@
   </si>
   <si>
     <t xml:space="preserve">BIMA ‼️ AYAH Pak HAMDAN ZOELVA (Mantan Ketua MK RI) DOAIN ANIES BASWEDAN JADI PRESIDEN  lewat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilihan Nasdem, Partai Demokrat, dan PKS yang mengerucut pada Anies Baswedan sebagai bakal calon presiden yang akan diusung tidak mengusik partai lain untuk terburu-buru menentukan capresnya.
-  </t>
   </si>
   <si>
     <t xml:space="preserve">Pilihan Nasdem, Partai Demokrat, dan PKS yang mengerucut pada Anies Baswedan sebagai bakal calon presiden yang akan diusung tidak mengusik partai lain untuk terburu-buru menentukan capresnya. 
@@ -33086,10 +33030,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2026"/>
+  <dimension ref="A1:D2011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1715" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1715" sqref="C1715"/>
+    <sheetView tabSelected="1" topLeftCell="C1968" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1975" sqref="C1975"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57111,8 +57055,8 @@
       <c r="B1716" t="s">
         <v>3082</v>
       </c>
-      <c r="C1716" t="s">
-        <v>4</v>
+      <c r="C1716">
+        <v>2</v>
       </c>
       <c r="D1716" t="s">
         <v>3131</v>
@@ -57125,8 +57069,8 @@
       <c r="B1717" t="s">
         <v>3082</v>
       </c>
-      <c r="C1717" t="s">
-        <v>4</v>
+      <c r="C1717">
+        <v>2</v>
       </c>
       <c r="D1717" t="s">
         <v>3132</v>
@@ -57139,8 +57083,8 @@
       <c r="B1718" t="s">
         <v>3082</v>
       </c>
-      <c r="C1718" t="s">
-        <v>4</v>
+      <c r="C1718">
+        <v>2</v>
       </c>
       <c r="D1718" t="s">
         <v>3133</v>
@@ -57153,8 +57097,8 @@
       <c r="B1719" t="s">
         <v>3082</v>
       </c>
-      <c r="C1719" t="s">
-        <v>4</v>
+      <c r="C1719">
+        <v>2</v>
       </c>
       <c r="D1719" t="s">
         <v>3134</v>
@@ -57167,8 +57111,8 @@
       <c r="B1720" t="s">
         <v>3082</v>
       </c>
-      <c r="C1720" t="s">
-        <v>4</v>
+      <c r="C1720">
+        <v>2</v>
       </c>
       <c r="D1720" t="s">
         <v>3135</v>
@@ -57181,8 +57125,8 @@
       <c r="B1721" t="s">
         <v>3082</v>
       </c>
-      <c r="C1721" t="s">
-        <v>4</v>
+      <c r="C1721">
+        <v>1</v>
       </c>
       <c r="D1721" t="s">
         <v>3136</v>
@@ -57195,8 +57139,8 @@
       <c r="B1722" t="s">
         <v>3082</v>
       </c>
-      <c r="C1722" t="s">
-        <v>4</v>
+      <c r="C1722">
+        <v>2</v>
       </c>
       <c r="D1722" t="s">
         <v>3137</v>
@@ -57209,8 +57153,8 @@
       <c r="B1723" t="s">
         <v>3082</v>
       </c>
-      <c r="C1723" t="s">
-        <v>4</v>
+      <c r="C1723">
+        <v>1</v>
       </c>
       <c r="D1723" t="s">
         <v>3138</v>
@@ -57218,13 +57162,13 @@
     </row>
     <row r="1724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1724" s="1">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B1724" t="s">
         <v>3082</v>
       </c>
-      <c r="C1724" t="s">
-        <v>4</v>
+      <c r="C1724">
+        <v>1</v>
       </c>
       <c r="D1724" t="s">
         <v>3139</v>
@@ -57232,13 +57176,13 @@
     </row>
     <row r="1725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1725" s="1">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B1725" t="s">
         <v>3082</v>
       </c>
-      <c r="C1725" t="s">
-        <v>4</v>
+      <c r="C1725">
+        <v>1</v>
       </c>
       <c r="D1725" t="s">
         <v>3140</v>
@@ -57246,13 +57190,13 @@
     </row>
     <row r="1726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1726" s="1">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B1726" t="s">
         <v>3082</v>
       </c>
-      <c r="C1726" t="s">
-        <v>4</v>
+      <c r="C1726">
+        <v>2</v>
       </c>
       <c r="D1726" t="s">
         <v>3141</v>
@@ -57260,13 +57204,13 @@
     </row>
     <row r="1727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1727" s="1">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B1727" t="s">
         <v>3082</v>
       </c>
-      <c r="C1727" t="s">
-        <v>4</v>
+      <c r="C1727">
+        <v>1</v>
       </c>
       <c r="D1727" t="s">
         <v>3142</v>
@@ -57274,13 +57218,13 @@
     </row>
     <row r="1728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1728" s="1">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B1728" t="s">
         <v>3082</v>
       </c>
-      <c r="C1728" t="s">
-        <v>4</v>
+      <c r="C1728">
+        <v>2</v>
       </c>
       <c r="D1728" t="s">
         <v>3143</v>
@@ -57288,13 +57232,13 @@
     </row>
     <row r="1729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1729" s="1">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B1729" t="s">
         <v>3082</v>
       </c>
-      <c r="C1729" t="s">
-        <v>4</v>
+      <c r="C1729">
+        <v>1</v>
       </c>
       <c r="D1729" t="s">
         <v>3144</v>
@@ -57302,13 +57246,13 @@
     </row>
     <row r="1730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1730" s="1">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B1730" t="s">
         <v>3082</v>
       </c>
-      <c r="C1730" t="s">
-        <v>4</v>
+      <c r="C1730">
+        <v>2</v>
       </c>
       <c r="D1730" t="s">
         <v>3145</v>
@@ -57316,13 +57260,13 @@
     </row>
     <row r="1731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1731" s="1">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="B1731" t="s">
         <v>3082</v>
       </c>
-      <c r="C1731" t="s">
-        <v>4</v>
+      <c r="C1731">
+        <v>2</v>
       </c>
       <c r="D1731" t="s">
         <v>3146</v>
@@ -57330,13 +57274,13 @@
     </row>
     <row r="1732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1732" s="1">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B1732" t="s">
         <v>3082</v>
       </c>
-      <c r="C1732" t="s">
-        <v>4</v>
+      <c r="C1732">
+        <v>1</v>
       </c>
       <c r="D1732" t="s">
         <v>3147</v>
@@ -57344,27 +57288,27 @@
     </row>
     <row r="1733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1733" s="1">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B1733" t="s">
-        <v>3082</v>
-      </c>
-      <c r="C1733" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1733">
+        <v>1</v>
       </c>
       <c r="D1733" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="1734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1734" s="1">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B1734" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1734" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1734">
+        <v>1</v>
       </c>
       <c r="D1734" t="s">
         <v>3150</v>
@@ -57372,13 +57316,13 @@
     </row>
     <row r="1735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1735" s="1">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B1735" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1735" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1735">
+        <v>1</v>
       </c>
       <c r="D1735" t="s">
         <v>3151</v>
@@ -57386,13 +57330,13 @@
     </row>
     <row r="1736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1736" s="1">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B1736" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1736" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1736">
+        <v>2</v>
       </c>
       <c r="D1736" t="s">
         <v>3152</v>
@@ -57400,13 +57344,13 @@
     </row>
     <row r="1737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1737" s="1">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B1737" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1737" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1737">
+        <v>2</v>
       </c>
       <c r="D1737" t="s">
         <v>3153</v>
@@ -57414,13 +57358,13 @@
     </row>
     <row r="1738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1738" s="1">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B1738" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1738" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1738">
+        <v>1</v>
       </c>
       <c r="D1738" t="s">
         <v>3154</v>
@@ -57428,13 +57372,13 @@
     </row>
     <row r="1739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1739" s="1">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B1739" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1739" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1739">
+        <v>1</v>
       </c>
       <c r="D1739" t="s">
         <v>3155</v>
@@ -57442,13 +57386,13 @@
     </row>
     <row r="1740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1740" s="1">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B1740" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1740" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1740">
+        <v>2</v>
       </c>
       <c r="D1740" t="s">
         <v>3156</v>
@@ -57456,13 +57400,13 @@
     </row>
     <row r="1741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1741" s="1">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B1741" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1741" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1741">
+        <v>2</v>
       </c>
       <c r="D1741" t="s">
         <v>3157</v>
@@ -57470,13 +57414,13 @@
     </row>
     <row r="1742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1742" s="1">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B1742" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1742" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1742">
+        <v>2</v>
       </c>
       <c r="D1742" t="s">
         <v>3158</v>
@@ -57484,13 +57428,13 @@
     </row>
     <row r="1743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1743" s="1">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B1743" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1743" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1743">
+        <v>2</v>
       </c>
       <c r="D1743" t="s">
         <v>3159</v>
@@ -57498,13 +57442,13 @@
     </row>
     <row r="1744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1744" s="1">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B1744" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1744" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1744">
+        <v>2</v>
       </c>
       <c r="D1744" t="s">
         <v>3160</v>
@@ -57512,13 +57456,13 @@
     </row>
     <row r="1745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1745" s="1">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B1745" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1745" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1745">
+        <v>1</v>
       </c>
       <c r="D1745" t="s">
         <v>3161</v>
@@ -57526,13 +57470,13 @@
     </row>
     <row r="1746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1746" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B1746" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1746" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1746">
+        <v>1</v>
       </c>
       <c r="D1746" t="s">
         <v>3162</v>
@@ -57540,13 +57484,13 @@
     </row>
     <row r="1747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1747" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B1747" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1747" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1747">
+        <v>2</v>
       </c>
       <c r="D1747" t="s">
         <v>3163</v>
@@ -57554,13 +57498,13 @@
     </row>
     <row r="1748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1748" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B1748" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1748" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1748">
+        <v>1</v>
       </c>
       <c r="D1748" t="s">
         <v>3164</v>
@@ -57568,13 +57512,13 @@
     </row>
     <row r="1749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1749" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B1749" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1749" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1749">
+        <v>2</v>
       </c>
       <c r="D1749" t="s">
         <v>3165</v>
@@ -57582,13 +57526,13 @@
     </row>
     <row r="1750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1750" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B1750" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1750" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1750">
+        <v>2</v>
       </c>
       <c r="D1750" t="s">
         <v>3166</v>
@@ -57596,13 +57540,13 @@
     </row>
     <row r="1751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1751" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B1751" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1751" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1751">
+        <v>2</v>
       </c>
       <c r="D1751" t="s">
         <v>3167</v>
@@ -57610,13 +57554,13 @@
     </row>
     <row r="1752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1752" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B1752" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1752" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1752">
+        <v>1</v>
       </c>
       <c r="D1752" t="s">
         <v>3168</v>
@@ -57624,13 +57568,13 @@
     </row>
     <row r="1753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1753" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B1753" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1753" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1753">
+        <v>1</v>
       </c>
       <c r="D1753" t="s">
         <v>3169</v>
@@ -57638,13 +57582,13 @@
     </row>
     <row r="1754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1754" s="1">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="B1754" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1754" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1754">
+        <v>2</v>
       </c>
       <c r="D1754" t="s">
         <v>3170</v>
@@ -57652,13 +57596,13 @@
     </row>
     <row r="1755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1755" s="1">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="B1755" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1755" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1755">
+        <v>2</v>
       </c>
       <c r="D1755" t="s">
         <v>3171</v>
@@ -57666,13 +57610,13 @@
     </row>
     <row r="1756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1756" s="1">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="B1756" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1756" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1756">
+        <v>1</v>
       </c>
       <c r="D1756" t="s">
         <v>3172</v>
@@ -57680,13 +57624,13 @@
     </row>
     <row r="1757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1757" s="1">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="B1757" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1757" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1757">
+        <v>1</v>
       </c>
       <c r="D1757" t="s">
         <v>3173</v>
@@ -57694,13 +57638,13 @@
     </row>
     <row r="1758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1758" s="1">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="B1758" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1758" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1758">
+        <v>1</v>
       </c>
       <c r="D1758" t="s">
         <v>3174</v>
@@ -57708,13 +57652,13 @@
     </row>
     <row r="1759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1759" s="1">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="B1759" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1759" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1759">
+        <v>1</v>
       </c>
       <c r="D1759" t="s">
         <v>3175</v>
@@ -57722,13 +57666,13 @@
     </row>
     <row r="1760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1760" s="1">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="B1760" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1760" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1760">
+        <v>1</v>
       </c>
       <c r="D1760" t="s">
         <v>3176</v>
@@ -57736,13 +57680,13 @@
     </row>
     <row r="1761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1761" s="1">
-        <v>2016</v>
+        <v>2025</v>
       </c>
       <c r="B1761" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1761" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1761">
+        <v>1</v>
       </c>
       <c r="D1761" t="s">
         <v>3177</v>
@@ -57750,13 +57694,13 @@
     </row>
     <row r="1762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1762" s="1">
-        <v>2017</v>
+        <v>2026</v>
       </c>
       <c r="B1762" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1762" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1762">
+        <v>1</v>
       </c>
       <c r="D1762" t="s">
         <v>3178</v>
@@ -57764,13 +57708,13 @@
     </row>
     <row r="1763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1763" s="1">
-        <v>2018</v>
+        <v>2027</v>
       </c>
       <c r="B1763" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1763" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1763">
+        <v>1</v>
       </c>
       <c r="D1763" t="s">
         <v>3179</v>
@@ -57778,13 +57722,13 @@
     </row>
     <row r="1764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1764" s="1">
-        <v>2019</v>
+        <v>2028</v>
       </c>
       <c r="B1764" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1764" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1764">
+        <v>2</v>
       </c>
       <c r="D1764" t="s">
         <v>3180</v>
@@ -57792,13 +57736,13 @@
     </row>
     <row r="1765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1765" s="1">
-        <v>2020</v>
+        <v>2029</v>
       </c>
       <c r="B1765" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1765" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1765">
+        <v>2</v>
       </c>
       <c r="D1765" t="s">
         <v>3181</v>
@@ -57806,13 +57750,13 @@
     </row>
     <row r="1766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1766" s="1">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="B1766" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1766" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1766">
+        <v>2</v>
       </c>
       <c r="D1766" t="s">
         <v>3182</v>
@@ -57820,13 +57764,13 @@
     </row>
     <row r="1767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1767" s="1">
-        <v>2022</v>
+        <v>2037</v>
       </c>
       <c r="B1767" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1767" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1767">
+        <v>2</v>
       </c>
       <c r="D1767" t="s">
         <v>3183</v>
@@ -57834,13 +57778,13 @@
     </row>
     <row r="1768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1768" s="1">
-        <v>2024</v>
+        <v>2038</v>
       </c>
       <c r="B1768" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1768" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1768">
+        <v>1</v>
       </c>
       <c r="D1768" t="s">
         <v>3184</v>
@@ -57848,13 +57792,13 @@
     </row>
     <row r="1769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1769" s="1">
-        <v>2025</v>
+        <v>2039</v>
       </c>
       <c r="B1769" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1769" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1769">
+        <v>0</v>
       </c>
       <c r="D1769" t="s">
         <v>3185</v>
@@ -57862,13 +57806,13 @@
     </row>
     <row r="1770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1770" s="1">
-        <v>2026</v>
+        <v>2040</v>
       </c>
       <c r="B1770" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1770" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1770">
+        <v>0</v>
       </c>
       <c r="D1770" t="s">
         <v>3186</v>
@@ -57876,13 +57820,13 @@
     </row>
     <row r="1771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1771" s="1">
-        <v>2027</v>
+        <v>2041</v>
       </c>
       <c r="B1771" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1771" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1771">
+        <v>1</v>
       </c>
       <c r="D1771" t="s">
         <v>3187</v>
@@ -57890,13 +57834,13 @@
     </row>
     <row r="1772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1772" s="1">
-        <v>2028</v>
+        <v>2042</v>
       </c>
       <c r="B1772" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1772" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1772">
+        <v>1</v>
       </c>
       <c r="D1772" t="s">
         <v>3188</v>
@@ -57904,13 +57848,13 @@
     </row>
     <row r="1773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1773" s="1">
-        <v>2029</v>
+        <v>2043</v>
       </c>
       <c r="B1773" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1773" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1773">
+        <v>1</v>
       </c>
       <c r="D1773" t="s">
         <v>3189</v>
@@ -57918,13 +57862,13 @@
     </row>
     <row r="1774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1774" s="1">
-        <v>2030</v>
+        <v>2044</v>
       </c>
       <c r="B1774" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1774" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1774">
+        <v>2</v>
       </c>
       <c r="D1774" t="s">
         <v>3190</v>
@@ -57932,13 +57876,13 @@
     </row>
     <row r="1775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1775" s="1">
-        <v>2037</v>
+        <v>2046</v>
       </c>
       <c r="B1775" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1775" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1775">
+        <v>2</v>
       </c>
       <c r="D1775" t="s">
         <v>3191</v>
@@ -57946,13 +57890,13 @@
     </row>
     <row r="1776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1776" s="1">
-        <v>2038</v>
+        <v>2047</v>
       </c>
       <c r="B1776" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1776" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1776">
+        <v>1</v>
       </c>
       <c r="D1776" t="s">
         <v>3192</v>
@@ -57960,13 +57904,13 @@
     </row>
     <row r="1777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1777" s="1">
-        <v>2039</v>
+        <v>2048</v>
       </c>
       <c r="B1777" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1777" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1777">
+        <v>1</v>
       </c>
       <c r="D1777" t="s">
         <v>3193</v>
@@ -57974,13 +57918,13 @@
     </row>
     <row r="1778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1778" s="1">
-        <v>2040</v>
+        <v>2049</v>
       </c>
       <c r="B1778" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1778" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1778">
+        <v>1</v>
       </c>
       <c r="D1778" t="s">
         <v>3194</v>
@@ -57988,13 +57932,13 @@
     </row>
     <row r="1779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1779" s="1">
-        <v>2041</v>
+        <v>2050</v>
       </c>
       <c r="B1779" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1779" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1779">
+        <v>1</v>
       </c>
       <c r="D1779" t="s">
         <v>3195</v>
@@ -58002,13 +57946,13 @@
     </row>
     <row r="1780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1780" s="1">
-        <v>2042</v>
+        <v>2051</v>
       </c>
       <c r="B1780" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1780" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1780">
+        <v>2</v>
       </c>
       <c r="D1780" t="s">
         <v>3196</v>
@@ -58016,13 +57960,13 @@
     </row>
     <row r="1781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1781" s="1">
-        <v>2043</v>
+        <v>2054</v>
       </c>
       <c r="B1781" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1781" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1781">
+        <v>2</v>
       </c>
       <c r="D1781" t="s">
         <v>3197</v>
@@ -58030,13 +57974,13 @@
     </row>
     <row r="1782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1782" s="1">
-        <v>2044</v>
+        <v>2055</v>
       </c>
       <c r="B1782" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1782" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1782">
+        <v>1</v>
       </c>
       <c r="D1782" t="s">
         <v>3198</v>
@@ -58044,13 +57988,13 @@
     </row>
     <row r="1783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1783" s="1">
-        <v>2046</v>
+        <v>2056</v>
       </c>
       <c r="B1783" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1783" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1783">
+        <v>2</v>
       </c>
       <c r="D1783" t="s">
         <v>3199</v>
@@ -58058,13 +58002,13 @@
     </row>
     <row r="1784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1784" s="1">
-        <v>2047</v>
+        <v>2057</v>
       </c>
       <c r="B1784" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1784" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1784">
+        <v>2</v>
       </c>
       <c r="D1784" t="s">
         <v>3200</v>
@@ -58072,13 +58016,13 @@
     </row>
     <row r="1785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1785" s="1">
-        <v>2048</v>
+        <v>2058</v>
       </c>
       <c r="B1785" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1785" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1785">
+        <v>1</v>
       </c>
       <c r="D1785" t="s">
         <v>3201</v>
@@ -58086,13 +58030,13 @@
     </row>
     <row r="1786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1786" s="1">
-        <v>2049</v>
+        <v>2059</v>
       </c>
       <c r="B1786" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1786" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1786">
+        <v>2</v>
       </c>
       <c r="D1786" t="s">
         <v>3202</v>
@@ -58100,13 +58044,13 @@
     </row>
     <row r="1787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1787" s="1">
-        <v>2050</v>
+        <v>2060</v>
       </c>
       <c r="B1787" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1787" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1787">
+        <v>2</v>
       </c>
       <c r="D1787" t="s">
         <v>3203</v>
@@ -58114,13 +58058,13 @@
     </row>
     <row r="1788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1788" s="1">
-        <v>2051</v>
+        <v>2061</v>
       </c>
       <c r="B1788" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1788" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1788">
+        <v>0</v>
       </c>
       <c r="D1788" t="s">
         <v>3204</v>
@@ -58128,13 +58072,13 @@
     </row>
     <row r="1789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1789" s="1">
-        <v>2052</v>
+        <v>2062</v>
       </c>
       <c r="B1789" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1789" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1789">
+        <v>1</v>
       </c>
       <c r="D1789" t="s">
         <v>3205</v>
@@ -58142,13 +58086,13 @@
     </row>
     <row r="1790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1790" s="1">
-        <v>2053</v>
+        <v>2063</v>
       </c>
       <c r="B1790" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1790" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1790">
+        <v>2</v>
       </c>
       <c r="D1790" t="s">
         <v>3206</v>
@@ -58156,13 +58100,13 @@
     </row>
     <row r="1791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1791" s="1">
-        <v>2054</v>
+        <v>2064</v>
       </c>
       <c r="B1791" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1791" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1791">
+        <v>2</v>
       </c>
       <c r="D1791" t="s">
         <v>3207</v>
@@ -58170,13 +58114,13 @@
     </row>
     <row r="1792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1792" s="1">
-        <v>2055</v>
+        <v>2065</v>
       </c>
       <c r="B1792" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1792" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1792">
+        <v>1</v>
       </c>
       <c r="D1792" t="s">
         <v>3208</v>
@@ -58184,13 +58128,13 @@
     </row>
     <row r="1793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1793" s="1">
-        <v>2056</v>
+        <v>2066</v>
       </c>
       <c r="B1793" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1793" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1793">
+        <v>2</v>
       </c>
       <c r="D1793" t="s">
         <v>3209</v>
@@ -58198,13 +58142,13 @@
     </row>
     <row r="1794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1794" s="1">
-        <v>2057</v>
+        <v>2067</v>
       </c>
       <c r="B1794" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1794" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1794">
+        <v>2</v>
       </c>
       <c r="D1794" t="s">
         <v>3210</v>
@@ -58212,13 +58156,13 @@
     </row>
     <row r="1795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1795" s="1">
-        <v>2058</v>
+        <v>2068</v>
       </c>
       <c r="B1795" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1795" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1795">
+        <v>2</v>
       </c>
       <c r="D1795" t="s">
         <v>3211</v>
@@ -58226,13 +58170,13 @@
     </row>
     <row r="1796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1796" s="1">
-        <v>2059</v>
+        <v>2069</v>
       </c>
       <c r="B1796" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1796" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1796">
+        <v>2</v>
       </c>
       <c r="D1796" t="s">
         <v>3212</v>
@@ -58240,13 +58184,13 @@
     </row>
     <row r="1797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1797" s="1">
-        <v>2060</v>
+        <v>2070</v>
       </c>
       <c r="B1797" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1797" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1797">
+        <v>2</v>
       </c>
       <c r="D1797" t="s">
         <v>3213</v>
@@ -58254,13 +58198,13 @@
     </row>
     <row r="1798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1798" s="1">
-        <v>2061</v>
+        <v>2071</v>
       </c>
       <c r="B1798" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1798" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1798">
+        <v>2</v>
       </c>
       <c r="D1798" t="s">
         <v>3214</v>
@@ -58268,13 +58212,13 @@
     </row>
     <row r="1799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1799" s="1">
-        <v>2062</v>
+        <v>2072</v>
       </c>
       <c r="B1799" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1799" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1799">
+        <v>2</v>
       </c>
       <c r="D1799" t="s">
         <v>3215</v>
@@ -58282,13 +58226,13 @@
     </row>
     <row r="1800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1800" s="1">
-        <v>2063</v>
+        <v>2073</v>
       </c>
       <c r="B1800" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1800" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1800">
+        <v>2</v>
       </c>
       <c r="D1800" t="s">
         <v>3216</v>
@@ -58296,13 +58240,13 @@
     </row>
     <row r="1801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1801" s="1">
-        <v>2064</v>
+        <v>2074</v>
       </c>
       <c r="B1801" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1801" t="s">
-        <v>4</v>
+        <v>3148</v>
+      </c>
+      <c r="C1801">
+        <v>1</v>
       </c>
       <c r="D1801" t="s">
         <v>3217</v>
@@ -58310,153 +58254,153 @@
     </row>
     <row r="1802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1802" s="1">
-        <v>2065</v>
+        <v>2075</v>
       </c>
       <c r="B1802" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1802" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1802">
+        <v>1</v>
       </c>
       <c r="D1802" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="1803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1803" s="1">
-        <v>2066</v>
+        <v>2076</v>
       </c>
       <c r="B1803" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1803" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1803">
+        <v>1</v>
       </c>
       <c r="D1803" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="1804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1804" s="1">
-        <v>2067</v>
+        <v>2077</v>
       </c>
       <c r="B1804" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1804" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1804">
+        <v>1</v>
       </c>
       <c r="D1804" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="1805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1805" s="1">
-        <v>2068</v>
+        <v>2078</v>
       </c>
       <c r="B1805" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1805" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1805">
+        <v>2</v>
       </c>
       <c r="D1805" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="1806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1806" s="1">
-        <v>2069</v>
+        <v>2079</v>
       </c>
       <c r="B1806" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1806" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1806">
+        <v>1</v>
       </c>
       <c r="D1806" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="1807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1807" s="1">
-        <v>2070</v>
+        <v>2080</v>
       </c>
       <c r="B1807" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1807" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1807">
+        <v>1</v>
       </c>
       <c r="D1807" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="1808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1808" s="1">
-        <v>2071</v>
+        <v>2081</v>
       </c>
       <c r="B1808" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1808" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1808">
+        <v>1</v>
       </c>
       <c r="D1808" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="1809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1809" s="1">
-        <v>2072</v>
+        <v>2082</v>
       </c>
       <c r="B1809" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1809" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1809">
+        <v>1</v>
       </c>
       <c r="D1809" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="1810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1810" s="1">
-        <v>2073</v>
+        <v>2083</v>
       </c>
       <c r="B1810" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1810" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1810">
+        <v>2</v>
       </c>
       <c r="D1810" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="1811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1811" s="1">
-        <v>2074</v>
+        <v>2085</v>
       </c>
       <c r="B1811" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C1811" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1811">
+        <v>2</v>
       </c>
       <c r="D1811" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="1812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1812" s="1">
-        <v>2075</v>
+        <v>2086</v>
       </c>
       <c r="B1812" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1812" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1812">
+        <v>2</v>
       </c>
       <c r="D1812" t="s">
         <v>3229</v>
@@ -58464,13 +58408,13 @@
     </row>
     <row r="1813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1813" s="1">
-        <v>2076</v>
+        <v>2087</v>
       </c>
       <c r="B1813" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1813" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1813">
+        <v>2</v>
       </c>
       <c r="D1813" t="s">
         <v>3230</v>
@@ -58478,13 +58422,13 @@
     </row>
     <row r="1814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1814" s="1">
-        <v>2077</v>
+        <v>2088</v>
       </c>
       <c r="B1814" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1814" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1814">
+        <v>2</v>
       </c>
       <c r="D1814" t="s">
         <v>3231</v>
@@ -58492,13 +58436,13 @@
     </row>
     <row r="1815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1815" s="1">
-        <v>2078</v>
+        <v>2089</v>
       </c>
       <c r="B1815" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1815" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1815">
+        <v>1</v>
       </c>
       <c r="D1815" t="s">
         <v>3232</v>
@@ -58506,13 +58450,13 @@
     </row>
     <row r="1816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1816" s="1">
-        <v>2079</v>
+        <v>2090</v>
       </c>
       <c r="B1816" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1816" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1816">
+        <v>1</v>
       </c>
       <c r="D1816" t="s">
         <v>3233</v>
@@ -58520,13 +58464,13 @@
     </row>
     <row r="1817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1817" s="1">
-        <v>2080</v>
+        <v>2091</v>
       </c>
       <c r="B1817" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1817" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1817">
+        <v>2</v>
       </c>
       <c r="D1817" t="s">
         <v>3234</v>
@@ -58534,13 +58478,13 @@
     </row>
     <row r="1818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1818" s="1">
-        <v>2081</v>
+        <v>2092</v>
       </c>
       <c r="B1818" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1818" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1818">
+        <v>1</v>
       </c>
       <c r="D1818" t="s">
         <v>3235</v>
@@ -58548,13 +58492,13 @@
     </row>
     <row r="1819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1819" s="1">
-        <v>2082</v>
+        <v>2093</v>
       </c>
       <c r="B1819" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1819" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1819">
+        <v>0</v>
       </c>
       <c r="D1819" t="s">
         <v>3236</v>
@@ -58562,13 +58506,13 @@
     </row>
     <row r="1820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1820" s="1">
-        <v>2083</v>
+        <v>2094</v>
       </c>
       <c r="B1820" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1820" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1820">
+        <v>0</v>
       </c>
       <c r="D1820" t="s">
         <v>3237</v>
@@ -58576,13 +58520,13 @@
     </row>
     <row r="1821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1821" s="1">
-        <v>2085</v>
+        <v>2095</v>
       </c>
       <c r="B1821" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1821" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1821">
+        <v>2</v>
       </c>
       <c r="D1821" t="s">
         <v>3238</v>
@@ -58590,13 +58534,13 @@
     </row>
     <row r="1822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1822" s="1">
-        <v>2086</v>
+        <v>2096</v>
       </c>
       <c r="B1822" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1822" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1822">
+        <v>2</v>
       </c>
       <c r="D1822" t="s">
         <v>3239</v>
@@ -58604,13 +58548,13 @@
     </row>
     <row r="1823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1823" s="1">
-        <v>2087</v>
+        <v>2097</v>
       </c>
       <c r="B1823" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1823" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1823">
+        <v>1</v>
       </c>
       <c r="D1823" t="s">
         <v>3240</v>
@@ -58618,13 +58562,13 @@
     </row>
     <row r="1824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1824" s="1">
-        <v>2088</v>
+        <v>2098</v>
       </c>
       <c r="B1824" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1824" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1824">
+        <v>1</v>
       </c>
       <c r="D1824" t="s">
         <v>3241</v>
@@ -58632,13 +58576,13 @@
     </row>
     <row r="1825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1825" s="1">
-        <v>2089</v>
+        <v>2099</v>
       </c>
       <c r="B1825" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1825" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1825">
+        <v>1</v>
       </c>
       <c r="D1825" t="s">
         <v>3242</v>
@@ -58646,13 +58590,13 @@
     </row>
     <row r="1826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1826" s="1">
-        <v>2090</v>
+        <v>2100</v>
       </c>
       <c r="B1826" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1826" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1826">
+        <v>1</v>
       </c>
       <c r="D1826" t="s">
         <v>3243</v>
@@ -58660,13 +58604,13 @@
     </row>
     <row r="1827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1827" s="1">
-        <v>2091</v>
+        <v>2101</v>
       </c>
       <c r="B1827" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1827" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1827">
+        <v>0</v>
       </c>
       <c r="D1827" t="s">
         <v>3244</v>
@@ -58674,13 +58618,13 @@
     </row>
     <row r="1828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1828" s="1">
-        <v>2092</v>
+        <v>2103</v>
       </c>
       <c r="B1828" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1828" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1828">
+        <v>2</v>
       </c>
       <c r="D1828" t="s">
         <v>3245</v>
@@ -58688,13 +58632,13 @@
     </row>
     <row r="1829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1829" s="1">
-        <v>2093</v>
+        <v>2104</v>
       </c>
       <c r="B1829" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1829" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1829">
+        <v>1</v>
       </c>
       <c r="D1829" t="s">
         <v>3246</v>
@@ -58702,13 +58646,13 @@
     </row>
     <row r="1830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1830" s="1">
-        <v>2094</v>
+        <v>2105</v>
       </c>
       <c r="B1830" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1830" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1830">
+        <v>2</v>
       </c>
       <c r="D1830" t="s">
         <v>3247</v>
@@ -58716,13 +58660,13 @@
     </row>
     <row r="1831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1831" s="1">
-        <v>2095</v>
+        <v>2106</v>
       </c>
       <c r="B1831" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1831" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1831">
+        <v>2</v>
       </c>
       <c r="D1831" t="s">
         <v>3248</v>
@@ -58730,13 +58674,13 @@
     </row>
     <row r="1832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1832" s="1">
-        <v>2096</v>
+        <v>2107</v>
       </c>
       <c r="B1832" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1832" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1832">
+        <v>2</v>
       </c>
       <c r="D1832" t="s">
         <v>3249</v>
@@ -58744,13 +58688,13 @@
     </row>
     <row r="1833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1833" s="1">
-        <v>2097</v>
+        <v>2108</v>
       </c>
       <c r="B1833" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1833" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1833">
+        <v>2</v>
       </c>
       <c r="D1833" t="s">
         <v>3250</v>
@@ -58758,13 +58702,13 @@
     </row>
     <row r="1834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1834" s="1">
-        <v>2098</v>
+        <v>2109</v>
       </c>
       <c r="B1834" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1834" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1834">
+        <v>2</v>
       </c>
       <c r="D1834" t="s">
         <v>3251</v>
@@ -58772,13 +58716,13 @@
     </row>
     <row r="1835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1835" s="1">
-        <v>2099</v>
+        <v>2110</v>
       </c>
       <c r="B1835" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1835" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1835">
+        <v>1</v>
       </c>
       <c r="D1835" t="s">
         <v>3252</v>
@@ -58786,13 +58730,13 @@
     </row>
     <row r="1836" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1836" s="1">
-        <v>2100</v>
+        <v>2111</v>
       </c>
       <c r="B1836" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1836" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1836">
+        <v>2</v>
       </c>
       <c r="D1836" t="s">
         <v>3253</v>
@@ -58800,13 +58744,13 @@
     </row>
     <row r="1837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1837" s="1">
-        <v>2101</v>
+        <v>2112</v>
       </c>
       <c r="B1837" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1837" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1837">
+        <v>0</v>
       </c>
       <c r="D1837" t="s">
         <v>3254</v>
@@ -58814,13 +58758,13 @@
     </row>
     <row r="1838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1838" s="1">
-        <v>2103</v>
+        <v>2113</v>
       </c>
       <c r="B1838" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1838" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1838">
+        <v>1</v>
       </c>
       <c r="D1838" t="s">
         <v>3255</v>
@@ -58828,13 +58772,13 @@
     </row>
     <row r="1839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1839" s="1">
-        <v>2104</v>
+        <v>2114</v>
       </c>
       <c r="B1839" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1839" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1839">
+        <v>2</v>
       </c>
       <c r="D1839" t="s">
         <v>3256</v>
@@ -58842,13 +58786,13 @@
     </row>
     <row r="1840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1840" s="1">
-        <v>2105</v>
+        <v>2115</v>
       </c>
       <c r="B1840" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1840" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1840">
+        <v>2</v>
       </c>
       <c r="D1840" t="s">
         <v>3257</v>
@@ -58856,13 +58800,13 @@
     </row>
     <row r="1841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1841" s="1">
-        <v>2106</v>
+        <v>2116</v>
       </c>
       <c r="B1841" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1841" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1841">
+        <v>2</v>
       </c>
       <c r="D1841" t="s">
         <v>3258</v>
@@ -58870,13 +58814,13 @@
     </row>
     <row r="1842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1842" s="1">
-        <v>2107</v>
+        <v>2117</v>
       </c>
       <c r="B1842" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1842" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1842">
+        <v>2</v>
       </c>
       <c r="D1842" t="s">
         <v>3259</v>
@@ -58884,13 +58828,13 @@
     </row>
     <row r="1843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1843" s="1">
-        <v>2108</v>
+        <v>2120</v>
       </c>
       <c r="B1843" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1843" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1843">
+        <v>1</v>
       </c>
       <c r="D1843" t="s">
         <v>3260</v>
@@ -58898,13 +58842,13 @@
     </row>
     <row r="1844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1844" s="1">
-        <v>2109</v>
+        <v>2122</v>
       </c>
       <c r="B1844" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1844" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1844">
+        <v>1</v>
       </c>
       <c r="D1844" t="s">
         <v>3261</v>
@@ -58912,13 +58856,13 @@
     </row>
     <row r="1845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1845" s="1">
-        <v>2110</v>
+        <v>2123</v>
       </c>
       <c r="B1845" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1845" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1845">
+        <v>2</v>
       </c>
       <c r="D1845" t="s">
         <v>3262</v>
@@ -58926,13 +58870,13 @@
     </row>
     <row r="1846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1846" s="1">
-        <v>2111</v>
+        <v>2124</v>
       </c>
       <c r="B1846" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1846" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1846">
+        <v>1</v>
       </c>
       <c r="D1846" t="s">
         <v>3263</v>
@@ -58940,13 +58884,13 @@
     </row>
     <row r="1847" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1847" s="1">
-        <v>2112</v>
+        <v>2125</v>
       </c>
       <c r="B1847" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1847" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1847">
+        <v>2</v>
       </c>
       <c r="D1847" t="s">
         <v>3264</v>
@@ -58954,13 +58898,13 @@
     </row>
     <row r="1848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1848" s="1">
-        <v>2113</v>
+        <v>2126</v>
       </c>
       <c r="B1848" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1848" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1848">
+        <v>2</v>
       </c>
       <c r="D1848" t="s">
         <v>3265</v>
@@ -58968,13 +58912,13 @@
     </row>
     <row r="1849" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1849" s="1">
-        <v>2114</v>
+        <v>2127</v>
       </c>
       <c r="B1849" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1849" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1849">
+        <v>2</v>
       </c>
       <c r="D1849" t="s">
         <v>3266</v>
@@ -58982,13 +58926,13 @@
     </row>
     <row r="1850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1850" s="1">
-        <v>2115</v>
+        <v>2128</v>
       </c>
       <c r="B1850" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1850" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1850">
+        <v>1</v>
       </c>
       <c r="D1850" t="s">
         <v>3267</v>
@@ -58996,13 +58940,13 @@
     </row>
     <row r="1851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1851" s="1">
-        <v>2116</v>
+        <v>2129</v>
       </c>
       <c r="B1851" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1851" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1851">
+        <v>1</v>
       </c>
       <c r="D1851" t="s">
         <v>3268</v>
@@ -59010,13 +58954,13 @@
     </row>
     <row r="1852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1852" s="1">
-        <v>2117</v>
+        <v>2131</v>
       </c>
       <c r="B1852" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1852" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1852">
+        <v>2</v>
       </c>
       <c r="D1852" t="s">
         <v>3269</v>
@@ -59024,13 +58968,13 @@
     </row>
     <row r="1853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1853" s="1">
-        <v>2120</v>
+        <v>2132</v>
       </c>
       <c r="B1853" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1853" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1853">
+        <v>1</v>
       </c>
       <c r="D1853" t="s">
         <v>3270</v>
@@ -59038,13 +58982,13 @@
     </row>
     <row r="1854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1854" s="1">
-        <v>2122</v>
+        <v>2133</v>
       </c>
       <c r="B1854" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1854" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1854">
+        <v>2</v>
       </c>
       <c r="D1854" t="s">
         <v>3271</v>
@@ -59052,13 +58996,13 @@
     </row>
     <row r="1855" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1855" s="1">
-        <v>2123</v>
+        <v>2134</v>
       </c>
       <c r="B1855" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1855" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1855">
+        <v>1</v>
       </c>
       <c r="D1855" t="s">
         <v>3272</v>
@@ -59066,13 +59010,13 @@
     </row>
     <row r="1856" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1856" s="1">
-        <v>2124</v>
+        <v>2136</v>
       </c>
       <c r="B1856" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1856" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1856">
+        <v>1</v>
       </c>
       <c r="D1856" t="s">
         <v>3273</v>
@@ -59080,13 +59024,13 @@
     </row>
     <row r="1857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1857" s="1">
-        <v>2125</v>
+        <v>2137</v>
       </c>
       <c r="B1857" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1857" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1857">
+        <v>1</v>
       </c>
       <c r="D1857" t="s">
         <v>3274</v>
@@ -59094,13 +59038,13 @@
     </row>
     <row r="1858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1858" s="1">
-        <v>2126</v>
+        <v>2138</v>
       </c>
       <c r="B1858" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1858" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1858">
+        <v>1</v>
       </c>
       <c r="D1858" t="s">
         <v>3275</v>
@@ -59108,13 +59052,13 @@
     </row>
     <row r="1859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1859" s="1">
-        <v>2127</v>
+        <v>2139</v>
       </c>
       <c r="B1859" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1859" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1859">
+        <v>1</v>
       </c>
       <c r="D1859" t="s">
         <v>3276</v>
@@ -59122,13 +59066,13 @@
     </row>
     <row r="1860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1860" s="1">
-        <v>2128</v>
+        <v>2141</v>
       </c>
       <c r="B1860" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1860" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1860">
+        <v>2</v>
       </c>
       <c r="D1860" t="s">
         <v>3277</v>
@@ -59136,13 +59080,13 @@
     </row>
     <row r="1861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1861" s="1">
-        <v>2129</v>
+        <v>2143</v>
       </c>
       <c r="B1861" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1861" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1861">
+        <v>1</v>
       </c>
       <c r="D1861" t="s">
         <v>3278</v>
@@ -59150,13 +59094,13 @@
     </row>
     <row r="1862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1862" s="1">
-        <v>2131</v>
+        <v>2144</v>
       </c>
       <c r="B1862" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1862" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1862">
+        <v>1</v>
       </c>
       <c r="D1862" t="s">
         <v>3279</v>
@@ -59164,13 +59108,13 @@
     </row>
     <row r="1863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1863" s="1">
-        <v>2132</v>
+        <v>2145</v>
       </c>
       <c r="B1863" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1863" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1863">
+        <v>2</v>
       </c>
       <c r="D1863" t="s">
         <v>3280</v>
@@ -59178,13 +59122,13 @@
     </row>
     <row r="1864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1864" s="1">
-        <v>2133</v>
+        <v>2146</v>
       </c>
       <c r="B1864" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1864" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1864">
+        <v>-1</v>
       </c>
       <c r="D1864" t="s">
         <v>3281</v>
@@ -59192,13 +59136,13 @@
     </row>
     <row r="1865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1865" s="1">
-        <v>2134</v>
+        <v>2147</v>
       </c>
       <c r="B1865" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1865" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1865">
+        <v>1</v>
       </c>
       <c r="D1865" t="s">
         <v>3282</v>
@@ -59206,13 +59150,13 @@
     </row>
     <row r="1866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1866" s="1">
-        <v>2136</v>
+        <v>2148</v>
       </c>
       <c r="B1866" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1866" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1866">
+        <v>2</v>
       </c>
       <c r="D1866" t="s">
         <v>3283</v>
@@ -59220,13 +59164,13 @@
     </row>
     <row r="1867" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1867" s="1">
-        <v>2137</v>
+        <v>2149</v>
       </c>
       <c r="B1867" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1867" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1867">
+        <v>1</v>
       </c>
       <c r="D1867" t="s">
         <v>3284</v>
@@ -59234,13 +59178,13 @@
     </row>
     <row r="1868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1868" s="1">
-        <v>2138</v>
+        <v>2150</v>
       </c>
       <c r="B1868" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1868" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1868">
+        <v>1</v>
       </c>
       <c r="D1868" t="s">
         <v>3285</v>
@@ -59248,13 +59192,13 @@
     </row>
     <row r="1869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1869" s="1">
-        <v>2139</v>
+        <v>2151</v>
       </c>
       <c r="B1869" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1869" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1869">
+        <v>1</v>
       </c>
       <c r="D1869" t="s">
         <v>3286</v>
@@ -59262,1189 +59206,1189 @@
     </row>
     <row r="1870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1870" s="1">
-        <v>2140</v>
+        <v>2152</v>
       </c>
       <c r="B1870" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1870" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1870">
+        <v>2</v>
       </c>
       <c r="D1870" t="s">
-        <v>466</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="1871" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1871" s="1">
-        <v>2141</v>
+        <v>2153</v>
       </c>
       <c r="B1871" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1871" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1871">
+        <v>2</v>
       </c>
       <c r="D1871" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="1872" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1872" s="1">
-        <v>2143</v>
+        <v>2154</v>
       </c>
       <c r="B1872" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1872" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1872">
+        <v>2</v>
       </c>
       <c r="D1872" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="1873" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1873" s="1">
-        <v>2144</v>
+        <v>2155</v>
       </c>
       <c r="B1873" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1873" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1873">
+        <v>1</v>
       </c>
       <c r="D1873" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="1874" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1874" s="1">
-        <v>2145</v>
+        <v>2156</v>
       </c>
       <c r="B1874" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1874" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1874">
+        <v>2</v>
       </c>
       <c r="D1874" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="1875" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1875" s="1">
-        <v>2146</v>
+        <v>2157</v>
       </c>
       <c r="B1875" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1875" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1875">
+        <v>1</v>
       </c>
       <c r="D1875" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="1876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1876" s="1">
-        <v>2147</v>
+        <v>2158</v>
       </c>
       <c r="B1876" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1876" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1876">
+        <v>1</v>
       </c>
       <c r="D1876" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="1877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1877" s="1">
-        <v>2148</v>
+        <v>2159</v>
       </c>
       <c r="B1877" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1877" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1877">
+        <v>1</v>
       </c>
       <c r="D1877" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="1878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1878" s="1">
-        <v>2149</v>
+        <v>2160</v>
       </c>
       <c r="B1878" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1878" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1878">
+        <v>2</v>
       </c>
       <c r="D1878" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="1879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1879" s="1">
-        <v>2150</v>
+        <v>2161</v>
       </c>
       <c r="B1879" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1879" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1879">
+        <v>-1</v>
       </c>
       <c r="D1879" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="1880" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1880" s="1">
-        <v>2151</v>
+        <v>2162</v>
       </c>
       <c r="B1880" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1880" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1880">
+        <v>-1</v>
       </c>
       <c r="D1880" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="1881" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1881" s="1">
-        <v>2152</v>
+        <v>2163</v>
       </c>
       <c r="B1881" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1881" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1881">
+        <v>2</v>
       </c>
       <c r="D1881" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="1882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1882" s="1">
-        <v>2153</v>
+        <v>2164</v>
       </c>
       <c r="B1882" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1882" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1882">
+        <v>2</v>
       </c>
       <c r="D1882" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="1883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1883" s="1">
-        <v>2154</v>
+        <v>2165</v>
       </c>
       <c r="B1883" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1883" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1883">
+        <v>2</v>
       </c>
       <c r="D1883" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="1884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1884" s="1">
-        <v>2155</v>
+        <v>2166</v>
       </c>
       <c r="B1884" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1884" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1884">
+        <v>2</v>
       </c>
       <c r="D1884" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="1885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1885" s="1">
-        <v>2156</v>
+        <v>2167</v>
       </c>
       <c r="B1885" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1885" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1885">
+        <v>1</v>
       </c>
       <c r="D1885" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="1886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1886" s="1">
-        <v>2157</v>
+        <v>2168</v>
       </c>
       <c r="B1886" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1886" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1886">
+        <v>2</v>
       </c>
       <c r="D1886" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="1887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1887" s="1">
-        <v>2158</v>
+        <v>2169</v>
       </c>
       <c r="B1887" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1887" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1887">
+        <v>2</v>
       </c>
       <c r="D1887" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="1888" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1888" s="1">
-        <v>2159</v>
+        <v>2170</v>
       </c>
       <c r="B1888" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1888" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1888">
+        <v>2</v>
       </c>
       <c r="D1888" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="1889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1889" s="1">
-        <v>2160</v>
+        <v>2171</v>
       </c>
       <c r="B1889" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1889" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1889">
+        <v>2</v>
       </c>
       <c r="D1889" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="1890" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1890" s="1">
-        <v>2161</v>
+        <v>2172</v>
       </c>
       <c r="B1890" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1890" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1890">
+        <v>1</v>
       </c>
       <c r="D1890" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="1891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1891" s="1">
-        <v>2162</v>
+        <v>2174</v>
       </c>
       <c r="B1891" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1891" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1891">
+        <v>2</v>
       </c>
       <c r="D1891" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="1892" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1892" s="1">
-        <v>2163</v>
+        <v>2175</v>
       </c>
       <c r="B1892" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1892" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1892">
+        <v>2</v>
       </c>
       <c r="D1892" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="1893" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1893" s="1">
-        <v>2164</v>
+        <v>2176</v>
       </c>
       <c r="B1893" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1893" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1893">
+        <v>2</v>
       </c>
       <c r="D1893" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="1894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1894" s="1">
-        <v>2165</v>
+        <v>2177</v>
       </c>
       <c r="B1894" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1894" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1894">
+        <v>1</v>
       </c>
       <c r="D1894" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="1895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1895" s="1">
-        <v>2166</v>
+        <v>2178</v>
       </c>
       <c r="B1895" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1895" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1895">
+        <v>2</v>
       </c>
       <c r="D1895" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="1896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1896" s="1">
-        <v>2167</v>
+        <v>2179</v>
       </c>
       <c r="B1896" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1896" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1896">
+        <v>1</v>
       </c>
       <c r="D1896" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="1897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1897" s="1">
-        <v>2168</v>
+        <v>2180</v>
       </c>
       <c r="B1897" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1897" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1897">
+        <v>1</v>
       </c>
       <c r="D1897" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="1898" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1898" s="1">
-        <v>2169</v>
+        <v>2181</v>
       </c>
       <c r="B1898" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1898" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1898">
+        <v>1</v>
       </c>
       <c r="D1898" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="1899" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1899" s="1">
-        <v>2170</v>
+        <v>2182</v>
       </c>
       <c r="B1899" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1899" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1899">
+        <v>1</v>
       </c>
       <c r="D1899" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="1900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1900" s="1">
-        <v>2171</v>
+        <v>2186</v>
       </c>
       <c r="B1900" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1900" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1900">
+        <v>2</v>
       </c>
       <c r="D1900" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="1901" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1901" s="1">
-        <v>2172</v>
+        <v>2187</v>
       </c>
       <c r="B1901" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1901" t="s">
-        <v>4</v>
+        <v>3218</v>
+      </c>
+      <c r="C1901">
+        <v>1</v>
       </c>
       <c r="D1901" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1902" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1902" s="1">
-        <v>2174</v>
+        <v>2189</v>
       </c>
       <c r="B1902" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1902" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1902">
+        <v>1</v>
       </c>
       <c r="D1902" t="s">
-        <v>3318</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="1903" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1903" s="1">
-        <v>2175</v>
+        <v>2190</v>
       </c>
       <c r="B1903" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1903" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1903">
+        <v>1</v>
       </c>
       <c r="D1903" t="s">
-        <v>3319</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="1904" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1904" s="1">
-        <v>2176</v>
+        <v>2191</v>
       </c>
       <c r="B1904" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1904" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1904">
+        <v>1</v>
       </c>
       <c r="D1904" t="s">
-        <v>3320</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="1905" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1905" s="1">
-        <v>2177</v>
+        <v>2192</v>
       </c>
       <c r="B1905" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1905" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1905">
+        <v>1</v>
       </c>
       <c r="D1905" t="s">
-        <v>3321</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="1906" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1906" s="1">
-        <v>2178</v>
+        <v>2193</v>
       </c>
       <c r="B1906" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1906" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1906">
+        <v>2</v>
       </c>
       <c r="D1906" t="s">
-        <v>3322</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="1907" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1907" s="1">
-        <v>2179</v>
+        <v>2194</v>
       </c>
       <c r="B1907" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1907" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1907">
+        <v>2</v>
       </c>
       <c r="D1907" t="s">
-        <v>3323</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="1908" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1908" s="1">
-        <v>2180</v>
+        <v>2195</v>
       </c>
       <c r="B1908" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1908" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1908">
+        <v>2</v>
       </c>
       <c r="D1908" t="s">
-        <v>3324</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1909" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1909" s="1">
-        <v>2181</v>
+        <v>2196</v>
       </c>
       <c r="B1909" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1909" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1909">
+        <v>1</v>
       </c>
       <c r="D1909" t="s">
-        <v>3325</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="1910" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1910" s="1">
-        <v>2182</v>
+        <v>2197</v>
       </c>
       <c r="B1910" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1910" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1910">
+        <v>2</v>
       </c>
       <c r="D1910" t="s">
-        <v>3326</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="1911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1911" s="1">
-        <v>2186</v>
+        <v>2198</v>
       </c>
       <c r="B1911" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1911" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1911">
+        <v>2</v>
       </c>
       <c r="D1911" t="s">
-        <v>3327</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="1912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1912" s="1">
-        <v>2187</v>
+        <v>2199</v>
       </c>
       <c r="B1912" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1912" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1912">
+        <v>2</v>
       </c>
       <c r="D1912" t="s">
-        <v>3328</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="1913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1913" s="1">
-        <v>2188</v>
+        <v>2200</v>
       </c>
       <c r="B1913" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1913" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1913">
+        <v>1</v>
       </c>
       <c r="D1913" t="s">
-        <v>3329</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="1914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1914" s="1">
-        <v>2189</v>
+        <v>2201</v>
       </c>
       <c r="B1914" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1914" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1914">
+        <v>2</v>
       </c>
       <c r="D1914" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="1915" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1915" s="1">
-        <v>2190</v>
+        <v>2202</v>
       </c>
       <c r="B1915" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1915" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1915">
+        <v>1</v>
       </c>
       <c r="D1915" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="1916" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1916" s="1">
-        <v>2191</v>
+        <v>2204</v>
       </c>
       <c r="B1916" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1916" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1916">
+        <v>2</v>
       </c>
       <c r="D1916" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="1917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1917" s="1">
-        <v>2192</v>
+        <v>2205</v>
       </c>
       <c r="B1917" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1917" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1917">
+        <v>2</v>
       </c>
       <c r="D1917" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="1918" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1918" s="1">
-        <v>2193</v>
+        <v>2206</v>
       </c>
       <c r="B1918" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1918" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1918">
+        <v>1</v>
       </c>
       <c r="D1918" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="1919" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1919" s="1">
-        <v>2194</v>
+        <v>2207</v>
       </c>
       <c r="B1919" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1919" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1919">
+        <v>2</v>
       </c>
       <c r="D1919" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="1920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1920" s="1">
-        <v>2195</v>
+        <v>2208</v>
       </c>
       <c r="B1920" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1920" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1920">
+        <v>2</v>
       </c>
       <c r="D1920" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="1921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1921" s="1">
-        <v>2196</v>
+        <v>2209</v>
       </c>
       <c r="B1921" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1921" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1921">
+        <v>1</v>
       </c>
       <c r="D1921" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="1922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1922" s="1">
-        <v>2197</v>
+        <v>2210</v>
       </c>
       <c r="B1922" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1922" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1922">
+        <v>2</v>
       </c>
       <c r="D1922" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="1923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1923" s="1">
-        <v>2198</v>
+        <v>2211</v>
       </c>
       <c r="B1923" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1923" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1923">
+        <v>1</v>
       </c>
       <c r="D1923" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="1924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1924" s="1">
-        <v>2199</v>
+        <v>2212</v>
       </c>
       <c r="B1924" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1924" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1924">
+        <v>2</v>
       </c>
       <c r="D1924" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="1925" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1925" s="1">
-        <v>2200</v>
+        <v>2213</v>
       </c>
       <c r="B1925" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1925" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1925">
+        <v>1</v>
       </c>
       <c r="D1925" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="1926" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1926" s="1">
-        <v>2201</v>
+        <v>2214</v>
       </c>
       <c r="B1926" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1926" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1926">
+        <v>2</v>
       </c>
       <c r="D1926" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="1927" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1927" s="1">
-        <v>2202</v>
+        <v>2215</v>
       </c>
       <c r="B1927" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1927" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1927">
+        <v>1</v>
       </c>
       <c r="D1927" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="1928" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1928" s="1">
-        <v>2203</v>
+        <v>2216</v>
       </c>
       <c r="B1928" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1928" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1928">
+        <v>2</v>
       </c>
       <c r="D1928" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1929" s="1">
-        <v>2204</v>
+        <v>2217</v>
       </c>
       <c r="B1929" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1929" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1929">
+        <v>1</v>
       </c>
       <c r="D1929" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="1930" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1930" s="1">
-        <v>2205</v>
+        <v>2218</v>
       </c>
       <c r="B1930" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1930" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1930">
+        <v>1</v>
       </c>
       <c r="D1930" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="1931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1931" s="1">
-        <v>2206</v>
+        <v>2219</v>
       </c>
       <c r="B1931" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1931" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1931">
+        <v>1</v>
       </c>
       <c r="D1931" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="1932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1932" s="1">
-        <v>2207</v>
+        <v>2221</v>
       </c>
       <c r="B1932" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1932" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1932">
+        <v>1</v>
       </c>
       <c r="D1932" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="1933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1933" s="1">
-        <v>2208</v>
+        <v>2222</v>
       </c>
       <c r="B1933" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1933" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1933">
+        <v>1</v>
       </c>
       <c r="D1933" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="1934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1934" s="1">
-        <v>2209</v>
+        <v>2223</v>
       </c>
       <c r="B1934" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1934" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1934">
+        <v>1</v>
       </c>
       <c r="D1934" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="1935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1935" s="1">
-        <v>2210</v>
+        <v>2224</v>
       </c>
       <c r="B1935" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1935" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1935">
+        <v>1</v>
       </c>
       <c r="D1935" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="1936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1936" s="1">
-        <v>2211</v>
+        <v>2225</v>
       </c>
       <c r="B1936" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1936" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1936">
+        <v>2</v>
       </c>
       <c r="D1936" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="1937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1937" s="1">
-        <v>2212</v>
+        <v>2226</v>
       </c>
       <c r="B1937" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1937" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1937">
+        <v>1</v>
       </c>
       <c r="D1937" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="1938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1938" s="1">
-        <v>2213</v>
+        <v>2227</v>
       </c>
       <c r="B1938" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1938" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1938">
+        <v>1</v>
       </c>
       <c r="D1938" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="1939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1939" s="1">
-        <v>2214</v>
+        <v>2228</v>
       </c>
       <c r="B1939" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1939" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1939">
+        <v>2</v>
       </c>
       <c r="D1939" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="1940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1940" s="1">
-        <v>2215</v>
+        <v>2229</v>
       </c>
       <c r="B1940" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1940" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1940">
+        <v>2</v>
       </c>
       <c r="D1940" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="1941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1941" s="1">
-        <v>2216</v>
+        <v>2230</v>
       </c>
       <c r="B1941" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1941" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1941">
+        <v>1</v>
       </c>
       <c r="D1941" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="1942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1942" s="1">
-        <v>2217</v>
+        <v>2231</v>
       </c>
       <c r="B1942" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1942" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1942">
+        <v>2</v>
       </c>
       <c r="D1942" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="1943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1943" s="1">
-        <v>2218</v>
+        <v>2232</v>
       </c>
       <c r="B1943" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1943" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1943">
+        <v>2</v>
       </c>
       <c r="D1943" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="1944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1944" s="1">
-        <v>2219</v>
+        <v>2233</v>
       </c>
       <c r="B1944" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1944" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1944">
+        <v>-1</v>
       </c>
       <c r="D1944" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="1945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1945" s="1">
-        <v>2221</v>
+        <v>2234</v>
       </c>
       <c r="B1945" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1945" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1945">
+        <v>1</v>
       </c>
       <c r="D1945" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="1946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1946" s="1">
-        <v>2222</v>
+        <v>2235</v>
       </c>
       <c r="B1946" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1946" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1946">
+        <v>2</v>
       </c>
       <c r="D1946" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="1947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1947" s="1">
-        <v>2223</v>
+        <v>2236</v>
       </c>
       <c r="B1947" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1947" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1947">
+        <v>2</v>
       </c>
       <c r="D1947" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="1948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1948" s="1">
-        <v>2224</v>
+        <v>2237</v>
       </c>
       <c r="B1948" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1948" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1948">
+        <v>1</v>
       </c>
       <c r="D1948" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="1949" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1949" s="1">
-        <v>2225</v>
+        <v>2238</v>
       </c>
       <c r="B1949" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1949" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1949">
+        <v>2</v>
       </c>
       <c r="D1949" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="1950" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1950" s="1">
-        <v>2226</v>
+        <v>2239</v>
       </c>
       <c r="B1950" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1950" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1950">
+        <v>2</v>
       </c>
       <c r="D1950" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="1951" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1951" s="1">
-        <v>2227</v>
+        <v>2240</v>
       </c>
       <c r="B1951" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1951" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1951">
+        <v>2</v>
       </c>
       <c r="D1951" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="1952" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1952" s="1">
-        <v>2228</v>
+        <v>2241</v>
       </c>
       <c r="B1952" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1952" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1952">
+        <v>2</v>
       </c>
       <c r="D1952" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="1953" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1953" s="1">
-        <v>2229</v>
+        <v>2242</v>
       </c>
       <c r="B1953" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1953" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1953">
+        <v>1</v>
       </c>
       <c r="D1953" t="s">
-        <v>3370</v>
+        <v>525</v>
       </c>
     </row>
     <row r="1954" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1954" s="1">
-        <v>2230</v>
+        <v>2243</v>
       </c>
       <c r="B1954" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1954" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1954">
+        <v>2</v>
       </c>
       <c r="D1954" t="s">
         <v>3371</v>
@@ -60452,13 +60396,13 @@
     </row>
     <row r="1955" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1955" s="1">
-        <v>2231</v>
+        <v>2244</v>
       </c>
       <c r="B1955" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1955" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1955">
+        <v>2</v>
       </c>
       <c r="D1955" t="s">
         <v>3372</v>
@@ -60466,13 +60410,13 @@
     </row>
     <row r="1956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1956" s="1">
-        <v>2232</v>
+        <v>2245</v>
       </c>
       <c r="B1956" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1956" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1956">
+        <v>1</v>
       </c>
       <c r="D1956" t="s">
         <v>3373</v>
@@ -60480,13 +60424,13 @@
     </row>
     <row r="1957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1957" s="1">
-        <v>2233</v>
+        <v>2246</v>
       </c>
       <c r="B1957" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1957" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1957">
+        <v>2</v>
       </c>
       <c r="D1957" t="s">
         <v>3374</v>
@@ -60494,13 +60438,13 @@
     </row>
     <row r="1958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1958" s="1">
-        <v>2234</v>
+        <v>2247</v>
       </c>
       <c r="B1958" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1958" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1958">
+        <v>1</v>
       </c>
       <c r="D1958" t="s">
         <v>3375</v>
@@ -60508,13 +60452,13 @@
     </row>
     <row r="1959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1959" s="1">
-        <v>2235</v>
+        <v>2248</v>
       </c>
       <c r="B1959" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1959" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1959">
+        <v>2</v>
       </c>
       <c r="D1959" t="s">
         <v>3376</v>
@@ -60522,13 +60466,13 @@
     </row>
     <row r="1960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1960" s="1">
-        <v>2236</v>
+        <v>2249</v>
       </c>
       <c r="B1960" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1960" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1960">
+        <v>2</v>
       </c>
       <c r="D1960" t="s">
         <v>3377</v>
@@ -60536,13 +60480,13 @@
     </row>
     <row r="1961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1961" s="1">
-        <v>2237</v>
+        <v>2250</v>
       </c>
       <c r="B1961" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1961" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1961">
+        <v>2</v>
       </c>
       <c r="D1961" t="s">
         <v>3378</v>
@@ -60550,13 +60494,13 @@
     </row>
     <row r="1962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1962" s="1">
-        <v>2238</v>
+        <v>2251</v>
       </c>
       <c r="B1962" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1962" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1962">
+        <v>2</v>
       </c>
       <c r="D1962" t="s">
         <v>3379</v>
@@ -60564,13 +60508,13 @@
     </row>
     <row r="1963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1963" s="1">
-        <v>2239</v>
+        <v>2252</v>
       </c>
       <c r="B1963" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1963" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1963">
+        <v>2</v>
       </c>
       <c r="D1963" t="s">
         <v>3380</v>
@@ -60578,13 +60522,13 @@
     </row>
     <row r="1964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1964" s="1">
-        <v>2240</v>
+        <v>2253</v>
       </c>
       <c r="B1964" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1964" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1964">
+        <v>1</v>
       </c>
       <c r="D1964" t="s">
         <v>3381</v>
@@ -60592,13 +60536,13 @@
     </row>
     <row r="1965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1965" s="1">
-        <v>2241</v>
+        <v>2255</v>
       </c>
       <c r="B1965" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1965" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1965">
+        <v>1</v>
       </c>
       <c r="D1965" t="s">
         <v>3382</v>
@@ -60606,237 +60550,237 @@
     </row>
     <row r="1966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1966" s="1">
-        <v>2242</v>
+        <v>2256</v>
       </c>
       <c r="B1966" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1966" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1966">
+        <v>2</v>
       </c>
       <c r="D1966" t="s">
-        <v>525</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="1967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1967" s="1">
-        <v>2243</v>
+        <v>2257</v>
       </c>
       <c r="B1967" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1967" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1967">
+        <v>1</v>
       </c>
       <c r="D1967" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="1968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1968" s="1">
-        <v>2244</v>
+        <v>2258</v>
       </c>
       <c r="B1968" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1968" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1968">
+        <v>2</v>
       </c>
       <c r="D1968" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="1969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1969" s="1">
-        <v>2245</v>
+        <v>2259</v>
       </c>
       <c r="B1969" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1969" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1969">
+        <v>2</v>
       </c>
       <c r="D1969" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="1970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1970" s="1">
-        <v>2246</v>
+        <v>2260</v>
       </c>
       <c r="B1970" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1970" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1970">
+        <v>1</v>
       </c>
       <c r="D1970" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="1971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1971" s="1">
-        <v>2247</v>
+        <v>2261</v>
       </c>
       <c r="B1971" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1971" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1971">
+        <v>1</v>
       </c>
       <c r="D1971" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="1972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1972" s="1">
-        <v>2248</v>
+        <v>2262</v>
       </c>
       <c r="B1972" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1972" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1972">
+        <v>2</v>
       </c>
       <c r="D1972" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="1973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1973" s="1">
-        <v>2249</v>
+        <v>2263</v>
       </c>
       <c r="B1973" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1973" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1973">
+        <v>2</v>
       </c>
       <c r="D1973" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="1974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1974" s="1">
-        <v>2250</v>
+        <v>2264</v>
       </c>
       <c r="B1974" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1974" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1974">
+        <v>2</v>
       </c>
       <c r="D1974" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="1975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1975" s="1">
-        <v>2251</v>
+        <v>2265</v>
       </c>
       <c r="B1975" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1975" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1975">
+        <v>1</v>
       </c>
       <c r="D1975" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="1976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1976" s="1">
-        <v>2252</v>
+        <v>2266</v>
       </c>
       <c r="B1976" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1976" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1976">
+        <v>1</v>
       </c>
       <c r="D1976" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="1977" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1977" s="1">
-        <v>2253</v>
+        <v>2267</v>
       </c>
       <c r="B1977" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1977" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1977">
+        <v>2</v>
       </c>
       <c r="D1977" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="1978" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1978" s="1">
-        <v>2254</v>
+        <v>2268</v>
       </c>
       <c r="B1978" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1978" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1978">
+        <v>1</v>
       </c>
       <c r="D1978" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="1979" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1979" s="1">
-        <v>2255</v>
+        <v>2269</v>
       </c>
       <c r="B1979" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1979" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1979">
+        <v>2</v>
       </c>
       <c r="D1979" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="1980" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1980" s="1">
-        <v>2256</v>
+        <v>2270</v>
       </c>
       <c r="B1980" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1980" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1980">
+        <v>1</v>
       </c>
       <c r="D1980" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="1981" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1981" s="1">
-        <v>2257</v>
+        <v>2271</v>
       </c>
       <c r="B1981" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1981" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1981">
+        <v>1</v>
       </c>
       <c r="D1981" t="s">
-        <v>3397</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1982" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1982" s="1">
-        <v>2258</v>
+        <v>2272</v>
       </c>
       <c r="B1982" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1982" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1982">
+        <v>2</v>
       </c>
       <c r="D1982" t="s">
         <v>3398</v>
@@ -60844,13 +60788,13 @@
     </row>
     <row r="1983" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1983" s="1">
-        <v>2259</v>
+        <v>2273</v>
       </c>
       <c r="B1983" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1983" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1983">
+        <v>1</v>
       </c>
       <c r="D1983" t="s">
         <v>3399</v>
@@ -60858,13 +60802,13 @@
     </row>
     <row r="1984" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1984" s="1">
-        <v>2260</v>
+        <v>2274</v>
       </c>
       <c r="B1984" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1984" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1984">
+        <v>2</v>
       </c>
       <c r="D1984" t="s">
         <v>3400</v>
@@ -60872,13 +60816,13 @@
     </row>
     <row r="1985" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1985" s="1">
-        <v>2261</v>
+        <v>2275</v>
       </c>
       <c r="B1985" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1985" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1985">
+        <v>2</v>
       </c>
       <c r="D1985" t="s">
         <v>3401</v>
@@ -60886,13 +60830,13 @@
     </row>
     <row r="1986" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1986" s="1">
-        <v>2262</v>
+        <v>2278</v>
       </c>
       <c r="B1986" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1986" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1986">
+        <v>1</v>
       </c>
       <c r="D1986" t="s">
         <v>3402</v>
@@ -60900,13 +60844,13 @@
     </row>
     <row r="1987" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1987" s="1">
-        <v>2263</v>
+        <v>2279</v>
       </c>
       <c r="B1987" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1987" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1987">
+        <v>1</v>
       </c>
       <c r="D1987" t="s">
         <v>3403</v>
@@ -60914,13 +60858,13 @@
     </row>
     <row r="1988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1988" s="1">
-        <v>2264</v>
+        <v>2280</v>
       </c>
       <c r="B1988" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1988" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1988">
+        <v>1</v>
       </c>
       <c r="D1988" t="s">
         <v>3404</v>
@@ -60928,13 +60872,13 @@
     </row>
     <row r="1989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1989" s="1">
-        <v>2265</v>
+        <v>2281</v>
       </c>
       <c r="B1989" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1989" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1989">
+        <v>1</v>
       </c>
       <c r="D1989" t="s">
         <v>3405</v>
@@ -60942,13 +60886,13 @@
     </row>
     <row r="1990" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1990" s="1">
-        <v>2266</v>
+        <v>2282</v>
       </c>
       <c r="B1990" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1990" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1990">
+        <v>1</v>
       </c>
       <c r="D1990" t="s">
         <v>3406</v>
@@ -60956,13 +60900,13 @@
     </row>
     <row r="1991" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1991" s="1">
-        <v>2267</v>
+        <v>2283</v>
       </c>
       <c r="B1991" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1991" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1991">
+        <v>2</v>
       </c>
       <c r="D1991" t="s">
         <v>3407</v>
@@ -60970,13 +60914,13 @@
     </row>
     <row r="1992" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1992" s="1">
-        <v>2268</v>
+        <v>2284</v>
       </c>
       <c r="B1992" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1992" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1992">
+        <v>2</v>
       </c>
       <c r="D1992" t="s">
         <v>3408</v>
@@ -60984,13 +60928,13 @@
     </row>
     <row r="1993" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1993" s="1">
-        <v>2269</v>
+        <v>2285</v>
       </c>
       <c r="B1993" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1993" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1993">
+        <v>1</v>
       </c>
       <c r="D1993" t="s">
         <v>3409</v>
@@ -60998,13 +60942,13 @@
     </row>
     <row r="1994" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1994" s="1">
-        <v>2270</v>
+        <v>2286</v>
       </c>
       <c r="B1994" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1994" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1994">
+        <v>1</v>
       </c>
       <c r="D1994" t="s">
         <v>3410</v>
@@ -61012,450 +60956,240 @@
     </row>
     <row r="1995" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1995" s="1">
-        <v>2271</v>
+        <v>2287</v>
       </c>
       <c r="B1995" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1995" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1995">
+        <v>2</v>
       </c>
       <c r="D1995" t="s">
-        <v>11</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="1996" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1996" s="1">
-        <v>2272</v>
+        <v>2288</v>
       </c>
       <c r="B1996" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1996" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1996">
+        <v>1</v>
       </c>
       <c r="D1996" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="1997" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1997" s="1">
-        <v>2273</v>
+        <v>2289</v>
       </c>
       <c r="B1997" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1997" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1997">
+        <v>1</v>
       </c>
       <c r="D1997" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="1998" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1998" s="1">
-        <v>2274</v>
+        <v>2290</v>
       </c>
       <c r="B1998" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1998" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1998">
+        <v>1</v>
       </c>
       <c r="D1998" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="1999" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1999" s="1">
-        <v>2275</v>
+        <v>2291</v>
       </c>
       <c r="B1999" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C1999" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C1999">
+        <v>2</v>
       </c>
       <c r="D1999" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="2000" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2000" s="1">
-        <v>2278</v>
+        <v>2292</v>
       </c>
       <c r="B2000" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2000" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C2000">
+        <v>1</v>
       </c>
       <c r="D2000" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="2001" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2001" s="1">
-        <v>2279</v>
+        <v>2293</v>
       </c>
       <c r="B2001" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2001" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C2001">
+        <v>1</v>
       </c>
       <c r="D2001" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="2002" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2002" s="1">
-        <v>2280</v>
+        <v>2294</v>
       </c>
       <c r="B2002" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2002" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C2002">
+        <v>2</v>
       </c>
       <c r="D2002" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="2003" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2003" s="1">
-        <v>2281</v>
+        <v>2295</v>
       </c>
       <c r="B2003" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2003" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C2003">
+        <v>1</v>
       </c>
       <c r="D2003" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="2004" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2004" s="1">
-        <v>2282</v>
+        <v>2296</v>
       </c>
       <c r="B2004" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2004" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C2004">
+        <v>1</v>
       </c>
       <c r="D2004" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="2005" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2005" s="1">
-        <v>2283</v>
+        <v>2297</v>
       </c>
       <c r="B2005" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2005" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C2005">
+        <v>2</v>
       </c>
       <c r="D2005" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="2006" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2006" s="1">
-        <v>2284</v>
+        <v>2298</v>
       </c>
       <c r="B2006" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2006" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C2006">
+        <v>1</v>
       </c>
       <c r="D2006" t="s">
-        <v>3421</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="2007" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2007" s="1">
-        <v>2285</v>
+        <v>2299</v>
       </c>
       <c r="B2007" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2007" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C2007">
+        <v>1</v>
       </c>
       <c r="D2007" t="s">
-        <v>3422</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="2008" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2008" s="1">
-        <v>2286</v>
+        <v>2300</v>
       </c>
       <c r="B2008" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2008" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C2008">
+        <v>1</v>
       </c>
       <c r="D2008" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="2009" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2009" s="1">
-        <v>2287</v>
+        <v>2301</v>
       </c>
       <c r="B2009" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2009" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C2009">
+        <v>1</v>
       </c>
       <c r="D2009" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="2010" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2010" s="1">
-        <v>2288</v>
+        <v>2303</v>
       </c>
       <c r="B2010" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2010" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C2010">
+        <v>2</v>
       </c>
       <c r="D2010" t="s">
-        <v>3425</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="2011" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2011" s="1">
-        <v>2289</v>
+        <v>2304</v>
       </c>
       <c r="B2011" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2011" t="s">
-        <v>4</v>
+        <v>3319</v>
+      </c>
+      <c r="C2011">
+        <v>2</v>
       </c>
       <c r="D2011" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="2012" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2012" s="1">
-        <v>2290</v>
-      </c>
-      <c r="B2012" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2012" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2012" t="s">
         <v>3427</v>
-      </c>
-    </row>
-    <row r="2013" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2013" s="1">
-        <v>2291</v>
-      </c>
-      <c r="B2013" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2013" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2013" t="s">
-        <v>3428</v>
-      </c>
-    </row>
-    <row r="2014" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2014" s="1">
-        <v>2292</v>
-      </c>
-      <c r="B2014" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2014" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2014" t="s">
-        <v>3429</v>
-      </c>
-    </row>
-    <row r="2015" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2015" s="1">
-        <v>2293</v>
-      </c>
-      <c r="B2015" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2015" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2015" t="s">
-        <v>3430</v>
-      </c>
-    </row>
-    <row r="2016" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2016" s="1">
-        <v>2294</v>
-      </c>
-      <c r="B2016" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2016" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2016" t="s">
-        <v>3431</v>
-      </c>
-    </row>
-    <row r="2017" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2017" s="1">
-        <v>2295</v>
-      </c>
-      <c r="B2017" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2017" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2017" t="s">
-        <v>3432</v>
-      </c>
-    </row>
-    <row r="2018" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2018" s="1">
-        <v>2296</v>
-      </c>
-      <c r="B2018" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2018" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2018" t="s">
-        <v>3433</v>
-      </c>
-    </row>
-    <row r="2019" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2019" s="1">
-        <v>2297</v>
-      </c>
-      <c r="B2019" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2019" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2019" t="s">
-        <v>3434</v>
-      </c>
-    </row>
-    <row r="2020" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2020" s="1">
-        <v>2298</v>
-      </c>
-      <c r="B2020" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2020" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2020" t="s">
-        <v>3435</v>
-      </c>
-    </row>
-    <row r="2021" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2021" s="1">
-        <v>2299</v>
-      </c>
-      <c r="B2021" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2021" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2021" t="s">
-        <v>3436</v>
-      </c>
-    </row>
-    <row r="2022" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2022" s="1">
-        <v>2300</v>
-      </c>
-      <c r="B2022" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2022" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2022" t="s">
-        <v>3437</v>
-      </c>
-    </row>
-    <row r="2023" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2023" s="1">
-        <v>2301</v>
-      </c>
-      <c r="B2023" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2023" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2023" t="s">
-        <v>3438</v>
-      </c>
-    </row>
-    <row r="2024" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2024" s="1">
-        <v>2302</v>
-      </c>
-      <c r="B2024" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2024" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2024" t="s">
-        <v>3439</v>
-      </c>
-    </row>
-    <row r="2025" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2025" s="1">
-        <v>2303</v>
-      </c>
-      <c r="B2025" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2025" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2025" t="s">
-        <v>3440</v>
-      </c>
-    </row>
-    <row r="2026" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2026" s="1">
-        <v>2304</v>
-      </c>
-      <c r="B2026" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C2026" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2026" t="s">
-        <v>3441</v>
       </c>
     </row>
   </sheetData>
@@ -61487,13 +61221,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3442</v>
+        <v>3428</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>3443</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -61501,13 +61235,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3442</v>
+        <v>3428</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>3444</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -61515,13 +61249,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3442</v>
+        <v>3428</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>3445</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -61529,13 +61263,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3442</v>
+        <v>3428</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>3446</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -61543,13 +61277,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3442</v>
+        <v>3428</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>3447</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -61557,13 +61291,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3442</v>
+        <v>3428</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>3448</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -61571,13 +61305,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3442</v>
+        <v>3428</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>3449</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -61585,13 +61319,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3442</v>
+        <v>3428</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>3450</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -61599,13 +61333,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3442</v>
+        <v>3428</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>3451</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -61613,13 +61347,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3442</v>
+        <v>3428</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>3452</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -61627,13 +61361,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>3442</v>
+        <v>3428</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>3453</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -61641,13 +61375,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3442</v>
+        <v>3428</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>3454</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -61655,13 +61389,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>3442</v>
+        <v>3428</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>3455</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -61669,13 +61403,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>3457</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -61683,13 +61417,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>3458</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -61697,13 +61431,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>3459</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -61711,13 +61445,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>3460</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -61725,13 +61459,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>3461</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -61739,13 +61473,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>3462</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -61753,13 +61487,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>3463</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -61767,13 +61501,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>3464</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -61781,13 +61515,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>3465</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -61795,13 +61529,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>3466</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -61809,13 +61543,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>3467</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -61823,13 +61557,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>3468</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -61837,13 +61571,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>3469</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -61851,13 +61585,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>3442</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
         <v>3456</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3470</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -61865,13 +61599,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>3471</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -61879,7 +61613,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -61893,13 +61627,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>3472</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -61907,13 +61641,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>3473</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -61921,13 +61655,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>3474</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -61935,13 +61669,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>3475</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -61949,13 +61683,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>3476</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -61963,13 +61697,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>3477</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -61977,13 +61711,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>3478</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -61991,13 +61725,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>3479</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -62005,13 +61739,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>3480</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -62019,13 +61753,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>3481</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -62033,13 +61767,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>3482</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -62047,13 +61781,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>3483</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -62061,13 +61795,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>3484</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -62075,13 +61809,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>3485</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -62089,13 +61823,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>3486</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -62103,13 +61837,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>3487</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -62117,13 +61851,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>3488</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -62131,13 +61865,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>3489</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -62145,13 +61879,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>3490</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -62159,13 +61893,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>3491</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -62173,13 +61907,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>3492</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -62187,13 +61921,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>3493</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -62201,13 +61935,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>3494</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -62215,13 +61949,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>3495</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -62229,13 +61963,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>3496</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -62243,13 +61977,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>3497</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -62257,13 +61991,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>3498</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -62271,13 +62005,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>3499</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -62285,13 +62019,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>3500</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -62299,13 +62033,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>3501</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -62313,13 +62047,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>3502</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -62327,13 +62061,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>3503</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -62341,13 +62075,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>3504</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -62355,13 +62089,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>3505</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -62369,13 +62103,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>3506</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -62383,13 +62117,13 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>3507</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -62397,13 +62131,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>3508</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -62411,13 +62145,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>3509</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -62425,13 +62159,13 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>3510</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -62439,13 +62173,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>3511</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -62453,13 +62187,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>3512</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -62467,13 +62201,13 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>3513</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -62481,13 +62215,13 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>3514</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -62495,13 +62229,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>3515</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -62509,13 +62243,13 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>3516</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -62523,13 +62257,13 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>3456</v>
+        <v>3442</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>3517</v>
+        <v>3503</v>
       </c>
     </row>
   </sheetData>
